--- a/summary/performances.xlsx
+++ b/summary/performances.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucan\OneDrive - Politecnico di Milano\PhD\progetti\CIBB2018\summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34B5B42-CD70-4CC8-B7A8-FCE16D589467}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A3BD19-F42A-4E9C-B133-54069D6C8362}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="52">
   <si>
     <t>accuracy</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Ontological matrix</t>
+  </si>
+  <si>
+    <t>For this matrix I used only the top 5000 variant genes and their 5 neighbors ( = 25000 features)</t>
   </si>
 </sst>
 </file>
@@ -245,7 +248,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -277,20 +280,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -299,18 +312,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2154,13 +2172,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2754,33 +2772,33 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:W2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="G1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="M1" s="3" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="M1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -2819,13 +2837,13 @@
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -3980,29 +3998,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBC07E4-70E4-4EA6-BC7B-0A2447B840E5}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4016,7 +4034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -4032,15 +4050,15 @@
       <c r="E3">
         <v>0.97312299999999996</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -4057,8 +4075,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B5">
@@ -4074,62 +4092,124 @@
         <v>0.97692299999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A9" s="10" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>0.99343599999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.96574899999999997</v>
+      </c>
+      <c r="D11">
+        <v>0.95060900000000004</v>
+      </c>
+      <c r="E11">
+        <v>0.98260899999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>0.99292000000000002</v>
+      </c>
+      <c r="C12">
+        <v>0.96574899999999997</v>
+      </c>
+      <c r="D12">
+        <v>0.93517300000000003</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>0.99803900000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.99230499999999999</v>
+      </c>
+      <c r="D13">
+        <v>0.99259299999999995</v>
+      </c>
+      <c r="E13">
+        <v>0.99230799999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+      <c r="A17" s="4"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
+      <c r="A18" s="4"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+      <c r="A19" s="4"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
+      <c r="A20" s="4"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="4"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+      <c r="A22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4138,5 +4218,6 @@
     <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/summary/performances.xlsx
+++ b/summary/performances.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucan\OneDrive - Politecnico di Milano\PhD\progetti\CIBB2018\summary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canakoglu/GMQL-sources/CIBB2018/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A3BD19-F42A-4E9C-B133-54069D6C8362}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{669412F2-50BC-C24E-8080-76EC5D061859}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCGA_info" sheetId="3" r:id="rId1"/>
     <sheet name="TL" sheetId="1" r:id="rId2"/>
     <sheet name="DM" sheetId="2" r:id="rId3"/>
+    <sheet name="LADDER" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="57">
   <si>
     <t>accuracy</t>
   </si>
@@ -178,13 +179,28 @@
   </si>
   <si>
     <t>For this matrix I used only the top 5000 variant genes and their 5 neighbors ( = 25000 features)</t>
+  </si>
+  <si>
+    <t>LADDER NETWORK</t>
+  </si>
+  <si>
+    <t>KIDNEY</t>
+  </si>
+  <si>
+    <t>LUNG</t>
+  </si>
+  <si>
+    <t>In this implementation, as we agreed with Luca, I have done upsampling on the healthy cases. In other words, we replicated the healthy samples as many as needed to reach the same name of the tumorious cases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without upsampling, it was working better. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,16 +255,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -289,11 +318,156 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -305,6 +479,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -324,15 +507,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -350,7 +552,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -431,7 +633,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1116,7 +1318,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="460990440"/>
@@ -1175,7 +1377,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="460991752"/>
@@ -1217,7 +1419,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1247,7 +1449,7 @@
       <a:pPr>
         <a:defRPr sz="1400"/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1843,7 +2045,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2166,21 +2368,21 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D4" sqref="A4:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,7 +2399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2214,7 +2416,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2231,7 +2433,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2248,7 +2450,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -2265,7 +2467,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2282,7 +2484,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -2299,7 +2501,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2316,7 +2518,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -2333,7 +2535,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2350,7 +2552,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -2367,7 +2569,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2384,7 +2586,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -2401,7 +2603,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -2418,7 +2620,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -2435,7 +2637,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2452,7 +2654,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -2469,7 +2671,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -2486,7 +2688,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -2503,7 +2705,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -2520,7 +2722,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -2537,7 +2739,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -2554,7 +2756,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -2571,7 +2773,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -2588,7 +2790,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -2605,7 +2807,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -2622,7 +2824,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -2639,7 +2841,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -2656,7 +2858,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -2673,7 +2875,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -2690,7 +2892,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -2707,7 +2909,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -2724,7 +2926,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -2741,7 +2943,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
@@ -2772,35 +2974,35 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="G1" s="8" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="G1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="M1" s="8" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="M1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2837,15 +3039,15 @@
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2892,7 +3094,7 @@
         <v>0.8727243452125375</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2939,7 +3141,7 @@
         <v>0.94075163398692807</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2986,7 +3188,7 @@
         <v>0.92877816627816634</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3033,7 +3235,7 @@
         <v>0.93029331779331792</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -3080,7 +3282,7 @@
         <v>0.92328224377020118</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -3127,7 +3329,7 @@
         <v>0.90674048174048172</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -3174,7 +3376,7 @@
         <v>0.92949640287769797</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -3221,7 +3423,7 @@
         <v>0.92057008192122092</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -3268,7 +3470,7 @@
         <v>0.95059434621915884</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -3315,7 +3517,7 @@
         <v>0.93925925925925924</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -3362,7 +3564,7 @@
         <v>0.93595744680851067</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -3409,7 +3611,7 @@
         <v>0.93129770992366423</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -3456,7 +3658,7 @@
         <v>0.96538314176245199</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -3503,7 +3705,7 @@
         <v>0.9207496352822353</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -3550,7 +3752,7 @@
         <v>0.87643363728470125</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -3597,7 +3799,7 @@
         <v>0.92742919389978229</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -3644,7 +3846,7 @@
         <v>0.93150739704118346</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -3691,7 +3893,7 @@
         <v>0.93585105257590173</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
@@ -3747,7 +3949,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -3806,7 +4008,7 @@
         <v>-3.0769230769230882E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -3865,7 +4067,7 @@
         <v>-1.1764705882352899E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -3924,7 +4126,7 @@
         <v>-2.222222222222214E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -4000,27 +4202,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBC07E4-70E4-4EA6-BC7B-0A2447B840E5}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" ht="34" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4034,7 +4236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -4050,15 +4252,15 @@
       <c r="E3">
         <v>0.97312299999999996</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -4075,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
@@ -4092,25 +4294,25 @@
         <v>0.97692299999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.4">
+      <c r="A9" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -4124,16 +4326,16 @@
       <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -4150,7 +4352,7 @@
         <v>0.98260899999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -4167,7 +4369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -4184,31 +4386,31 @@
         <v>0.99230799999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
     </row>
   </sheetData>
@@ -4220,4 +4422,656 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D156AB4A-B94F-484C-9210-CE1AAD538863}">
+  <dimension ref="B1:M25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:13" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="6"/>
+      <c r="I1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="17"/>
+      <c r="C2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0.97701149425287304</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0.890625</v>
+      </c>
+      <c r="E3" s="28">
+        <v>0.80281690140844997</v>
+      </c>
+      <c r="F3" s="29">
+        <v>1</v>
+      </c>
+      <c r="H3" s="22" t="str">
+        <f>VLOOKUP($B3,TL!$G3:$K20,1,FALSE)</f>
+        <v>BRCA</v>
+      </c>
+      <c r="I3" s="15">
+        <f>VLOOKUP($B3,TL!$G3:$K20,2,FALSE)</f>
+        <v>0.98851104186424599</v>
+      </c>
+      <c r="J3" s="15">
+        <f>VLOOKUP($B3,TL!$G3:$K20,3,FALSE)</f>
+        <v>0.94562199235649746</v>
+      </c>
+      <c r="K3" s="15">
+        <f>VLOOKUP($B3,TL!$G3:$K20,4,FALSE)</f>
+        <v>0.91041666666666676</v>
+      </c>
+      <c r="L3" s="15">
+        <f>VLOOKUP($B3,TL!$G3:$K20,5,FALSE)</f>
+        <v>0.9913043478260869</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.99019607843137203</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.96212121212121204</v>
+      </c>
+      <c r="E4" s="28">
+        <v>0.94074074074073999</v>
+      </c>
+      <c r="F4" s="29">
+        <v>0.98449612403100695</v>
+      </c>
+      <c r="H4" s="23" t="e">
+        <f>VLOOKUP($B4,TL!$G5:$K22,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I4" s="15" t="e">
+        <f>VLOOKUP($B4,TL!$G5:$K22,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J4" s="15" t="e">
+        <f>VLOOKUP($B4,TL!$G5:$K22,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K4" s="15" t="e">
+        <f>VLOOKUP($B4,TL!$G5:$K22,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L4" s="15" t="e">
+        <f>VLOOKUP($B4,TL!$G5:$K22,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.98317094774136404</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.92050209205020905</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0.85271317829457305</v>
+      </c>
+      <c r="F5" s="29">
+        <v>1</v>
+      </c>
+      <c r="H5" s="23" t="e">
+        <f>VLOOKUP($B5,TL!$G6:$K23,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I5" s="15" t="e">
+        <f>VLOOKUP($B5,TL!$G6:$K23,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J5" s="15" t="e">
+        <f>VLOOKUP($B5,TL!$G6:$K23,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K5" s="15" t="e">
+        <f>VLOOKUP($B5,TL!$G6:$K23,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L5" s="15" t="e">
+        <f>VLOOKUP($B5,TL!$G6:$K23,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.960093896713615</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.679245283018868</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0.52941176470588203</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0.94736842105263097</v>
+      </c>
+      <c r="H6" s="23" t="str">
+        <f>VLOOKUP($B6,TL!$G4:$K21,1,FALSE)</f>
+        <v>BLCA</v>
+      </c>
+      <c r="I6" s="15">
+        <f>VLOOKUP($B6,TL!$G4:$K21,2,FALSE)</f>
+        <v>0.98823464269428707</v>
+      </c>
+      <c r="J6" s="15">
+        <f>VLOOKUP($B6,TL!$G4:$K21,3,FALSE)</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K6" s="15">
+        <f>VLOOKUP($B6,TL!$G4:$K21,4,FALSE)</f>
+        <v>0.88333333333333319</v>
+      </c>
+      <c r="L6" s="15">
+        <f>VLOOKUP($B6,TL!$G4:$K21,5,FALSE)</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.94155844155844104</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0</v>
+      </c>
+      <c r="F7" s="29">
+        <v>0</v>
+      </c>
+      <c r="H7" s="23" t="e">
+        <f>VLOOKUP($B7,TL!$G7:$K24,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I7" s="15" t="e">
+        <f>VLOOKUP($B7,TL!$G7:$K24,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J7" s="15" t="e">
+        <f>VLOOKUP($B7,TL!$G7:$K24,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K7" s="15" t="e">
+        <f>VLOOKUP($B7,TL!$G7:$K24,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L7" s="15" t="e">
+        <f>VLOOKUP($B7,TL!$G7:$K24,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.98480243161094205</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.94252873563218298</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0.89130434782608603</v>
+      </c>
+      <c r="F8" s="29">
+        <v>1</v>
+      </c>
+      <c r="H8" s="23" t="str">
+        <f>VLOOKUP($B8,TL!$G8:$K25,1,FALSE)</f>
+        <v>COAD</v>
+      </c>
+      <c r="I8" s="15">
+        <f>VLOOKUP($B8,TL!$G8:$K25,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="15">
+        <f>VLOOKUP($B8,TL!$G8:$K25,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="15">
+        <f>VLOOKUP($B8,TL!$G8:$K25,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="15">
+        <f>VLOOKUP($B8,TL!$G8:$K25,5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.96996466431095396</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.83168316831683098</v>
+      </c>
+      <c r="E9" s="28">
+        <v>0.73684210526315697</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0.95454545454545403</v>
+      </c>
+      <c r="H9" s="23" t="e">
+        <f>VLOOKUP($B9,TL!$G9:$K26,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I9" s="15" t="e">
+        <f>VLOOKUP($B9,TL!$G9:$K26,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J9" s="15" t="e">
+        <f>VLOOKUP($B9,TL!$G9:$K26,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K9" s="15" t="e">
+        <f>VLOOKUP($B9,TL!$G9:$K26,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L9" s="15" t="e">
+        <f>VLOOKUP($B9,TL!$G9:$K26,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.97854785478547801</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.91612903225806397</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0.85542168674698704</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0.98611111111111105</v>
+      </c>
+      <c r="H10" s="23" t="str">
+        <f>VLOOKUP($B10,TL!$G10:$K27,1,FALSE)</f>
+        <v>KIRC</v>
+      </c>
+      <c r="I10" s="15">
+        <f>VLOOKUP($B10,TL!$G10:$K27,2,FALSE)</f>
+        <v>0.99504109650905481</v>
+      </c>
+      <c r="J10" s="15">
+        <f>VLOOKUP($B10,TL!$G10:$K27,3,FALSE)</f>
+        <v>0.97873357228195934</v>
+      </c>
+      <c r="K10" s="15">
+        <f>VLOOKUP($B10,TL!$G10:$K27,4,FALSE)</f>
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="L10" s="15">
+        <f>VLOOKUP($B10,TL!$G10:$K27,5,FALSE)</f>
+        <v>0.97142857142857153</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.98142414860681104</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.91428571428571404</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0.84210526315789402</v>
+      </c>
+      <c r="F11" s="29">
+        <v>1</v>
+      </c>
+      <c r="H11" s="23" t="e">
+        <f>VLOOKUP($B11,TL!$G11:$K28,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I11" s="15" t="e">
+        <f>VLOOKUP($B11,TL!$G11:$K28,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J11" s="15" t="e">
+        <f>VLOOKUP($B11,TL!$G11:$K28,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K11" s="15" t="e">
+        <f>VLOOKUP($B11,TL!$G11:$K28,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L11" s="15" t="e">
+        <f>VLOOKUP($B11,TL!$G11:$K28,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0.93617021276595702</v>
+      </c>
+      <c r="D12" s="28">
+        <v>0.78740157480314898</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0.64935064935064901</v>
+      </c>
+      <c r="F12" s="29">
+        <v>1</v>
+      </c>
+      <c r="H12" s="23" t="str">
+        <f>VLOOKUP($B12,TL!$G12:$K29,1,FALSE)</f>
+        <v>LIHC</v>
+      </c>
+      <c r="I12" s="15">
+        <f>VLOOKUP($B12,TL!$G12:$K29,2,FALSE)</f>
+        <v>0.9857983193277311</v>
+      </c>
+      <c r="J12" s="15">
+        <f>VLOOKUP($B12,TL!$G12:$K29,3,FALSE)</f>
+        <v>0.94071542492595128</v>
+      </c>
+      <c r="K12" s="15">
+        <f>VLOOKUP($B12,TL!$G12:$K29,4,FALSE)</f>
+        <v>0.92626262626262634</v>
+      </c>
+      <c r="L12" s="15">
+        <f>VLOOKUP($B12,TL!$G12:$K29,5,FALSE)</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0.96701388888888795</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0.86131386861313797</v>
+      </c>
+      <c r="E13" s="28">
+        <v>0.75641025641025605</v>
+      </c>
+      <c r="F13" s="29">
+        <v>1</v>
+      </c>
+      <c r="H13" s="23" t="e">
+        <f>VLOOKUP($B13,TL!$G13:$K30,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I13" s="15" t="e">
+        <f>VLOOKUP($B13,TL!$G13:$K30,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J13" s="15" t="e">
+        <f>VLOOKUP($B13,TL!$G13:$K30,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K13" s="15" t="e">
+        <f>VLOOKUP($B13,TL!$G13:$K30,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L13" s="15" t="e">
+        <f>VLOOKUP($B13,TL!$G13:$K30,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0.98191681735985503</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0.91071428571428503</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0.83606557377049096</v>
+      </c>
+      <c r="F14" s="29">
+        <v>1</v>
+      </c>
+      <c r="H14" s="23" t="e">
+        <f>VLOOKUP($B14,TL!$G14:$K31,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I14" s="15" t="e">
+        <f>VLOOKUP($B14,TL!$G14:$K31,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J14" s="15" t="e">
+        <f>VLOOKUP($B14,TL!$G14:$K31,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K14" s="15" t="e">
+        <f>VLOOKUP($B14,TL!$G14:$K31,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L14" s="15" t="e">
+        <f>VLOOKUP($B14,TL!$G14:$K31,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0.88545454545454505</v>
+      </c>
+      <c r="D15" s="28">
+        <v>0.56551724137931003</v>
+      </c>
+      <c r="E15" s="28">
+        <v>0.44086021505376299</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0.78846153846153799</v>
+      </c>
+      <c r="H15" s="23" t="e">
+        <f>VLOOKUP($B15,TL!$G15:$K32,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I15" s="15" t="e">
+        <f>VLOOKUP($B15,TL!$G15:$K32,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J15" s="15" t="e">
+        <f>VLOOKUP($B15,TL!$G15:$K32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K15" s="15" t="e">
+        <f>VLOOKUP($B15,TL!$G15:$K32,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L15" s="15" t="e">
+        <f>VLOOKUP($B15,TL!$G15:$K32,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="28">
+        <v>0.95777777777777695</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0.78160919540229801</v>
+      </c>
+      <c r="E16" s="28">
+        <v>0.65384615384615297</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0.97142857142857097</v>
+      </c>
+      <c r="H16" s="23" t="e">
+        <f>VLOOKUP($B16,TL!$G16:$K33,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I16" s="15" t="e">
+        <f>VLOOKUP($B16,TL!$G16:$K33,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J16" s="15" t="e">
+        <f>VLOOKUP($B16,TL!$G16:$K33,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K16" s="15" t="e">
+        <f>VLOOKUP($B16,TL!$G16:$K33,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L16" s="15" t="e">
+        <f>VLOOKUP($B16,TL!$G16:$K33,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="30">
+        <v>0.88461538461538403</v>
+      </c>
+      <c r="D17" s="30">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="E17" s="30">
+        <v>0.47107438016528902</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0.96610169491525399</v>
+      </c>
+      <c r="H17" s="24" t="e">
+        <f>VLOOKUP($B17,TL!$G17:$K34,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I17" s="15" t="e">
+        <f>VLOOKUP($B17,TL!$G17:$K34,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J17" s="15" t="e">
+        <f>VLOOKUP($B17,TL!$G17:$K34,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K17" s="15" t="e">
+        <f>VLOOKUP($B17,TL!$G17:$K34,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L17" s="15" t="e">
+        <f>VLOOKUP($B17,TL!$G17:$K34,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" s="33" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+    </row>
+    <row r="25" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B25" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="B25:L25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/summary/performances.xlsx
+++ b/summary/performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canakoglu/GMQL-sources/CIBB2018/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{669412F2-50BC-C24E-8080-76EC5D061859}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E73E3DD5-7DC1-A34F-BC4D-83265A5695EE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4203,7 +4203,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/summary/performances.xlsx
+++ b/summary/performances.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canakoglu/GMQL-sources/CIBB2018/summary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucan\OneDrive - Politecnico di Milano\PhD\progetti\CIBB2018\summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E73E3DD5-7DC1-A34F-BC4D-83265A5695EE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8746AFC4-C034-4091-B2DA-A23C4D39DE7F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCGA_info" sheetId="3" r:id="rId1"/>
-    <sheet name="TL" sheetId="1" r:id="rId2"/>
-    <sheet name="DM" sheetId="2" r:id="rId3"/>
-    <sheet name="LADDER" sheetId="4" r:id="rId4"/>
+    <sheet name="Classical ML" sheetId="5" r:id="rId2"/>
+    <sheet name="TL" sheetId="1" r:id="rId3"/>
+    <sheet name="DM" sheetId="2" r:id="rId4"/>
+    <sheet name="LADDER" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Classical ML'!$A$2:$F$164</definedName>
+  </definedNames>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="68">
   <si>
     <t>accuracy</t>
   </si>
@@ -195,12 +199,45 @@
   <si>
     <t xml:space="preserve">Without upsampling, it was working better. </t>
   </si>
+  <si>
+    <t>classifier</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Nearest Neighbors</t>
+  </si>
+  <si>
+    <t>Linear SVM</t>
+  </si>
+  <si>
+    <t>Gradient Boosting Classifier</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Naive Bayes</t>
+  </si>
+  <si>
+    <t>AdaBoost</t>
+  </si>
+  <si>
+    <t>Gaussian Process</t>
+  </si>
+  <si>
+    <t>Classical ML methods</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +299,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -277,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -463,11 +507,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -489,24 +570,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -526,15 +589,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -552,7 +643,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -633,7 +724,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1318,7 +1409,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="460990440"/>
@@ -1377,7 +1468,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="460991752"/>
@@ -1419,7 +1510,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1449,7 +1540,7 @@
       <a:pPr>
         <a:defRPr sz="1400"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2045,7 +2136,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2368,21 +2459,21 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A4:D7"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -2399,7 +2490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2416,7 +2507,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2433,7 +2524,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2450,7 +2541,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -2467,7 +2558,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2484,7 +2575,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -2501,7 +2592,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2518,7 +2609,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -2535,7 +2626,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2552,7 +2643,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -2569,7 +2660,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2586,7 +2677,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -2603,7 +2694,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -2620,7 +2711,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -2637,7 +2728,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2654,7 +2745,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -2671,7 +2762,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -2688,7 +2779,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -2705,7 +2796,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -2722,7 +2813,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -2739,7 +2830,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -2756,7 +2847,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -2773,7 +2864,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -2790,7 +2881,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -2807,7 +2898,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -2824,7 +2915,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -2841,7 +2932,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -2858,7 +2949,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -2875,7 +2966,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -2892,7 +2983,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -2909,7 +3000,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -2926,7 +3017,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -2943,7 +3034,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
@@ -2970,6 +3061,3460 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5BAE2A-9A59-4090-92C4-B579FFF4B317}">
+  <dimension ref="A1:F164"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A1" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>0.84197978696663978</v>
+      </c>
+      <c r="D3">
+        <v>0.76685126582278484</v>
+      </c>
+      <c r="E3">
+        <v>0.76685126582278484</v>
+      </c>
+      <c r="F3">
+        <f>(C3*D3)/(2*D3-C3)</f>
+        <v>0.93342783709138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>0.98445512820512804</v>
+      </c>
+      <c r="D4">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="E4">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F67" si="0">(C4*D4)/(2*D4-C4)</f>
+        <v>0.98142897589386802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>0.9931451612903226</v>
+      </c>
+      <c r="D5">
+        <v>0.99375000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.99375000000000002</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.99254105839416051</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6">
+        <v>0.9931451612903226</v>
+      </c>
+      <c r="D6">
+        <v>0.99375000000000002</v>
+      </c>
+      <c r="E6">
+        <v>0.99375000000000002</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.99254105839416051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7">
+        <v>0.98742827537984024</v>
+      </c>
+      <c r="D7">
+        <v>0.98742088607594958</v>
+      </c>
+      <c r="E7">
+        <v>0.98742088607594958</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.98743566479432654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8">
+        <v>0.9931451612903226</v>
+      </c>
+      <c r="D8">
+        <v>0.99375000000000002</v>
+      </c>
+      <c r="E8">
+        <v>0.99375000000000002</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.99254105839416051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>0.95314794084144239</v>
+      </c>
+      <c r="D9">
+        <v>0.96859177215189884</v>
+      </c>
+      <c r="E9">
+        <v>0.96859177215189884</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.9381888723275893</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10">
+        <v>0.97382332718358711</v>
+      </c>
+      <c r="D10">
+        <v>0.97484177215189882</v>
+      </c>
+      <c r="E10">
+        <v>0.97484177215189882</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.97280700799135544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="39">
+        <v>0.95314794084144239</v>
+      </c>
+      <c r="D11" s="39">
+        <v>0.96859177215189884</v>
+      </c>
+      <c r="E11" s="39">
+        <v>0.96859177215189884</v>
+      </c>
+      <c r="F11" s="39">
+        <f t="shared" si="0"/>
+        <v>0.9381888723275893</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13">
+        <v>0.97870370370370396</v>
+      </c>
+      <c r="D13">
+        <v>0.97777777777777797</v>
+      </c>
+      <c r="E13">
+        <v>0.97777777777777797</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.97963138493944213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16">
+        <v>0.98917171717171715</v>
+      </c>
+      <c r="D16">
+        <v>0.98888888888888882</v>
+      </c>
+      <c r="E16">
+        <v>0.98888888888888882</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.98945470728207363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18">
+        <v>0.92201012070017918</v>
+      </c>
+      <c r="D18">
+        <v>0.92280701754385963</v>
+      </c>
+      <c r="E18">
+        <v>0.92280701754385963</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.92121459900134073</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19">
+        <v>0.93251028806584357</v>
+      </c>
+      <c r="D19">
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="E19">
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.93168869309838476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="39">
+        <v>0.60962768602836515</v>
+      </c>
+      <c r="D20" s="39">
+        <v>0.72514619883040932</v>
+      </c>
+      <c r="E20" s="39">
+        <v>0.72514619883040932</v>
+      </c>
+      <c r="F20" s="39">
+        <f t="shared" si="0"/>
+        <v>0.52585673349700923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21">
+        <v>0.97350196926913901</v>
+      </c>
+      <c r="D21">
+        <v>0.97201656971619965</v>
+      </c>
+      <c r="E21">
+        <v>0.97201656971619965</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.97499191563499832</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22">
+        <v>0.98880484529266321</v>
+      </c>
+      <c r="D22">
+        <v>0.98844086021505362</v>
+      </c>
+      <c r="E22">
+        <v>0.98844086021505362</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.98916909853794277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23">
+        <v>0.9949349902434016</v>
+      </c>
+      <c r="D23">
+        <v>0.995</v>
+      </c>
+      <c r="E23">
+        <v>0.995</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.99486998898126011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24">
+        <v>0.98527381686267357</v>
+      </c>
+      <c r="D24">
+        <v>0.9851612903225806</v>
+      </c>
+      <c r="E24">
+        <v>0.9851612903225806</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.98538636911158961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25">
+        <v>0.99003762697729036</v>
+      </c>
+      <c r="D25">
+        <v>0.99005376344085994</v>
+      </c>
+      <c r="E25">
+        <v>0.99005376344085994</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.99002149103971482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26">
+        <v>0.99327572221538518</v>
+      </c>
+      <c r="D26">
+        <v>0.99338709677419357</v>
+      </c>
+      <c r="E26">
+        <v>0.99338709677419357</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0.99316437262751078</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27">
+        <v>0.85190693708601528</v>
+      </c>
+      <c r="D27">
+        <v>0.89105147188436451</v>
+      </c>
+      <c r="E27">
+        <v>0.89105147188436451</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0.81605696514016346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28">
+        <v>0.98938569244179198</v>
+      </c>
+      <c r="D28">
+        <v>0.99005376344086016</v>
+      </c>
+      <c r="E28">
+        <v>0.99005376344086016</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0.98871852244004577</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="39">
+        <v>0.82534583559715091</v>
+      </c>
+      <c r="D29" s="39">
+        <v>0.88105147188436439</v>
+      </c>
+      <c r="E29" s="39">
+        <v>0.88105147188436439</v>
+      </c>
+      <c r="F29" s="39">
+        <f t="shared" si="0"/>
+        <v>0.77626543414849702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30">
+        <v>0.90135249545012841</v>
+      </c>
+      <c r="D30">
+        <v>0.87950201207243461</v>
+      </c>
+      <c r="E30">
+        <v>0.87950201207243461</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0.92431635321792094</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31">
+        <v>0.98915311791959215</v>
+      </c>
+      <c r="D31">
+        <v>0.98933601609657962</v>
+      </c>
+      <c r="E31">
+        <v>0.98933601609657962</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0.98897028735473957</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32">
+        <v>0.98885188979436778</v>
+      </c>
+      <c r="D32">
+        <v>0.98936116700201215</v>
+      </c>
+      <c r="E32">
+        <v>0.98936116700201215</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0.98834313662151152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33">
+        <v>0.96848540793194815</v>
+      </c>
+      <c r="D33">
+        <v>0.96991951710261581</v>
+      </c>
+      <c r="E33">
+        <v>0.96991951710261581</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0.96705553340674377</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34">
+        <v>0.96820310153837541</v>
+      </c>
+      <c r="D34">
+        <v>0.96808350100603624</v>
+      </c>
+      <c r="E34">
+        <v>0.96808350100603624</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0.96832273162612936</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35">
+        <v>0.9869417367804636</v>
+      </c>
+      <c r="D35">
+        <v>0.98755030181086523</v>
+      </c>
+      <c r="E35">
+        <v>0.98755030181086523</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0.98633392132871511</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36">
+        <v>0.88668675549541509</v>
+      </c>
+      <c r="D36">
+        <v>0.92024647887323963</v>
+      </c>
+      <c r="E36">
+        <v>0.92024647887323963</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0.85548863352160343</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37">
+        <v>0.98731885460497404</v>
+      </c>
+      <c r="D37">
+        <v>0.98760060362173041</v>
+      </c>
+      <c r="E37">
+        <v>0.98760060362173041</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0.98703726630069166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="39">
+        <v>0.88464172836583765</v>
+      </c>
+      <c r="D38" s="39">
+        <v>0.92203219315895379</v>
+      </c>
+      <c r="E38" s="39">
+        <v>0.92203219315895379</v>
+      </c>
+      <c r="F38" s="39">
+        <f t="shared" si="0"/>
+        <v>0.85016561387674594</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39">
+        <v>0.95747506139428284</v>
+      </c>
+      <c r="D39">
+        <v>0.95300614189585864</v>
+      </c>
+      <c r="E39">
+        <v>0.95300614189585864</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0.96198609045048045</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40">
+        <v>0.99362105810153722</v>
+      </c>
+      <c r="D40">
+        <v>0.99342218759878964</v>
+      </c>
+      <c r="E40">
+        <v>0.99342218759878964</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0.99382000824292438</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41">
+        <v>0.99186341192441962</v>
+      </c>
+      <c r="D41">
+        <v>0.9917556338346204</v>
+      </c>
+      <c r="E41">
+        <v>0.9917556338346204</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0.99197121344212535</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42">
+        <v>0.98585728517050464</v>
+      </c>
+      <c r="D42">
+        <v>0.9859496229056588</v>
+      </c>
+      <c r="E42">
+        <v>0.9859496229056588</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0.98576496472925412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43">
+        <v>0.99165563461807837</v>
+      </c>
+      <c r="D43">
+        <v>0.9917760691866504</v>
+      </c>
+      <c r="E43">
+        <v>0.9917760691866504</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0.99153522929547155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44">
+        <v>0.99074537493195092</v>
+      </c>
+      <c r="D44">
+        <v>0.99090863929910145</v>
+      </c>
+      <c r="E44">
+        <v>0.99090863929910145</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0.99058216435555657</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45">
+        <v>0.89864567168925424</v>
+      </c>
+      <c r="D45">
+        <v>0.92319830194643915</v>
+      </c>
+      <c r="E45">
+        <v>0.92319830194643915</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0.87536517239403921</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46">
+        <v>0.99328908596412335</v>
+      </c>
+      <c r="D46">
+        <v>0.99336754279004658</v>
+      </c>
+      <c r="E46">
+        <v>0.99336754279004658</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>0.99321064153036553</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="39">
+        <v>0.86115187067185472</v>
+      </c>
+      <c r="D47" s="39">
+        <v>0.90588301043219077</v>
+      </c>
+      <c r="E47" s="39">
+        <v>0.90588301043219077</v>
+      </c>
+      <c r="F47" s="39">
+        <f t="shared" si="0"/>
+        <v>0.82063037762013002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48">
+        <v>0.90565947134350722</v>
+      </c>
+      <c r="D48">
+        <v>0.89015835042150826</v>
+      </c>
+      <c r="E48">
+        <v>0.89015835042150826</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0.92171002978625005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49">
+        <v>0.96519858215926679</v>
+      </c>
+      <c r="D49">
+        <v>0.96274948735475041</v>
+      </c>
+      <c r="E49">
+        <v>0.96274948735475041</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0.96766016902440921</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50">
+        <v>0.98735946229959559</v>
+      </c>
+      <c r="D50">
+        <v>0.98756151742993858</v>
+      </c>
+      <c r="E50">
+        <v>0.98756151742993858</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0.98715748983331675</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51">
+        <v>0.9714780208942102</v>
+      </c>
+      <c r="D51">
+        <v>0.97158293460925038</v>
+      </c>
+      <c r="E51">
+        <v>0.97158293460925038</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0.97137312983436241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52">
+        <v>0.9650600050274879</v>
+      </c>
+      <c r="D52">
+        <v>0.96447254499886081</v>
+      </c>
+      <c r="E52">
+        <v>0.96447254499886081</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>0.96564818113584405</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53">
+        <v>0.98684111280492293</v>
+      </c>
+      <c r="D53">
+        <v>0.98752904989747081</v>
+      </c>
+      <c r="E53">
+        <v>0.98752904989747081</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>0.98615413351303938</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54">
+        <v>0.85313279012115406</v>
+      </c>
+      <c r="D54">
+        <v>0.89363465481886539</v>
+      </c>
+      <c r="E54">
+        <v>0.89363465481886539</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>0.81614304813724192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55">
+        <v>0.99089637127194619</v>
+      </c>
+      <c r="D55">
+        <v>0.99116541353383458</v>
+      </c>
+      <c r="E55">
+        <v>0.99116541353383458</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>0.99062747502826054</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="39">
+        <v>0.84602193018280425</v>
+      </c>
+      <c r="D56" s="39">
+        <v>0.89542036910457967</v>
+      </c>
+      <c r="E56" s="39">
+        <v>0.89542036910457967</v>
+      </c>
+      <c r="F56" s="39">
+        <f t="shared" si="0"/>
+        <v>0.8017889383227903</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57">
+        <v>0.88418803850719929</v>
+      </c>
+      <c r="D57">
+        <v>0.85546016483516485</v>
+      </c>
+      <c r="E57">
+        <v>0.85546016483516485</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>0.91491242479773871</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58">
+        <v>0.98527724837781461</v>
+      </c>
+      <c r="D58">
+        <v>0.98440934065934083</v>
+      </c>
+      <c r="E58">
+        <v>0.98440934065934083</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>0.98614668783411374</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59">
+        <v>0.98870339625781156</v>
+      </c>
+      <c r="D59">
+        <v>0.98894230769230762</v>
+      </c>
+      <c r="E59">
+        <v>0.98894230769230762</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>0.98846460022921379</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60">
+        <v>0.97793345861519443</v>
+      </c>
+      <c r="D60">
+        <v>0.97785027472527475</v>
+      </c>
+      <c r="E60">
+        <v>0.97785027472527475</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>0.97801665665891335</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61">
+        <v>0.97969812833343917</v>
+      </c>
+      <c r="D61">
+        <v>0.98001373626373645</v>
+      </c>
+      <c r="E61">
+        <v>0.98001373626373645</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>0.97938272361722756</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62">
+        <v>0.98566374433329162</v>
+      </c>
+      <c r="D62">
+        <v>0.98664148351648362</v>
+      </c>
+      <c r="E62">
+        <v>0.98664148351648362</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>0.98468794106606472</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63">
+        <v>0.88490138926114548</v>
+      </c>
+      <c r="D63">
+        <v>0.92221840659340681</v>
+      </c>
+      <c r="E63">
+        <v>0.92221840659340681</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>0.85048694279360326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64">
+        <v>0.99121166033877439</v>
+      </c>
+      <c r="D64">
+        <v>0.99110576923076921</v>
+      </c>
+      <c r="E64">
+        <v>0.99110576923076921</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>0.99131757407630161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="39">
+        <v>0.88490138926114548</v>
+      </c>
+      <c r="D65" s="39">
+        <v>0.92221840659340681</v>
+      </c>
+      <c r="E65" s="39">
+        <v>0.92221840659340681</v>
+      </c>
+      <c r="F65" s="39">
+        <f t="shared" si="0"/>
+        <v>0.85048694279360326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66">
+        <v>0.95766466489623159</v>
+      </c>
+      <c r="D66">
+        <v>0.9529847345636816</v>
+      </c>
+      <c r="E66">
+        <v>0.9529847345636816</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>0.96239078659640898</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67">
+        <v>0.9946838515020332</v>
+      </c>
+      <c r="D67">
+        <v>0.99461038961038961</v>
+      </c>
+      <c r="E67">
+        <v>0.99461038961038961</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>0.99475732424626429</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68">
+        <v>0.99828661437572319</v>
+      </c>
+      <c r="D68">
+        <v>0.99821428571428561</v>
+      </c>
+      <c r="E68">
+        <v>0.99821428571428561</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68:F131" si="1">(C68*D68)/(2*D68-C68)</f>
+        <v>0.99835895351950787</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69">
+        <v>0.99277366048293136</v>
+      </c>
+      <c r="D69">
+        <v>0.99279220779220778</v>
+      </c>
+      <c r="E69">
+        <v>0.99279220779220778</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>0.99275511386664239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70">
+        <v>0.99102894055639323</v>
+      </c>
+      <c r="D70">
+        <v>0.99097402597402595</v>
+      </c>
+      <c r="E70">
+        <v>0.99097402597402595</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>0.99108386122525394</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71">
+        <v>0.9946838515020332</v>
+      </c>
+      <c r="D71">
+        <v>0.99461038961038961</v>
+      </c>
+      <c r="E71">
+        <v>0.99461038961038961</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>0.99475732424626429</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72">
+        <v>0.86119433663798728</v>
+      </c>
+      <c r="D72">
+        <v>0.90236329460013676</v>
+      </c>
+      <c r="E72">
+        <v>0.90236329460013676</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>0.82361801283346525</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73">
+        <v>0.9946838515020332</v>
+      </c>
+      <c r="D73">
+        <v>0.99461038961038961</v>
+      </c>
+      <c r="E73">
+        <v>0.99461038961038961</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>0.99475732424626429</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="39">
+        <v>0.8639593709564195</v>
+      </c>
+      <c r="D74" s="39">
+        <v>0.90781784005468202</v>
+      </c>
+      <c r="E74" s="39">
+        <v>0.90781784005468202</v>
+      </c>
+      <c r="F74" s="39">
+        <f t="shared" si="1"/>
+        <v>0.82414337994265474</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75">
+        <v>0.82051062593352886</v>
+      </c>
+      <c r="D75">
+        <v>0.75941510624868513</v>
+      </c>
+      <c r="E75">
+        <v>0.75941510624868513</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>0.89229655899751925</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76">
+        <v>0.97017679883877239</v>
+      </c>
+      <c r="D76">
+        <v>0.97433200084157356</v>
+      </c>
+      <c r="E76">
+        <v>0.97433200084157356</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>0.9660568874430101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77">
+        <v>0.96093826471544563</v>
+      </c>
+      <c r="D77">
+        <v>0.96412791920892082</v>
+      </c>
+      <c r="E77">
+        <v>0.96412791920892082</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>0.9577696454973843</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78">
+        <v>0.97017679883877239</v>
+      </c>
+      <c r="D78">
+        <v>0.97433200084157356</v>
+      </c>
+      <c r="E78">
+        <v>0.97433200084157356</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>0.9660568874430101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79">
+        <v>0.957852406083744</v>
+      </c>
+      <c r="D79">
+        <v>0.95897328003366289</v>
+      </c>
+      <c r="E79">
+        <v>0.95897328003366289</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>0.9567341492904996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80">
+        <v>0.97017679883877239</v>
+      </c>
+      <c r="D80">
+        <v>0.97433200084157356</v>
+      </c>
+      <c r="E80">
+        <v>0.97433200084157356</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>0.9660568874430101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81">
+        <v>0.91624610536322804</v>
+      </c>
+      <c r="D81">
+        <v>0.94361455922575199</v>
+      </c>
+      <c r="E81">
+        <v>0.94361455922575199</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>0.89042048439629262</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82">
+        <v>0.97017679883877239</v>
+      </c>
+      <c r="D82">
+        <v>0.97433200084157356</v>
+      </c>
+      <c r="E82">
+        <v>0.97433200084157356</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>0.9660568874430101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" s="39">
+        <v>0.91624610536322804</v>
+      </c>
+      <c r="D83" s="39">
+        <v>0.94361455922575199</v>
+      </c>
+      <c r="E83" s="39">
+        <v>0.94361455922575199</v>
+      </c>
+      <c r="F83" s="39">
+        <f t="shared" si="1"/>
+        <v>0.89042048439629262</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" t="s">
+        <v>58</v>
+      </c>
+      <c r="C84">
+        <v>0.83829666999211294</v>
+      </c>
+      <c r="D84">
+        <v>0.77245763925416311</v>
+      </c>
+      <c r="E84">
+        <v>0.77245763925416311</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>0.91640477464424985</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" t="s">
+        <v>59</v>
+      </c>
+      <c r="C85">
+        <v>0.98271741280891078</v>
+      </c>
+      <c r="D85">
+        <v>0.98360090613611739</v>
+      </c>
+      <c r="E85">
+        <v>0.98360090613611739</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>0.98183550520608875</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" t="s">
+        <v>60</v>
+      </c>
+      <c r="C86">
+        <v>0.98678895941566858</v>
+      </c>
+      <c r="D86">
+        <v>0.98829574181686863</v>
+      </c>
+      <c r="E86">
+        <v>0.98829574181686863</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>0.98528676458249154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" t="s">
+        <v>61</v>
+      </c>
+      <c r="C87">
+        <v>0.96413117899139555</v>
+      </c>
+      <c r="D87">
+        <v>0.96480421652732118</v>
+      </c>
+      <c r="E87">
+        <v>0.96480421652732118</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>0.9634590798090622</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88">
+        <v>0.98000328877793541</v>
+      </c>
+      <c r="D88">
+        <v>0.97892225312063497</v>
+      </c>
+      <c r="E88">
+        <v>0.97892225312063497</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>0.98108671467625141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" t="s">
+        <v>63</v>
+      </c>
+      <c r="C89">
+        <v>0.97873043188261954</v>
+      </c>
+      <c r="D89">
+        <v>0.98123660709815919</v>
+      </c>
+      <c r="E89">
+        <v>0.98123660709815919</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>0.9762370260908031</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" t="s">
+        <v>64</v>
+      </c>
+      <c r="C90">
+        <v>0.93363198228271882</v>
+      </c>
+      <c r="D90">
+        <v>0.95541407947760959</v>
+      </c>
+      <c r="E90">
+        <v>0.95541407947760959</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>0.91282094856419826</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91">
+        <v>0.98776699291217041</v>
+      </c>
+      <c r="D91">
+        <v>0.98826267795401757</v>
+      </c>
+      <c r="E91">
+        <v>0.98826267795401757</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>0.98727180486467481</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C92" s="39">
+        <v>0.93363198228271882</v>
+      </c>
+      <c r="D92" s="39">
+        <v>0.95541407947760959</v>
+      </c>
+      <c r="E92" s="39">
+        <v>0.95541407947760959</v>
+      </c>
+      <c r="F92" s="39">
+        <f t="shared" si="1"/>
+        <v>0.91282094856419826</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>58</v>
+      </c>
+      <c r="C93">
+        <v>0.95886615515771523</v>
+      </c>
+      <c r="D93">
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="E93">
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>0.96122209165687411</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94">
+        <v>0.97893845285149617</v>
+      </c>
+      <c r="D94">
+        <v>0.97826086956521741</v>
+      </c>
+      <c r="E94">
+        <v>0.97826086956521741</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>0.97961697543188164</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>60</v>
+      </c>
+      <c r="C95">
+        <v>0.97734691212952085</v>
+      </c>
+      <c r="D95">
+        <v>0.97826086956521741</v>
+      </c>
+      <c r="E95">
+        <v>0.97826086956521741</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>0.97643466086144881</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>62</v>
+      </c>
+      <c r="C97">
+        <v>0.97893845285149617</v>
+      </c>
+      <c r="D97">
+        <v>0.97826086956521741</v>
+      </c>
+      <c r="E97">
+        <v>0.97826086956521741</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>0.97961697543188164</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>64</v>
+      </c>
+      <c r="C99">
+        <v>0.71176612359008962</v>
+      </c>
+      <c r="D99">
+        <v>0.80039525691699609</v>
+      </c>
+      <c r="E99">
+        <v>0.80039525691699609</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="1"/>
+        <v>0.64080832382946129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>65</v>
+      </c>
+      <c r="C100">
+        <v>0.97734691212952085</v>
+      </c>
+      <c r="D100">
+        <v>0.97826086956521741</v>
+      </c>
+      <c r="E100">
+        <v>0.97826086956521741</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>0.97643466086144881</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C101" s="39">
+        <v>0.71176612359008962</v>
+      </c>
+      <c r="D101" s="39">
+        <v>0.80039525691699609</v>
+      </c>
+      <c r="E101" s="39">
+        <v>0.80039525691699609</v>
+      </c>
+      <c r="F101" s="39">
+        <f t="shared" si="1"/>
+        <v>0.64080832382946129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>58</v>
+      </c>
+      <c r="C102">
+        <v>0.8660816467668877</v>
+      </c>
+      <c r="D102">
+        <v>0.83653846153846145</v>
+      </c>
+      <c r="E102">
+        <v>0.83653846153846145</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>0.89778791725507401</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103">
+        <v>0.96933568783367163</v>
+      </c>
+      <c r="D103">
+        <v>0.97115384615384603</v>
+      </c>
+      <c r="E103">
+        <v>0.97115384615384603</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>0.96752432456959747</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>60</v>
+      </c>
+      <c r="C104">
+        <v>0.94826880904183519</v>
+      </c>
+      <c r="D104">
+        <v>0.95192307692307676</v>
+      </c>
+      <c r="E104">
+        <v>0.95192307692307676</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="1"/>
+        <v>0.94464249007298773</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>61</v>
+      </c>
+      <c r="C105">
+        <v>0.97856570512820518</v>
+      </c>
+      <c r="D105">
+        <v>0.98076923076923084</v>
+      </c>
+      <c r="E105">
+        <v>0.98076923076923084</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="1"/>
+        <v>0.97637205875436972</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>62</v>
+      </c>
+      <c r="C106">
+        <v>0.91098132378374319</v>
+      </c>
+      <c r="D106">
+        <v>0.91346153846153844</v>
+      </c>
+      <c r="E106">
+        <v>0.91346153846153844</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="1"/>
+        <v>0.90851454110602192</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107">
+        <v>0.97856570512820518</v>
+      </c>
+      <c r="D107">
+        <v>0.98076923076923084</v>
+      </c>
+      <c r="E107">
+        <v>0.98076923076923084</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="1"/>
+        <v>0.97637205875436972</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>64</v>
+      </c>
+      <c r="C108">
+        <v>0.85819735819735832</v>
+      </c>
+      <c r="D108">
+        <v>0.90384615384615397</v>
+      </c>
+      <c r="E108">
+        <v>0.90384615384615397</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="1"/>
+        <v>0.8169378698224854</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s">
+        <v>65</v>
+      </c>
+      <c r="C109">
+        <v>0.9464882943143812</v>
+      </c>
+      <c r="D109">
+        <v>0.9423076923076924</v>
+      </c>
+      <c r="E109">
+        <v>0.9423076923076924</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="1"/>
+        <v>0.95070615658850921</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" s="39">
+        <v>0.85819735819735832</v>
+      </c>
+      <c r="D110" s="39">
+        <v>0.90384615384615397</v>
+      </c>
+      <c r="E110" s="39">
+        <v>0.90384615384615397</v>
+      </c>
+      <c r="F110" s="39">
+        <f t="shared" si="1"/>
+        <v>0.8169378698224854</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111" t="s">
+        <v>58</v>
+      </c>
+      <c r="C111">
+        <v>0.92829222628046337</v>
+      </c>
+      <c r="D111">
+        <v>0.91932447397563677</v>
+      </c>
+      <c r="E111">
+        <v>0.91932447397563677</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="1"/>
+        <v>0.93743665785724206</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
+        <v>59</v>
+      </c>
+      <c r="C112">
+        <v>0.97097998646815376</v>
+      </c>
+      <c r="D112">
+        <v>0.96910299003322242</v>
+      </c>
+      <c r="E112">
+        <v>0.96910299003322242</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="1"/>
+        <v>0.97286426789261193</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B113" t="s">
+        <v>60</v>
+      </c>
+      <c r="C113">
+        <v>0.98628246611505621</v>
+      </c>
+      <c r="D113">
+        <v>0.98576965669988925</v>
+      </c>
+      <c r="E113">
+        <v>0.98576965669988925</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="1"/>
+        <v>0.98679580934736344</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" t="s">
+        <v>61</v>
+      </c>
+      <c r="C114">
+        <v>0.97660742109117404</v>
+      </c>
+      <c r="D114">
+        <v>0.97630121816168336</v>
+      </c>
+      <c r="E114">
+        <v>0.97630121816168336</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="1"/>
+        <v>0.97691381615327322</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" t="s">
+        <v>62</v>
+      </c>
+      <c r="C115">
+        <v>0.97292253518747041</v>
+      </c>
+      <c r="D115">
+        <v>0.97392026578073099</v>
+      </c>
+      <c r="E115">
+        <v>0.97392026578073099</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="1"/>
+        <v>0.97192684674819696</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116">
+        <v>0.98590280848197376</v>
+      </c>
+      <c r="D116">
+        <v>0.98576965669988925</v>
+      </c>
+      <c r="E116">
+        <v>0.98576965669988925</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="1"/>
+        <v>0.98603599623958682</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117" t="s">
+        <v>64</v>
+      </c>
+      <c r="C117">
+        <v>0.82439242778758037</v>
+      </c>
+      <c r="D117">
+        <v>0.87884828349944633</v>
+      </c>
+      <c r="E117">
+        <v>0.87884828349944633</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="1"/>
+        <v>0.77629128560739868</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B118" t="s">
+        <v>65</v>
+      </c>
+      <c r="C118">
+        <v>0.98875533571121343</v>
+      </c>
+      <c r="D118">
+        <v>0.98815060908084162</v>
+      </c>
+      <c r="E118">
+        <v>0.98815060908084162</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="1"/>
+        <v>0.98936080295385254</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C119" s="39">
+        <v>0.82559333658342593</v>
+      </c>
+      <c r="D119" s="39">
+        <v>0.88122923588039881</v>
+      </c>
+      <c r="E119" s="39">
+        <v>0.88122923588039881</v>
+      </c>
+      <c r="F119" s="39">
+        <f t="shared" si="1"/>
+        <v>0.7765653324345565</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" t="s">
+        <v>58</v>
+      </c>
+      <c r="C120">
+        <v>0.95501782230862176</v>
+      </c>
+      <c r="D120">
+        <v>0.95002858776443677</v>
+      </c>
+      <c r="E120">
+        <v>0.95002858776443677</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="1"/>
+        <v>0.96005973711686565</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>59</v>
+      </c>
+      <c r="C121">
+        <v>0.98822025419546444</v>
+      </c>
+      <c r="D121">
+        <v>0.9875357347055459</v>
+      </c>
+      <c r="E121">
+        <v>0.9875357347055459</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="1"/>
+        <v>0.98890572330559889</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" t="s">
+        <v>60</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" t="s">
+        <v>61</v>
+      </c>
+      <c r="C123">
+        <v>0.9871043967523252</v>
+      </c>
+      <c r="D123">
+        <v>0.98742138364779863</v>
+      </c>
+      <c r="E123">
+        <v>0.98742138364779863</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="1"/>
+        <v>0.98678761331293874</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" t="s">
+        <v>62</v>
+      </c>
+      <c r="C124">
+        <v>0.98738927821125644</v>
+      </c>
+      <c r="D124">
+        <v>0.98742138364779874</v>
+      </c>
+      <c r="E124">
+        <v>0.98742138364779874</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="1"/>
+        <v>0.9873571748624258</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" t="s">
+        <v>63</v>
+      </c>
+      <c r="C125">
+        <v>0.9966968524642128</v>
+      </c>
+      <c r="D125">
+        <v>0.99685534591194958</v>
+      </c>
+      <c r="E125">
+        <v>0.99685534591194958</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="1"/>
+        <v>0.9965384094072971</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" t="s">
+        <v>64</v>
+      </c>
+      <c r="C126">
+        <v>0.8749558900957406</v>
+      </c>
+      <c r="D126">
+        <v>0.90074328187535757</v>
+      </c>
+      <c r="E126">
+        <v>0.90074328187535757</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="1"/>
+        <v>0.85060393827230385</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" t="s">
+        <v>65</v>
+      </c>
+      <c r="C127">
+        <v>0.98764205423364482</v>
+      </c>
+      <c r="D127">
+        <v>0.98742138364779874</v>
+      </c>
+      <c r="E127">
+        <v>0.98742138364779874</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="1"/>
+        <v>0.98786282347320298</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C128" s="39">
+        <v>0.85372063331151693</v>
+      </c>
+      <c r="D128" s="39">
+        <v>0.90074328187535724</v>
+      </c>
+      <c r="E128" s="39">
+        <v>0.90074328187535724</v>
+      </c>
+      <c r="F128" s="39">
+        <f t="shared" si="1"/>
+        <v>0.81136396694210688</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" t="s">
+        <v>58</v>
+      </c>
+      <c r="C129">
+        <v>0.93444959279898565</v>
+      </c>
+      <c r="D129">
+        <v>0.92488765015988239</v>
+      </c>
+      <c r="E129">
+        <v>0.92488765015988239</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="1"/>
+        <v>0.94421131295178096</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" t="s">
+        <v>59</v>
+      </c>
+      <c r="C130">
+        <v>0.98831699399005002</v>
+      </c>
+      <c r="D130">
+        <v>0.98781004234724756</v>
+      </c>
+      <c r="E130">
+        <v>0.98781004234724756</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="1"/>
+        <v>0.98882446624292764</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" t="s">
+        <v>60</v>
+      </c>
+      <c r="C131">
+        <v>0.99484391314765863</v>
+      </c>
+      <c r="D131">
+        <v>0.99479733817301885</v>
+      </c>
+      <c r="E131">
+        <v>0.99479733817301885</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="1"/>
+        <v>0.99489049248364869</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" t="s">
+        <v>61</v>
+      </c>
+      <c r="C132">
+        <v>0.98434243634142959</v>
+      </c>
+      <c r="D132">
+        <v>0.98436176648517837</v>
+      </c>
+      <c r="E132">
+        <v>0.98436176648517837</v>
+      </c>
+      <c r="F132">
+        <f t="shared" ref="F132:F164" si="2">(C132*D132)/(2*D132-C132)</f>
+        <v>0.98432310695684699</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" t="s">
+        <v>62</v>
+      </c>
+      <c r="C133">
+        <v>0.97811763271977203</v>
+      </c>
+      <c r="D133">
+        <v>0.9790953677296691</v>
+      </c>
+      <c r="E133">
+        <v>0.9790953677296691</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="2"/>
+        <v>0.97714184851486474</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>63</v>
+      </c>
+      <c r="C134">
+        <v>0.993049615491292</v>
+      </c>
+      <c r="D134">
+        <v>0.99307320024198442</v>
+      </c>
+      <c r="E134">
+        <v>0.99307320024198442</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="2"/>
+        <v>0.99302603186081362</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>64</v>
+      </c>
+      <c r="C135">
+        <v>0.8477845121649672</v>
+      </c>
+      <c r="D135">
+        <v>0.89551788955146494</v>
+      </c>
+      <c r="E135">
+        <v>0.89551788955146494</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="2"/>
+        <v>0.80488224478401083</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" t="s">
+        <v>65</v>
+      </c>
+      <c r="C136">
+        <v>0.99117336337232165</v>
+      </c>
+      <c r="D136">
+        <v>0.99128748595626992</v>
+      </c>
+      <c r="E136">
+        <v>0.99128748595626992</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="2"/>
+        <v>0.99105926706221448</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C137" s="39">
+        <v>0.84865190165620985</v>
+      </c>
+      <c r="D137" s="39">
+        <v>0.89724202748249926</v>
+      </c>
+      <c r="E137" s="39">
+        <v>0.89724202748249926</v>
+      </c>
+      <c r="F137" s="39">
+        <f t="shared" si="2"/>
+        <v>0.80505420565915642</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B138" t="s">
+        <v>58</v>
+      </c>
+      <c r="C138">
+        <v>0.94992033136233156</v>
+      </c>
+      <c r="D138">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E138">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="2"/>
+        <v>0.9548921682757836</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B139" t="s">
+        <v>59</v>
+      </c>
+      <c r="C139">
+        <v>0.98032714412024757</v>
+      </c>
+      <c r="D139">
+        <v>0.98</v>
+      </c>
+      <c r="E139">
+        <v>0.98</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="2"/>
+        <v>0.9806545067282787</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B140" t="s">
+        <v>60</v>
+      </c>
+      <c r="C140">
+        <v>0.99480081716036761</v>
+      </c>
+      <c r="D140">
+        <v>0.995</v>
+      </c>
+      <c r="E140">
+        <v>0.995</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="2"/>
+        <v>0.99460171405111342</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B141" t="s">
+        <v>61</v>
+      </c>
+      <c r="C141">
+        <v>0.95539917182918721</v>
+      </c>
+      <c r="D141">
+        <v>0.96</v>
+      </c>
+      <c r="E141">
+        <v>0.96</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="2"/>
+        <v>0.95084223252771638</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B142" t="s">
+        <v>62</v>
+      </c>
+      <c r="C142">
+        <v>0.96083360641358162</v>
+      </c>
+      <c r="D142">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="E142">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="2"/>
+        <v>0.95670303502576992</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B143" t="s">
+        <v>63</v>
+      </c>
+      <c r="C143">
+        <v>0.97271164196774418</v>
+      </c>
+      <c r="D143">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E143">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="2"/>
+        <v>0.97043400049102846</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B144" t="s">
+        <v>64</v>
+      </c>
+      <c r="C144">
+        <v>0.8569834515366429</v>
+      </c>
+      <c r="D144">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="E144">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="2"/>
+        <v>0.81789138020937768</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B145" t="s">
+        <v>65</v>
+      </c>
+      <c r="C145">
+        <v>0.96056274388931095</v>
+      </c>
+      <c r="D145">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="E145">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="2"/>
+        <v>0.95616610771904142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B146" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C146" s="39">
+        <v>0.82382978723404254</v>
+      </c>
+      <c r="D146" s="39">
+        <v>0.88</v>
+      </c>
+      <c r="E146" s="39">
+        <v>0.88</v>
+      </c>
+      <c r="F146" s="39">
+        <f t="shared" si="2"/>
+        <v>0.77439999999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" t="s">
+        <v>58</v>
+      </c>
+      <c r="C147">
+        <v>0.89505178969012644</v>
+      </c>
+      <c r="D147">
+        <v>0.87617003367003365</v>
+      </c>
+      <c r="E147">
+        <v>0.87617003367003365</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="2"/>
+        <v>0.91476528625700393</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" t="s">
+        <v>59</v>
+      </c>
+      <c r="C148">
+        <v>0.94430917028576555</v>
+      </c>
+      <c r="D148">
+        <v>0.94905002405002403</v>
+      </c>
+      <c r="E148">
+        <v>0.94905002405002403</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="2"/>
+        <v>0.93961544570870492</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" t="s">
+        <v>60</v>
+      </c>
+      <c r="C149">
+        <v>0.95734653764856203</v>
+      </c>
+      <c r="D149">
+        <v>0.9563540163540164</v>
+      </c>
+      <c r="E149">
+        <v>0.9563540163540164</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="2"/>
+        <v>0.95834112119603532</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" t="s">
+        <v>61</v>
+      </c>
+      <c r="C150">
+        <v>0.95095808804148718</v>
+      </c>
+      <c r="D150">
+        <v>0.95440716690716698</v>
+      </c>
+      <c r="E150">
+        <v>0.95440716690716698</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="2"/>
+        <v>0.94753384827890708</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" t="s">
+        <v>62</v>
+      </c>
+      <c r="C151">
+        <v>0.93530425677546136</v>
+      </c>
+      <c r="D151">
+        <v>0.93823833573833559</v>
+      </c>
+      <c r="E151">
+        <v>0.93823833573833559</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="2"/>
+        <v>0.932388471632563</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" t="s">
+        <v>63</v>
+      </c>
+      <c r="C152">
+        <v>0.94287038379913557</v>
+      </c>
+      <c r="D152">
+        <v>0.94901755651755637</v>
+      </c>
+      <c r="E152">
+        <v>0.94901755651755637</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="2"/>
+        <v>0.93680233404510715</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" t="s">
+        <v>64</v>
+      </c>
+      <c r="C153">
+        <v>0.87373713936096331</v>
+      </c>
+      <c r="D153">
+        <v>0.90166907166907184</v>
+      </c>
+      <c r="E153">
+        <v>0.90166907166907184</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="2"/>
+        <v>0.84748376126939884</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" t="s">
+        <v>65</v>
+      </c>
+      <c r="C154">
+        <v>0.95427621203292601</v>
+      </c>
+      <c r="D154">
+        <v>0.95632395382395419</v>
+      </c>
+      <c r="E154">
+        <v>0.95632395382395419</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="2"/>
+        <v>0.9522372210146135</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C155" s="39">
+        <v>0.86037159600083213</v>
+      </c>
+      <c r="D155" s="39">
+        <v>0.90533910533910522</v>
+      </c>
+      <c r="E155" s="39">
+        <v>0.90533910533910522</v>
+      </c>
+      <c r="F155" s="39">
+        <f t="shared" si="2"/>
+        <v>0.81965971713983221</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B156" t="s">
+        <v>58</v>
+      </c>
+      <c r="C156">
+        <v>0.96028911793066118</v>
+      </c>
+      <c r="D156">
+        <v>0.95708478513356565</v>
+      </c>
+      <c r="E156">
+        <v>0.95708478513356565</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="2"/>
+        <v>0.96351497910408401</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B157" t="s">
+        <v>59</v>
+      </c>
+      <c r="C157">
+        <v>0.99699440052700916</v>
+      </c>
+      <c r="D157">
+        <v>0.99687499999999996</v>
+      </c>
+      <c r="E157">
+        <v>0.99687499999999996</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="2"/>
+        <v>0.99711382965979867</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B158" t="s">
+        <v>60</v>
+      </c>
+      <c r="C158">
+        <v>0.99352612080770619</v>
+      </c>
+      <c r="D158">
+        <v>0.99382621951219519</v>
+      </c>
+      <c r="E158">
+        <v>0.99382621951219519</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="2"/>
+        <v>0.9932262032858914</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B159" t="s">
+        <v>61</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B160" t="s">
+        <v>62</v>
+      </c>
+      <c r="C160">
+        <v>0.99344679186228479</v>
+      </c>
+      <c r="D160">
+        <v>0.99375000000000002</v>
+      </c>
+      <c r="E160">
+        <v>0.99375000000000002</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="2"/>
+        <v>0.99314376869489918</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B161" t="s">
+        <v>63</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B162" t="s">
+        <v>64</v>
+      </c>
+      <c r="C162">
+        <v>0.82389046995112469</v>
+      </c>
+      <c r="D162">
+        <v>0.87170078397212547</v>
+      </c>
+      <c r="E162">
+        <v>0.87170078397212547</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="2"/>
+        <v>0.78105198526807462</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B163" t="s">
+        <v>65</v>
+      </c>
+      <c r="C163">
+        <v>0.98317802072441518</v>
+      </c>
+      <c r="D163">
+        <v>0.98163109756097555</v>
+      </c>
+      <c r="E163">
+        <v>0.98163109756097555</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="2"/>
+        <v>0.98472982708327028</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B164" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C164" s="39">
+        <v>0.81621315676193718</v>
+      </c>
+      <c r="D164" s="39">
+        <v>0.87467334494773519</v>
+      </c>
+      <c r="E164" s="39">
+        <v>0.87467334494773519</v>
+      </c>
+      <c r="F164" s="39">
+        <f t="shared" si="2"/>
+        <v>0.76507795151023728</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:F164" xr:uid="{2A5F0E72-D4DF-453C-ADE0-7C771BEA2670}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W28"/>
   <sheetViews>
@@ -2977,32 +6522,32 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="G1" s="11" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="G1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="M1" s="11" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="M1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3039,15 +6584,15 @@
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3094,7 +6639,7 @@
         <v>0.8727243452125375</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3141,7 +6686,7 @@
         <v>0.94075163398692807</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -3188,7 +6733,7 @@
         <v>0.92877816627816634</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3235,7 +6780,7 @@
         <v>0.93029331779331792</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -3282,7 +6827,7 @@
         <v>0.92328224377020118</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -3329,7 +6874,7 @@
         <v>0.90674048174048172</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -3376,7 +6921,7 @@
         <v>0.92949640287769797</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -3423,7 +6968,7 @@
         <v>0.92057008192122092</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -3470,7 +7015,7 @@
         <v>0.95059434621915884</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -3517,7 +7062,7 @@
         <v>0.93925925925925924</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -3564,7 +7109,7 @@
         <v>0.93595744680851067</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -3611,7 +7156,7 @@
         <v>0.93129770992366423</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -3658,7 +7203,7 @@
         <v>0.96538314176245199</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -3705,7 +7250,7 @@
         <v>0.9207496352822353</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -3752,7 +7297,7 @@
         <v>0.87643363728470125</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -3799,7 +7344,7 @@
         <v>0.92742919389978229</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -3846,7 +7391,7 @@
         <v>0.93150739704118346</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -3893,7 +7438,7 @@
         <v>0.93585105257590173</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
@@ -3949,7 +7494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -4008,7 +7553,7 @@
         <v>-3.0769230769230882E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -4067,7 +7612,7 @@
         <v>-1.1764705882352899E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -4126,7 +7671,7 @@
         <v>-2.222222222222214E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -4198,7 +7743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBC07E4-70E4-4EA6-BC7B-0A2447B840E5}">
   <dimension ref="A1:L22"/>
   <sheetViews>
@@ -4206,23 +7751,23 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="34" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4236,7 +7781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -4252,15 +7797,15 @@
       <c r="E3">
         <v>0.97312299999999996</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -4277,7 +7822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
@@ -4294,25 +7839,25 @@
         <v>0.97692299999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.4">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:12" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A9" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -4335,7 +7880,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -4352,7 +7897,7 @@
         <v>0.98260899999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -4369,7 +7914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -4386,31 +7931,31 @@
         <v>0.99230799999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
     </row>
   </sheetData>
@@ -4424,618 +7969,618 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D156AB4A-B94F-484C-9210-CE1AAD538863}">
   <dimension ref="B1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:13" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="2:13" s="3" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
       <c r="G1" s="6"/>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="17"/>
-      <c r="C2" s="31" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+    </row>
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="11"/>
+      <c r="C2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="32" t="s">
+      <c r="D2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="26" t="s">
+      <c r="J2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="22">
         <v>0.97701149425287304</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="22">
         <v>0.890625</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="22">
         <v>0.80281690140844997</v>
       </c>
-      <c r="F3" s="29">
-        <v>1</v>
-      </c>
-      <c r="H3" s="22" t="str">
+      <c r="F3" s="23">
+        <v>1</v>
+      </c>
+      <c r="H3" s="16" t="str">
         <f>VLOOKUP($B3,TL!$G3:$K20,1,FALSE)</f>
         <v>BRCA</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="9">
         <f>VLOOKUP($B3,TL!$G3:$K20,2,FALSE)</f>
         <v>0.98851104186424599</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="9">
         <f>VLOOKUP($B3,TL!$G3:$K20,3,FALSE)</f>
         <v>0.94562199235649746</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="9">
         <f>VLOOKUP($B3,TL!$G3:$K20,4,FALSE)</f>
         <v>0.91041666666666676</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="9">
         <f>VLOOKUP($B3,TL!$G3:$K20,5,FALSE)</f>
         <v>0.9913043478260869</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="22">
         <v>0.99019607843137203</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="22">
         <v>0.96212121212121204</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="22">
         <v>0.94074074074073999</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="23">
         <v>0.98449612403100695</v>
       </c>
-      <c r="H4" s="23" t="e">
+      <c r="H4" s="17" t="e">
         <f>VLOOKUP($B4,TL!$G5:$K22,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I4" s="15" t="e">
+      <c r="I4" s="9" t="e">
         <f>VLOOKUP($B4,TL!$G5:$K22,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J4" s="15" t="e">
+      <c r="J4" s="9" t="e">
         <f>VLOOKUP($B4,TL!$G5:$K22,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K4" s="15" t="e">
+      <c r="K4" s="9" t="e">
         <f>VLOOKUP($B4,TL!$G5:$K22,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L4" s="15" t="e">
+      <c r="L4" s="9" t="e">
         <f>VLOOKUP($B4,TL!$G5:$K22,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="20" t="s">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="22">
         <v>0.98317094774136404</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="22">
         <v>0.92050209205020905</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="22">
         <v>0.85271317829457305</v>
       </c>
-      <c r="F5" s="29">
-        <v>1</v>
-      </c>
-      <c r="H5" s="23" t="e">
+      <c r="F5" s="23">
+        <v>1</v>
+      </c>
+      <c r="H5" s="17" t="e">
         <f>VLOOKUP($B5,TL!$G6:$K23,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I5" s="15" t="e">
+      <c r="I5" s="9" t="e">
         <f>VLOOKUP($B5,TL!$G6:$K23,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J5" s="15" t="e">
+      <c r="J5" s="9" t="e">
         <f>VLOOKUP($B5,TL!$G6:$K23,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K5" s="15" t="e">
+      <c r="K5" s="9" t="e">
         <f>VLOOKUP($B5,TL!$G6:$K23,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L5" s="15" t="e">
+      <c r="L5" s="9" t="e">
         <f>VLOOKUP($B5,TL!$G6:$K23,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="22">
         <v>0.960093896713615</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="22">
         <v>0.679245283018868</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="22">
         <v>0.52941176470588203</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="23">
         <v>0.94736842105263097</v>
       </c>
-      <c r="H6" s="23" t="str">
+      <c r="H6" s="17" t="str">
         <f>VLOOKUP($B6,TL!$G4:$K21,1,FALSE)</f>
         <v>BLCA</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="9">
         <f>VLOOKUP($B6,TL!$G4:$K21,2,FALSE)</f>
         <v>0.98823464269428707</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="9">
         <f>VLOOKUP($B6,TL!$G4:$K21,3,FALSE)</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="9">
         <f>VLOOKUP($B6,TL!$G4:$K21,4,FALSE)</f>
         <v>0.88333333333333319</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="9">
         <f>VLOOKUP($B6,TL!$G4:$K21,5,FALSE)</f>
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="22">
         <v>0.94155844155844104</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="22">
         <v>0</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="22">
         <v>0</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="23">
         <v>0</v>
       </c>
-      <c r="H7" s="23" t="e">
+      <c r="H7" s="17" t="e">
         <f>VLOOKUP($B7,TL!$G7:$K24,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I7" s="15" t="e">
+      <c r="I7" s="9" t="e">
         <f>VLOOKUP($B7,TL!$G7:$K24,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J7" s="15" t="e">
+      <c r="J7" s="9" t="e">
         <f>VLOOKUP($B7,TL!$G7:$K24,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K7" s="15" t="e">
+      <c r="K7" s="9" t="e">
         <f>VLOOKUP($B7,TL!$G7:$K24,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L7" s="15" t="e">
+      <c r="L7" s="9" t="e">
         <f>VLOOKUP($B7,TL!$G7:$K24,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="22">
         <v>0.98480243161094205</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="22">
         <v>0.94252873563218298</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="22">
         <v>0.89130434782608603</v>
       </c>
-      <c r="F8" s="29">
-        <v>1</v>
-      </c>
-      <c r="H8" s="23" t="str">
+      <c r="F8" s="23">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17" t="str">
         <f>VLOOKUP($B8,TL!$G8:$K25,1,FALSE)</f>
         <v>COAD</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="9">
         <f>VLOOKUP($B8,TL!$G8:$K25,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="9">
         <f>VLOOKUP($B8,TL!$G8:$K25,3,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="9">
         <f>VLOOKUP($B8,TL!$G8:$K25,4,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="9">
         <f>VLOOKUP($B8,TL!$G8:$K25,5,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="20" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="22">
         <v>0.96996466431095396</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="22">
         <v>0.83168316831683098</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="22">
         <v>0.73684210526315697</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="23">
         <v>0.95454545454545403</v>
       </c>
-      <c r="H9" s="23" t="e">
+      <c r="H9" s="17" t="e">
         <f>VLOOKUP($B9,TL!$G9:$K26,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I9" s="15" t="e">
+      <c r="I9" s="9" t="e">
         <f>VLOOKUP($B9,TL!$G9:$K26,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J9" s="15" t="e">
+      <c r="J9" s="9" t="e">
         <f>VLOOKUP($B9,TL!$G9:$K26,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K9" s="15" t="e">
+      <c r="K9" s="9" t="e">
         <f>VLOOKUP($B9,TL!$G9:$K26,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L9" s="15" t="e">
+      <c r="L9" s="9" t="e">
         <f>VLOOKUP($B9,TL!$G9:$K26,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="20" t="s">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="22">
         <v>0.97854785478547801</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="22">
         <v>0.91612903225806397</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="22">
         <v>0.85542168674698704</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="23">
         <v>0.98611111111111105</v>
       </c>
-      <c r="H10" s="23" t="str">
+      <c r="H10" s="17" t="str">
         <f>VLOOKUP($B10,TL!$G10:$K27,1,FALSE)</f>
         <v>KIRC</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="9">
         <f>VLOOKUP($B10,TL!$G10:$K27,2,FALSE)</f>
         <v>0.99504109650905481</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="9">
         <f>VLOOKUP($B10,TL!$G10:$K27,3,FALSE)</f>
         <v>0.97873357228195934</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="9">
         <f>VLOOKUP($B10,TL!$G10:$K27,4,FALSE)</f>
         <v>0.98750000000000004</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="9">
         <f>VLOOKUP($B10,TL!$G10:$K27,5,FALSE)</f>
         <v>0.97142857142857153</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="20" t="s">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="22">
         <v>0.98142414860681104</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="22">
         <v>0.91428571428571404</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="22">
         <v>0.84210526315789402</v>
       </c>
-      <c r="F11" s="29">
-        <v>1</v>
-      </c>
-      <c r="H11" s="23" t="e">
+      <c r="F11" s="23">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17" t="e">
         <f>VLOOKUP($B11,TL!$G11:$K28,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I11" s="15" t="e">
+      <c r="I11" s="9" t="e">
         <f>VLOOKUP($B11,TL!$G11:$K28,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J11" s="15" t="e">
+      <c r="J11" s="9" t="e">
         <f>VLOOKUP($B11,TL!$G11:$K28,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K11" s="15" t="e">
+      <c r="K11" s="9" t="e">
         <f>VLOOKUP($B11,TL!$G11:$K28,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L11" s="15" t="e">
+      <c r="L11" s="9" t="e">
         <f>VLOOKUP($B11,TL!$G11:$K28,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="20" t="s">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="22">
         <v>0.93617021276595702</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="22">
         <v>0.78740157480314898</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="22">
         <v>0.64935064935064901</v>
       </c>
-      <c r="F12" s="29">
-        <v>1</v>
-      </c>
-      <c r="H12" s="23" t="str">
+      <c r="F12" s="23">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17" t="str">
         <f>VLOOKUP($B12,TL!$G12:$K29,1,FALSE)</f>
         <v>LIHC</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="9">
         <f>VLOOKUP($B12,TL!$G12:$K29,2,FALSE)</f>
         <v>0.9857983193277311</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="9">
         <f>VLOOKUP($B12,TL!$G12:$K29,3,FALSE)</f>
         <v>0.94071542492595128</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="9">
         <f>VLOOKUP($B12,TL!$G12:$K29,4,FALSE)</f>
         <v>0.92626262626262634</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="9">
         <f>VLOOKUP($B12,TL!$G12:$K29,5,FALSE)</f>
         <v>0.96</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="20" t="s">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="22">
         <v>0.96701388888888795</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="22">
         <v>0.86131386861313797</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="22">
         <v>0.75641025641025605</v>
       </c>
-      <c r="F13" s="29">
-        <v>1</v>
-      </c>
-      <c r="H13" s="23" t="e">
+      <c r="F13" s="23">
+        <v>1</v>
+      </c>
+      <c r="H13" s="17" t="e">
         <f>VLOOKUP($B13,TL!$G13:$K30,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I13" s="15" t="e">
+      <c r="I13" s="9" t="e">
         <f>VLOOKUP($B13,TL!$G13:$K30,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J13" s="15" t="e">
+      <c r="J13" s="9" t="e">
         <f>VLOOKUP($B13,TL!$G13:$K30,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K13" s="15" t="e">
+      <c r="K13" s="9" t="e">
         <f>VLOOKUP($B13,TL!$G13:$K30,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L13" s="15" t="e">
+      <c r="L13" s="9" t="e">
         <f>VLOOKUP($B13,TL!$G13:$K30,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="20" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="22">
         <v>0.98191681735985503</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="22">
         <v>0.91071428571428503</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="22">
         <v>0.83606557377049096</v>
       </c>
-      <c r="F14" s="29">
-        <v>1</v>
-      </c>
-      <c r="H14" s="23" t="e">
+      <c r="F14" s="23">
+        <v>1</v>
+      </c>
+      <c r="H14" s="17" t="e">
         <f>VLOOKUP($B14,TL!$G14:$K31,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I14" s="15" t="e">
+      <c r="I14" s="9" t="e">
         <f>VLOOKUP($B14,TL!$G14:$K31,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J14" s="15" t="e">
+      <c r="J14" s="9" t="e">
         <f>VLOOKUP($B14,TL!$G14:$K31,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K14" s="15" t="e">
+      <c r="K14" s="9" t="e">
         <f>VLOOKUP($B14,TL!$G14:$K31,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L14" s="15" t="e">
+      <c r="L14" s="9" t="e">
         <f>VLOOKUP($B14,TL!$G14:$K31,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="20" t="s">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="22">
         <v>0.88545454545454505</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="22">
         <v>0.56551724137931003</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="22">
         <v>0.44086021505376299</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="23">
         <v>0.78846153846153799</v>
       </c>
-      <c r="H15" s="23" t="e">
+      <c r="H15" s="17" t="e">
         <f>VLOOKUP($B15,TL!$G15:$K32,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I15" s="15" t="e">
+      <c r="I15" s="9" t="e">
         <f>VLOOKUP($B15,TL!$G15:$K32,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J15" s="15" t="e">
+      <c r="J15" s="9" t="e">
         <f>VLOOKUP($B15,TL!$G15:$K32,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K15" s="15" t="e">
+      <c r="K15" s="9" t="e">
         <f>VLOOKUP($B15,TL!$G15:$K32,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L15" s="15" t="e">
+      <c r="L15" s="9" t="e">
         <f>VLOOKUP($B15,TL!$G15:$K32,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="20" t="s">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="22">
         <v>0.95777777777777695</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="22">
         <v>0.78160919540229801</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="22">
         <v>0.65384615384615297</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="23">
         <v>0.97142857142857097</v>
       </c>
-      <c r="H16" s="23" t="e">
+      <c r="H16" s="17" t="e">
         <f>VLOOKUP($B16,TL!$G16:$K33,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I16" s="15" t="e">
+      <c r="I16" s="9" t="e">
         <f>VLOOKUP($B16,TL!$G16:$K33,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J16" s="15" t="e">
+      <c r="J16" s="9" t="e">
         <f>VLOOKUP($B16,TL!$G16:$K33,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K16" s="15" t="e">
+      <c r="K16" s="9" t="e">
         <f>VLOOKUP($B16,TL!$G16:$K33,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L16" s="15" t="e">
+      <c r="L16" s="9" t="e">
         <f>VLOOKUP($B16,TL!$G16:$K33,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+    <row r="17" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="24">
         <v>0.88461538461538403</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="24">
         <v>0.63333333333333297</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="24">
         <v>0.47107438016528902</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="12">
         <v>0.96610169491525399</v>
       </c>
-      <c r="H17" s="24" t="e">
+      <c r="H17" s="18" t="e">
         <f>VLOOKUP($B17,TL!$G17:$K34,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I17" s="15" t="e">
+      <c r="I17" s="9" t="e">
         <f>VLOOKUP($B17,TL!$G17:$K34,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J17" s="15" t="e">
+      <c r="J17" s="9" t="e">
         <f>VLOOKUP($B17,TL!$G17:$K34,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K17" s="15" t="e">
+      <c r="K17" s="9" t="e">
         <f>VLOOKUP($B17,TL!$G17:$K34,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L17" s="15" t="e">
+      <c r="L17" s="9" t="e">
         <f>VLOOKUP($B17,TL!$G17:$K34,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="33" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" s="27" customFormat="1" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="34" t="s">
         <v>55</v>
       </c>
@@ -5050,7 +8595,7 @@
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
     </row>
-    <row r="25" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B25" s="35" t="s">
         <v>56</v>
       </c>

--- a/summary/performances.xlsx
+++ b/summary/performances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucan\OneDrive - Politecnico di Milano\PhD\progetti\CIBB2018\summary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canakoglu/GMQL-sources/CIBB2018/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8746AFC4-C034-4091-B2DA-A23C4D39DE7F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{48568C0F-8FE3-2C45-9298-514A4762FA25}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCGA_info" sheetId="3" r:id="rId1"/>
@@ -19,15 +19,19 @@
     <sheet name="DM" sheetId="2" r:id="rId4"/>
     <sheet name="LADDER" sheetId="4" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Classical ML'!$A$2:$F$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TCGA_info!$A$2:$F$35</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="67">
   <si>
     <t>accuracy</t>
   </si>
@@ -185,19 +189,10 @@
     <t>For this matrix I used only the top 5000 variant genes and their 5 neighbors ( = 25000 features)</t>
   </si>
   <si>
-    <t>LADDER NETWORK</t>
-  </si>
-  <si>
     <t>KIDNEY</t>
   </si>
   <si>
     <t>LUNG</t>
-  </si>
-  <si>
-    <t>In this implementation, as we agreed with Luca, I have done upsampling on the healthy cases. In other words, we replicated the healthy samples as many as needed to reach the same name of the tumorious cases.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Without upsampling, it was working better. </t>
   </si>
   <si>
     <t>classifier</t>
@@ -232,11 +227,20 @@
   <si>
     <t>Classical ML methods</t>
   </si>
+  <si>
+    <t>LADDER NETWORK w upsampling</t>
+  </si>
+  <si>
+    <t>%normal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -293,35 +297,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="26"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -376,17 +374,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -414,19 +401,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -441,17 +415,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -544,9 +507,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -559,9 +598,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -577,22 +613,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -604,28 +656,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -643,7 +681,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -724,7 +762,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1409,7 +1447,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="460990440"/>
@@ -1468,7 +1506,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="460991752"/>
@@ -1510,7 +1548,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1540,7 +1578,7 @@
       <a:pPr>
         <a:defRPr sz="1400"/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2135,8 +2173,336 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TCGA_info"/>
+      <sheetName val="TL"/>
+      <sheetName val="DM"/>
+      <sheetName val="LADDER"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="G3" t="str">
+            <v>HNSC</v>
+          </cell>
+          <cell r="H3">
+            <v>0.99468998824494859</v>
+          </cell>
+          <cell r="I3">
+            <v>0.9647058823529413</v>
+          </cell>
+          <cell r="J3">
+            <v>0.97777777777777786</v>
+          </cell>
+          <cell r="K3">
+            <v>0.95555555555555549</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4" t="str">
+            <v>LUSC</v>
+          </cell>
+          <cell r="H4">
+            <v>0.99821428571428572</v>
+          </cell>
+          <cell r="I4">
+            <v>0.9913043478260869</v>
+          </cell>
+          <cell r="J4">
+            <v>0.98333333333333317</v>
+          </cell>
+          <cell r="K4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5" t="str">
+            <v>READ</v>
+          </cell>
+          <cell r="H5">
+            <v>1</v>
+          </cell>
+          <cell r="I5">
+            <v>1</v>
+          </cell>
+          <cell r="J5">
+            <v>1</v>
+          </cell>
+          <cell r="K5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6" t="str">
+            <v>ESCA</v>
+          </cell>
+          <cell r="H6">
+            <v>0.98974358974358978</v>
+          </cell>
+          <cell r="I6">
+            <v>0.86666666666666659</v>
+          </cell>
+          <cell r="J6">
+            <v>1</v>
+          </cell>
+          <cell r="K6">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7" t="str">
+            <v>STAD</v>
+          </cell>
+          <cell r="H7">
+            <v>0.99777777777777776</v>
+          </cell>
+          <cell r="I7">
+            <v>0.98666666666666669</v>
+          </cell>
+          <cell r="J7">
+            <v>0.97499999999999998</v>
+          </cell>
+          <cell r="K7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8" t="str">
+            <v>CHOL</v>
+          </cell>
+          <cell r="H8">
+            <v>1</v>
+          </cell>
+          <cell r="I8">
+            <v>1</v>
+          </cell>
+          <cell r="J8">
+            <v>1</v>
+          </cell>
+          <cell r="K8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="G9" t="str">
+            <v>KIRP</v>
+          </cell>
+          <cell r="H9">
+            <v>1</v>
+          </cell>
+          <cell r="I9">
+            <v>1</v>
+          </cell>
+          <cell r="J9">
+            <v>1</v>
+          </cell>
+          <cell r="K9">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="G10" t="str">
+            <v>LUAD</v>
+          </cell>
+          <cell r="H10">
+            <v>0.99652173913043485</v>
+          </cell>
+          <cell r="I10">
+            <v>0.98461538461538467</v>
+          </cell>
+          <cell r="J10">
+            <v>0.97142857142857153</v>
+          </cell>
+          <cell r="K10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="G11" t="str">
+            <v>BLCA</v>
+          </cell>
+          <cell r="H11">
+            <v>0.98823464269428707</v>
+          </cell>
+          <cell r="I11">
+            <v>0.8571428571428571</v>
+          </cell>
+          <cell r="J11">
+            <v>0.88333333333333319</v>
+          </cell>
+          <cell r="K11">
+            <v>0.85</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="G12" t="str">
+            <v>PRAD</v>
+          </cell>
+          <cell r="H12">
+            <v>0.96907212466845505</v>
+          </cell>
+          <cell r="I12">
+            <v>0.83516396457572939</v>
+          </cell>
+          <cell r="J12">
+            <v>0.85438311688311686</v>
+          </cell>
+          <cell r="K12">
+            <v>0.8418181818181818</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="G13" t="str">
+            <v>KICH</v>
+          </cell>
+          <cell r="H13">
+            <v>1</v>
+          </cell>
+          <cell r="I13">
+            <v>1</v>
+          </cell>
+          <cell r="J13">
+            <v>1</v>
+          </cell>
+          <cell r="K13">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="G14" t="str">
+            <v>KIRC</v>
+          </cell>
+          <cell r="H14">
+            <v>0.99504109650905481</v>
+          </cell>
+          <cell r="I14">
+            <v>0.97873357228195934</v>
+          </cell>
+          <cell r="J14">
+            <v>0.98750000000000004</v>
+          </cell>
+          <cell r="K14">
+            <v>0.97142857142857153</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="G15" t="str">
+            <v>GBM</v>
+          </cell>
+          <cell r="H15">
+            <v>1</v>
+          </cell>
+          <cell r="I15">
+            <v>1</v>
+          </cell>
+          <cell r="J15">
+            <v>1</v>
+          </cell>
+          <cell r="K15">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="G16" t="str">
+            <v>THCA</v>
+          </cell>
+          <cell r="H16">
+            <v>0.98770323268733584</v>
+          </cell>
+          <cell r="I16">
+            <v>0.94391973244147154</v>
+          </cell>
+          <cell r="J16">
+            <v>0.91318681318681327</v>
+          </cell>
+          <cell r="K16">
+            <v>0.98333333333333317</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="G17" t="str">
+            <v>UCEC</v>
+          </cell>
+          <cell r="H17">
+            <v>1</v>
+          </cell>
+          <cell r="I17">
+            <v>1</v>
+          </cell>
+          <cell r="J17">
+            <v>1</v>
+          </cell>
+          <cell r="K17">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="G18" t="str">
+            <v>LIHC</v>
+          </cell>
+          <cell r="H18">
+            <v>0.9857983193277311</v>
+          </cell>
+          <cell r="I18">
+            <v>0.94071542492595128</v>
+          </cell>
+          <cell r="J18">
+            <v>0.92626262626262634</v>
+          </cell>
+          <cell r="K18">
+            <v>0.96</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="G19" t="str">
+            <v>BRCA</v>
+          </cell>
+          <cell r="H19">
+            <v>0.98851104186424599</v>
+          </cell>
+          <cell r="I19">
+            <v>0.94562199235649746</v>
+          </cell>
+          <cell r="J19">
+            <v>0.91041666666666676</v>
+          </cell>
+          <cell r="K19">
+            <v>0.9913043478260869</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="G20" t="str">
+            <v>COAD</v>
+          </cell>
+          <cell r="H20">
+            <v>1</v>
+          </cell>
+          <cell r="I20">
+            <v>1</v>
+          </cell>
+          <cell r="J20">
+            <v>1</v>
+          </cell>
+          <cell r="K20">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2456,24 +2822,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9BC486-AE94-4A41-83C2-002C0FB8F3B3}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="176" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -2487,573 +2854,709 @@
         <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>79</v>
+      </c>
+      <c r="C3">
+        <v>79</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="39">
+        <f>D3/B3</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>426</v>
+      </c>
+      <c r="C4">
+        <v>407</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4" s="39">
+        <f>D4/B4</f>
+        <v>4.4600938967136149E-2</v>
+      </c>
+      <c r="F4">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1218</v>
+      </c>
+      <c r="C5">
+        <v>1104</v>
+      </c>
+      <c r="D5">
+        <v>114</v>
+      </c>
+      <c r="E5" s="39">
+        <f>D5/B5</f>
+        <v>9.3596059113300489E-2</v>
+      </c>
+      <c r="F5">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>308</v>
+      </c>
+      <c r="C6">
+        <v>305</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="39">
+        <f>D6/B6</f>
+        <v>9.74025974025974E-3</v>
+      </c>
+      <c r="F6">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7" s="39">
+        <f>D7/B7</f>
+        <v>0.2</v>
+      </c>
+      <c r="F7">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>329</v>
+      </c>
+      <c r="C8">
+        <v>288</v>
+      </c>
+      <c r="D8">
+        <v>41</v>
+      </c>
+      <c r="E8" s="39">
+        <f>D8/B8</f>
+        <v>0.12462006079027356</v>
+      </c>
+      <c r="F8">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="39">
+        <f>D9/B9</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>196</v>
+      </c>
+      <c r="C10">
+        <v>185</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10" s="39">
+        <f>D10/B10</f>
+        <v>5.6122448979591837E-2</v>
+      </c>
+      <c r="F10">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>172</v>
+      </c>
+      <c r="C11">
+        <v>167</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="39">
+        <f>D11/B11</f>
+        <v>2.9069767441860465E-2</v>
+      </c>
+      <c r="F11">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B12">
         <v>566</v>
       </c>
-      <c r="C3">
+      <c r="C12">
         <v>522</v>
       </c>
-      <c r="D3">
+      <c r="D12">
         <v>44</v>
       </c>
-      <c r="E3">
+      <c r="E12" s="39">
+        <f>D12/B12</f>
+        <v>7.7738515901060068E-2</v>
+      </c>
+      <c r="F12">
         <v>20530</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>172</v>
-      </c>
-      <c r="C4">
-        <v>167</v>
-      </c>
-      <c r="D4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>91</v>
+      </c>
+      <c r="C13">
+        <v>66</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13" s="39">
+        <f>D13/B13</f>
+        <v>0.27472527472527475</v>
+      </c>
+      <c r="F13">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>606</v>
+      </c>
+      <c r="C14">
+        <v>534</v>
+      </c>
+      <c r="D14">
+        <v>72</v>
+      </c>
+      <c r="E14" s="39">
+        <f>D14/B14</f>
+        <v>0.11881188118811881</v>
+      </c>
+      <c r="F14">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>323</v>
+      </c>
+      <c r="C15">
+        <v>291</v>
+      </c>
+      <c r="D15">
+        <v>32</v>
+      </c>
+      <c r="E15" s="39">
+        <f>D15/B15</f>
+        <v>9.9071207430340563E-2</v>
+      </c>
+      <c r="F15">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>173</v>
+      </c>
+      <c r="C16">
+        <v>173</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="39">
+        <f>D16/B16</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>530</v>
+      </c>
+      <c r="C17">
+        <v>530</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="39">
+        <f>D17/B17</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>423</v>
+      </c>
+      <c r="C18">
+        <v>373</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18" s="39">
+        <f>D18/B18</f>
+        <v>0.1182033096926714</v>
+      </c>
+      <c r="F18">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>576</v>
+      </c>
+      <c r="C19">
+        <v>517</v>
+      </c>
+      <c r="D19">
+        <v>59</v>
+      </c>
+      <c r="E19" s="39">
+        <f>D19/B19</f>
+        <v>0.10243055555555555</v>
+      </c>
+      <c r="F19">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="B20">
+        <v>553</v>
+      </c>
+      <c r="C20">
+        <v>502</v>
+      </c>
+      <c r="D20">
+        <v>51</v>
+      </c>
+      <c r="E20" s="39">
+        <f>D20/B20</f>
+        <v>9.2224231464737794E-2</v>
+      </c>
+      <c r="F20">
         <v>20530</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>606</v>
-      </c>
-      <c r="C5">
-        <v>534</v>
-      </c>
-      <c r="D5">
-        <v>72</v>
-      </c>
-      <c r="E5">
-        <v>20530</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>423</v>
-      </c>
-      <c r="C6">
-        <v>373</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
-      </c>
-      <c r="E6">
-        <v>20530</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>323</v>
-      </c>
-      <c r="C7">
-        <v>291</v>
-      </c>
-      <c r="D7">
-        <v>32</v>
-      </c>
-      <c r="E7">
-        <v>20530</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>550</v>
-      </c>
-      <c r="C8">
-        <v>498</v>
-      </c>
-      <c r="D8">
-        <v>52</v>
-      </c>
-      <c r="E8">
-        <v>20530</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>196</v>
-      </c>
-      <c r="C9">
-        <v>185</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>20530</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>329</v>
-      </c>
-      <c r="C10">
-        <v>288</v>
-      </c>
-      <c r="D10">
-        <v>41</v>
-      </c>
-      <c r="E10">
-        <v>20530</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>45</v>
-      </c>
-      <c r="C11">
-        <v>36</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>20530</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>201</v>
-      </c>
-      <c r="C12">
-        <v>177</v>
-      </c>
-      <c r="D12">
-        <v>24</v>
-      </c>
-      <c r="E12">
-        <v>20530</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>553</v>
-      </c>
-      <c r="C13">
-        <v>502</v>
-      </c>
-      <c r="D13">
-        <v>51</v>
-      </c>
-      <c r="E13">
-        <v>20530</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14">
-        <v>530</v>
-      </c>
-      <c r="C14">
-        <v>530</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>20530</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15">
-        <v>80</v>
-      </c>
-      <c r="C15">
-        <v>80</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>20530</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>572</v>
-      </c>
-      <c r="C16">
-        <v>513</v>
-      </c>
-      <c r="D16">
-        <v>59</v>
-      </c>
-      <c r="E16">
-        <v>20530</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>91</v>
-      </c>
-      <c r="C17">
-        <v>66</v>
-      </c>
-      <c r="D17">
-        <v>25</v>
-      </c>
-      <c r="E17">
-        <v>20530</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18">
-        <v>265</v>
-      </c>
-      <c r="C18">
-        <v>263</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>20530</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>1218</v>
-      </c>
-      <c r="C19">
-        <v>1104</v>
-      </c>
-      <c r="D19">
-        <v>114</v>
-      </c>
-      <c r="E19">
-        <v>20530</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20">
-        <v>105</v>
-      </c>
-      <c r="C20">
-        <v>95</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>20530</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B21">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="C21">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="39">
+        <f>D21/B21</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>20530</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B22">
-        <v>122</v>
+        <v>308</v>
       </c>
       <c r="C22">
-        <v>120</v>
+        <v>308</v>
       </c>
       <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="39">
+        <f>D22/B22</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>183</v>
+      </c>
+      <c r="C23">
+        <v>179</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" s="39">
+        <f>D23/B23</f>
+        <v>2.185792349726776E-2</v>
+      </c>
+      <c r="F23">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>187</v>
+      </c>
+      <c r="C24">
+        <v>184</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" s="39">
+        <f>D24/B24</f>
+        <v>1.6042780748663103E-2</v>
+      </c>
+      <c r="F24">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>550</v>
+      </c>
+      <c r="C25">
+        <v>498</v>
+      </c>
+      <c r="D25">
+        <v>52</v>
+      </c>
+      <c r="E25" s="39">
+        <f>D25/B25</f>
+        <v>9.4545454545454544E-2</v>
+      </c>
+      <c r="F25">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>105</v>
+      </c>
+      <c r="C26">
+        <v>95</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26" s="39">
+        <f>D26/B26</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="F26">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>265</v>
+      </c>
+      <c r="C27">
+        <v>263</v>
+      </c>
+      <c r="D27">
         <v>2</v>
       </c>
-      <c r="E22">
+      <c r="E27" s="39">
+        <f>D27/B27</f>
+        <v>7.5471698113207548E-3</v>
+      </c>
+      <c r="F27">
         <v>20530</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>474</v>
+      </c>
+      <c r="C28">
+        <v>473</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="39">
+        <f>D28/B28</f>
+        <v>2.1097046413502108E-3</v>
+      </c>
+      <c r="F28">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>450</v>
+      </c>
+      <c r="C29">
+        <v>415</v>
+      </c>
+      <c r="D29">
         <v>35</v>
       </c>
-      <c r="B23">
-        <v>48</v>
-      </c>
-      <c r="C23">
-        <v>48</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
+      <c r="E29" s="39">
+        <f>D29/B29</f>
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="F29">
         <v>20530</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24">
-        <v>576</v>
-      </c>
-      <c r="C24">
-        <v>517</v>
-      </c>
-      <c r="D24">
-        <v>59</v>
-      </c>
-      <c r="E24">
-        <v>20530</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25">
-        <v>187</v>
-      </c>
-      <c r="C25">
-        <v>184</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>20530</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26">
-        <v>426</v>
-      </c>
-      <c r="C26">
-        <v>407</v>
-      </c>
-      <c r="D26">
-        <v>19</v>
-      </c>
-      <c r="E26">
-        <v>20530</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27">
-        <v>57</v>
-      </c>
-      <c r="C27">
-        <v>57</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>20530</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28">
-        <v>79</v>
-      </c>
-      <c r="C28">
-        <v>79</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>20530</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29">
-        <v>308</v>
-      </c>
-      <c r="C29">
-        <v>308</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>20530</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C30">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="39">
+        <f>D30/B30</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>20530</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B31">
-        <v>474</v>
+        <v>572</v>
       </c>
       <c r="C31">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
+        <v>59</v>
+      </c>
+      <c r="E31" s="39">
+        <f>D31/B31</f>
+        <v>0.10314685314685315</v>
+      </c>
+      <c r="F31">
         <v>20530</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="C32">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="E32" s="39">
+        <f>D32/B32</f>
+        <v>1.6393442622950821E-2</v>
+      </c>
+      <c r="F32">
         <v>20530</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B33">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="C33">
-        <v>415</v>
+        <v>177</v>
       </c>
       <c r="D33">
-        <v>35</v>
-      </c>
-      <c r="E33">
+        <v>24</v>
+      </c>
+      <c r="E33" s="39">
+        <f>D33/B33</f>
+        <v>0.11940298507462686</v>
+      </c>
+      <c r="F33">
         <v>20530</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C34">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="39">
+        <f>D34/B34</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
         <v>20530</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B35">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="C35">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="E35" s="39">
+        <f>D35/B35</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
         <v>20530</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:F35" xr:uid="{6C051511-0B23-C745-818E-0B90375B5950}"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3064,30 +3567,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5BAE2A-9A59-4090-92C4-B579FFF4B317}">
   <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.4">
       <c r="A1" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -3102,12 +3605,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>0.84197978696663978</v>
@@ -3123,12 +3626,12 @@
         <v>0.93342783709138</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>0.98445512820512804</v>
@@ -3144,12 +3647,12 @@
         <v>0.98142897589386802</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>0.9931451612903226</v>
@@ -3165,12 +3668,12 @@
         <v>0.99254105839416051</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <v>0.9931451612903226</v>
@@ -3186,12 +3689,12 @@
         <v>0.99254105839416051</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7">
         <v>0.98742827537984024</v>
@@ -3207,12 +3710,12 @@
         <v>0.98743566479432654</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <v>0.9931451612903226</v>
@@ -3228,12 +3731,12 @@
         <v>0.99254105839416051</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9">
         <v>0.95314794084144239</v>
@@ -3249,12 +3752,12 @@
         <v>0.9381888723275893</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10">
         <v>0.97382332718358711</v>
@@ -3270,33 +3773,33 @@
         <v>0.97280700799135544</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
+    <row r="11" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="39">
+      <c r="B11" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="25">
         <v>0.95314794084144239</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="25">
         <v>0.96859177215189884</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="25">
         <v>0.96859177215189884</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="25">
         <f t="shared" si="0"/>
         <v>0.9381888723275893</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -3312,12 +3815,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>0.97870370370370396</v>
@@ -3333,12 +3836,12 @@
         <v>0.97963138493944213</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3354,12 +3857,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3375,12 +3878,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C16">
         <v>0.98917171717171715</v>
@@ -3396,12 +3899,12 @@
         <v>0.98945470728207363</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3417,12 +3920,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C18">
         <v>0.92201012070017918</v>
@@ -3438,12 +3941,12 @@
         <v>0.92121459900134073</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C19">
         <v>0.93251028806584357</v>
@@ -3459,33 +3962,33 @@
         <v>0.93168869309838476</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="38" t="s">
+    <row r="20" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="39">
+      <c r="B20" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="25">
         <v>0.60962768602836515</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="25">
         <v>0.72514619883040932</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="25">
         <v>0.72514619883040932</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="25">
         <f t="shared" si="0"/>
         <v>0.52585673349700923</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C21">
         <v>0.97350196926913901</v>
@@ -3501,12 +4004,12 @@
         <v>0.97499191563499832</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22">
         <v>0.98880484529266321</v>
@@ -3522,12 +4025,12 @@
         <v>0.98916909853794277</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C23">
         <v>0.9949349902434016</v>
@@ -3543,12 +4046,12 @@
         <v>0.99486998898126011</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C24">
         <v>0.98527381686267357</v>
@@ -3564,12 +4067,12 @@
         <v>0.98538636911158961</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C25">
         <v>0.99003762697729036</v>
@@ -3585,12 +4088,12 @@
         <v>0.99002149103971482</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C26">
         <v>0.99327572221538518</v>
@@ -3606,12 +4109,12 @@
         <v>0.99316437262751078</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C27">
         <v>0.85190693708601528</v>
@@ -3627,12 +4130,12 @@
         <v>0.81605696514016346</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C28">
         <v>0.98938569244179198</v>
@@ -3648,33 +4151,33 @@
         <v>0.98871852244004577</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="38" t="s">
+    <row r="29" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="39">
+      <c r="B29" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="25">
         <v>0.82534583559715091</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="25">
         <v>0.88105147188436439</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="25">
         <v>0.88105147188436439</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="25">
         <f t="shared" si="0"/>
         <v>0.77626543414849702</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C30">
         <v>0.90135249545012841</v>
@@ -3690,12 +4193,12 @@
         <v>0.92431635321792094</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C31">
         <v>0.98915311791959215</v>
@@ -3711,12 +4214,12 @@
         <v>0.98897028735473957</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C32">
         <v>0.98885188979436778</v>
@@ -3732,12 +4235,12 @@
         <v>0.98834313662151152</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C33">
         <v>0.96848540793194815</v>
@@ -3753,12 +4256,12 @@
         <v>0.96705553340674377</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C34">
         <v>0.96820310153837541</v>
@@ -3774,12 +4277,12 @@
         <v>0.96832273162612936</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C35">
         <v>0.9869417367804636</v>
@@ -3795,12 +4298,12 @@
         <v>0.98633392132871511</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C36">
         <v>0.88668675549541509</v>
@@ -3816,12 +4319,12 @@
         <v>0.85548863352160343</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C37">
         <v>0.98731885460497404</v>
@@ -3837,33 +4340,33 @@
         <v>0.98703726630069166</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="38" t="s">
+    <row r="38" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="39">
+      <c r="B38" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="25">
         <v>0.88464172836583765</v>
       </c>
-      <c r="D38" s="39">
+      <c r="D38" s="25">
         <v>0.92203219315895379</v>
       </c>
-      <c r="E38" s="39">
+      <c r="E38" s="25">
         <v>0.92203219315895379</v>
       </c>
-      <c r="F38" s="39">
+      <c r="F38" s="25">
         <f t="shared" si="0"/>
         <v>0.85016561387674594</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="37" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <v>0.95747506139428284</v>
@@ -3879,12 +4382,12 @@
         <v>0.96198609045048045</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C40">
         <v>0.99362105810153722</v>
@@ -3900,12 +4403,12 @@
         <v>0.99382000824292438</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C41">
         <v>0.99186341192441962</v>
@@ -3921,12 +4424,12 @@
         <v>0.99197121344212535</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C42">
         <v>0.98585728517050464</v>
@@ -3942,12 +4445,12 @@
         <v>0.98576496472925412</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C43">
         <v>0.99165563461807837</v>
@@ -3963,12 +4466,12 @@
         <v>0.99153522929547155</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C44">
         <v>0.99074537493195092</v>
@@ -3984,12 +4487,12 @@
         <v>0.99058216435555657</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C45">
         <v>0.89864567168925424</v>
@@ -4005,12 +4508,12 @@
         <v>0.87536517239403921</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C46">
         <v>0.99328908596412335</v>
@@ -4026,33 +4529,33 @@
         <v>0.99321064153036553</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="38" t="s">
+    <row r="47" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="39">
+      <c r="B47" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="25">
         <v>0.86115187067185472</v>
       </c>
-      <c r="D47" s="39">
+      <c r="D47" s="25">
         <v>0.90588301043219077</v>
       </c>
-      <c r="E47" s="39">
+      <c r="E47" s="25">
         <v>0.90588301043219077</v>
       </c>
-      <c r="F47" s="39">
+      <c r="F47" s="25">
         <f t="shared" si="0"/>
         <v>0.82063037762013002</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="37" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C48">
         <v>0.90565947134350722</v>
@@ -4068,12 +4571,12 @@
         <v>0.92171002978625005</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C49">
         <v>0.96519858215926679</v>
@@ -4089,12 +4592,12 @@
         <v>0.96766016902440921</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C50">
         <v>0.98735946229959559</v>
@@ -4110,12 +4613,12 @@
         <v>0.98715748983331675</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C51">
         <v>0.9714780208942102</v>
@@ -4131,12 +4634,12 @@
         <v>0.97137312983436241</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C52">
         <v>0.9650600050274879</v>
@@ -4152,12 +4655,12 @@
         <v>0.96564818113584405</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C53">
         <v>0.98684111280492293</v>
@@ -4173,12 +4676,12 @@
         <v>0.98615413351303938</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C54">
         <v>0.85313279012115406</v>
@@ -4194,12 +4697,12 @@
         <v>0.81614304813724192</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C55">
         <v>0.99089637127194619</v>
@@ -4215,33 +4718,33 @@
         <v>0.99062747502826054</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="38" t="s">
+    <row r="56" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="39">
+      <c r="B56" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="25">
         <v>0.84602193018280425</v>
       </c>
-      <c r="D56" s="39">
+      <c r="D56" s="25">
         <v>0.89542036910457967</v>
       </c>
-      <c r="E56" s="39">
+      <c r="E56" s="25">
         <v>0.89542036910457967</v>
       </c>
-      <c r="F56" s="39">
+      <c r="F56" s="25">
         <f t="shared" si="0"/>
         <v>0.8017889383227903</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="37" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C57">
         <v>0.88418803850719929</v>
@@ -4257,12 +4760,12 @@
         <v>0.91491242479773871</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C58">
         <v>0.98527724837781461</v>
@@ -4278,12 +4781,12 @@
         <v>0.98614668783411374</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C59">
         <v>0.98870339625781156</v>
@@ -4299,12 +4802,12 @@
         <v>0.98846460022921379</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C60">
         <v>0.97793345861519443</v>
@@ -4320,12 +4823,12 @@
         <v>0.97801665665891335</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61">
         <v>0.97969812833343917</v>
@@ -4341,12 +4844,12 @@
         <v>0.97938272361722756</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C62">
         <v>0.98566374433329162</v>
@@ -4362,12 +4865,12 @@
         <v>0.98468794106606472</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C63">
         <v>0.88490138926114548</v>
@@ -4383,12 +4886,12 @@
         <v>0.85048694279360326</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C64">
         <v>0.99121166033877439</v>
@@ -4404,33 +4907,33 @@
         <v>0.99131757407630161</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="38" t="s">
+    <row r="65" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" s="39">
+      <c r="B65" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="25">
         <v>0.88490138926114548</v>
       </c>
-      <c r="D65" s="39">
+      <c r="D65" s="25">
         <v>0.92221840659340681</v>
       </c>
-      <c r="E65" s="39">
+      <c r="E65" s="25">
         <v>0.92221840659340681</v>
       </c>
-      <c r="F65" s="39">
+      <c r="F65" s="25">
         <f t="shared" si="0"/>
         <v>0.85048694279360326</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="37" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C66">
         <v>0.95766466489623159</v>
@@ -4446,12 +4949,12 @@
         <v>0.96239078659640898</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C67">
         <v>0.9946838515020332</v>
@@ -4467,12 +4970,12 @@
         <v>0.99475732424626429</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C68">
         <v>0.99828661437572319</v>
@@ -4488,12 +4991,12 @@
         <v>0.99835895351950787</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C69">
         <v>0.99277366048293136</v>
@@ -4509,12 +5012,12 @@
         <v>0.99275511386664239</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C70">
         <v>0.99102894055639323</v>
@@ -4530,12 +5033,12 @@
         <v>0.99108386122525394</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C71">
         <v>0.9946838515020332</v>
@@ -4551,12 +5054,12 @@
         <v>0.99475732424626429</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C72">
         <v>0.86119433663798728</v>
@@ -4572,12 +5075,12 @@
         <v>0.82361801283346525</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C73">
         <v>0.9946838515020332</v>
@@ -4593,33 +5096,33 @@
         <v>0.99475732424626429</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="38" t="s">
+    <row r="74" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C74" s="39">
+      <c r="B74" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="25">
         <v>0.8639593709564195</v>
       </c>
-      <c r="D74" s="39">
+      <c r="D74" s="25">
         <v>0.90781784005468202</v>
       </c>
-      <c r="E74" s="39">
+      <c r="E74" s="25">
         <v>0.90781784005468202</v>
       </c>
-      <c r="F74" s="39">
+      <c r="F74" s="25">
         <f t="shared" si="1"/>
         <v>0.82414337994265474</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C75">
         <v>0.82051062593352886</v>
@@ -4635,12 +5138,12 @@
         <v>0.89229655899751925</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C76">
         <v>0.97017679883877239</v>
@@ -4656,12 +5159,12 @@
         <v>0.9660568874430101</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C77">
         <v>0.96093826471544563</v>
@@ -4677,12 +5180,12 @@
         <v>0.9577696454973843</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78">
         <v>0.97017679883877239</v>
@@ -4698,12 +5201,12 @@
         <v>0.9660568874430101</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C79">
         <v>0.957852406083744</v>
@@ -4719,12 +5222,12 @@
         <v>0.9567341492904996</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C80">
         <v>0.97017679883877239</v>
@@ -4740,12 +5243,12 @@
         <v>0.9660568874430101</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C81">
         <v>0.91624610536322804</v>
@@ -4761,12 +5264,12 @@
         <v>0.89042048439629262</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C82">
         <v>0.97017679883877239</v>
@@ -4782,33 +5285,33 @@
         <v>0.9660568874430101</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="38" t="s">
+    <row r="83" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B83" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C83" s="39">
+      <c r="B83" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" s="25">
         <v>0.91624610536322804</v>
       </c>
-      <c r="D83" s="39">
+      <c r="D83" s="25">
         <v>0.94361455922575199</v>
       </c>
-      <c r="E83" s="39">
+      <c r="E83" s="25">
         <v>0.94361455922575199</v>
       </c>
-      <c r="F83" s="39">
+      <c r="F83" s="25">
         <f t="shared" si="1"/>
         <v>0.89042048439629262</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="37" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C84">
         <v>0.83829666999211294</v>
@@ -4824,12 +5327,12 @@
         <v>0.91640477464424985</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C85">
         <v>0.98271741280891078</v>
@@ -4845,12 +5348,12 @@
         <v>0.98183550520608875</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C86">
         <v>0.98678895941566858</v>
@@ -4866,12 +5369,12 @@
         <v>0.98528676458249154</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C87">
         <v>0.96413117899139555</v>
@@ -4887,12 +5390,12 @@
         <v>0.9634590798090622</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C88">
         <v>0.98000328877793541</v>
@@ -4908,12 +5411,12 @@
         <v>0.98108671467625141</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C89">
         <v>0.97873043188261954</v>
@@ -4929,12 +5432,12 @@
         <v>0.9762370260908031</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C90">
         <v>0.93363198228271882</v>
@@ -4950,12 +5453,12 @@
         <v>0.91282094856419826</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C91">
         <v>0.98776699291217041</v>
@@ -4971,33 +5474,33 @@
         <v>0.98727180486467481</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="38" t="s">
+    <row r="92" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B92" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C92" s="39">
+      <c r="B92" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" s="25">
         <v>0.93363198228271882</v>
       </c>
-      <c r="D92" s="39">
+      <c r="D92" s="25">
         <v>0.95541407947760959</v>
       </c>
-      <c r="E92" s="39">
+      <c r="E92" s="25">
         <v>0.95541407947760959</v>
       </c>
-      <c r="F92" s="39">
+      <c r="F92" s="25">
         <f t="shared" si="1"/>
         <v>0.91282094856419826</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="37" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C93">
         <v>0.95886615515771523</v>
@@ -5013,12 +5516,12 @@
         <v>0.96122209165687411</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C94">
         <v>0.97893845285149617</v>
@@ -5034,12 +5537,12 @@
         <v>0.97961697543188164</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C95">
         <v>0.97734691212952085</v>
@@ -5055,12 +5558,12 @@
         <v>0.97643466086144881</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -5076,12 +5579,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C97">
         <v>0.97893845285149617</v>
@@ -5097,12 +5600,12 @@
         <v>0.97961697543188164</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -5118,12 +5621,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C99">
         <v>0.71176612359008962</v>
@@ -5139,12 +5642,12 @@
         <v>0.64080832382946129</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C100">
         <v>0.97734691212952085</v>
@@ -5160,33 +5663,33 @@
         <v>0.97643466086144881</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="38" t="s">
+    <row r="101" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B101" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C101" s="39">
+      <c r="B101" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C101" s="25">
         <v>0.71176612359008962</v>
       </c>
-      <c r="D101" s="39">
+      <c r="D101" s="25">
         <v>0.80039525691699609</v>
       </c>
-      <c r="E101" s="39">
+      <c r="E101" s="25">
         <v>0.80039525691699609</v>
       </c>
-      <c r="F101" s="39">
+      <c r="F101" s="25">
         <f t="shared" si="1"/>
         <v>0.64080832382946129</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="37" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C102">
         <v>0.8660816467668877</v>
@@ -5202,12 +5705,12 @@
         <v>0.89778791725507401</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C103">
         <v>0.96933568783367163</v>
@@ -5223,12 +5726,12 @@
         <v>0.96752432456959747</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C104">
         <v>0.94826880904183519</v>
@@ -5244,12 +5747,12 @@
         <v>0.94464249007298773</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C105">
         <v>0.97856570512820518</v>
@@ -5265,12 +5768,12 @@
         <v>0.97637205875436972</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C106">
         <v>0.91098132378374319</v>
@@ -5286,12 +5789,12 @@
         <v>0.90851454110602192</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C107">
         <v>0.97856570512820518</v>
@@ -5307,12 +5810,12 @@
         <v>0.97637205875436972</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C108">
         <v>0.85819735819735832</v>
@@ -5328,12 +5831,12 @@
         <v>0.8169378698224854</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C109">
         <v>0.9464882943143812</v>
@@ -5349,33 +5852,33 @@
         <v>0.95070615658850921</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="38" t="s">
+    <row r="110" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B110" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C110" s="39">
+      <c r="B110" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C110" s="25">
         <v>0.85819735819735832</v>
       </c>
-      <c r="D110" s="39">
+      <c r="D110" s="25">
         <v>0.90384615384615397</v>
       </c>
-      <c r="E110" s="39">
+      <c r="E110" s="25">
         <v>0.90384615384615397</v>
       </c>
-      <c r="F110" s="39">
+      <c r="F110" s="25">
         <f t="shared" si="1"/>
         <v>0.8169378698224854</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="37" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B111" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C111">
         <v>0.92829222628046337</v>
@@ -5391,12 +5894,12 @@
         <v>0.93743665785724206</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B112" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C112">
         <v>0.97097998646815376</v>
@@ -5412,12 +5915,12 @@
         <v>0.97286426789261193</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B113" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C113">
         <v>0.98628246611505621</v>
@@ -5433,12 +5936,12 @@
         <v>0.98679580934736344</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B114" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C114">
         <v>0.97660742109117404</v>
@@ -5454,12 +5957,12 @@
         <v>0.97691381615327322</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B115" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C115">
         <v>0.97292253518747041</v>
@@ -5475,12 +5978,12 @@
         <v>0.97192684674819696</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B116" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C116">
         <v>0.98590280848197376</v>
@@ -5496,12 +5999,12 @@
         <v>0.98603599623958682</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B117" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C117">
         <v>0.82439242778758037</v>
@@ -5517,12 +6020,12 @@
         <v>0.77629128560739868</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B118" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C118">
         <v>0.98875533571121343</v>
@@ -5538,33 +6041,33 @@
         <v>0.98936080295385254</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="38" t="s">
+    <row r="119" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B119" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C119" s="39">
+      <c r="B119" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C119" s="25">
         <v>0.82559333658342593</v>
       </c>
-      <c r="D119" s="39">
+      <c r="D119" s="25">
         <v>0.88122923588039881</v>
       </c>
-      <c r="E119" s="39">
+      <c r="E119" s="25">
         <v>0.88122923588039881</v>
       </c>
-      <c r="F119" s="39">
+      <c r="F119" s="25">
         <f t="shared" si="1"/>
         <v>0.7765653324345565</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="37" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C120">
         <v>0.95501782230862176</v>
@@ -5580,12 +6083,12 @@
         <v>0.96005973711686565</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C121">
         <v>0.98822025419546444</v>
@@ -5601,12 +6104,12 @@
         <v>0.98890572330559889</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5622,12 +6125,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C123">
         <v>0.9871043967523252</v>
@@ -5643,12 +6146,12 @@
         <v>0.98678761331293874</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C124">
         <v>0.98738927821125644</v>
@@ -5664,12 +6167,12 @@
         <v>0.9873571748624258</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C125">
         <v>0.9966968524642128</v>
@@ -5685,12 +6188,12 @@
         <v>0.9965384094072971</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C126">
         <v>0.8749558900957406</v>
@@ -5706,12 +6209,12 @@
         <v>0.85060393827230385</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B127" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C127">
         <v>0.98764205423364482</v>
@@ -5727,33 +6230,33 @@
         <v>0.98786282347320298</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="38" t="s">
+    <row r="128" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B128" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C128" s="39">
+      <c r="B128" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C128" s="25">
         <v>0.85372063331151693</v>
       </c>
-      <c r="D128" s="39">
+      <c r="D128" s="25">
         <v>0.90074328187535724</v>
       </c>
-      <c r="E128" s="39">
+      <c r="E128" s="25">
         <v>0.90074328187535724</v>
       </c>
-      <c r="F128" s="39">
+      <c r="F128" s="25">
         <f t="shared" si="1"/>
         <v>0.81136396694210688</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="37" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C129">
         <v>0.93444959279898565</v>
@@ -5769,12 +6272,12 @@
         <v>0.94421131295178096</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C130">
         <v>0.98831699399005002</v>
@@ -5790,12 +6293,12 @@
         <v>0.98882446624292764</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C131">
         <v>0.99484391314765863</v>
@@ -5811,12 +6314,12 @@
         <v>0.99489049248364869</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C132">
         <v>0.98434243634142959</v>
@@ -5832,12 +6335,12 @@
         <v>0.98432310695684699</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C133">
         <v>0.97811763271977203</v>
@@ -5853,12 +6356,12 @@
         <v>0.97714184851486474</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C134">
         <v>0.993049615491292</v>
@@ -5874,12 +6377,12 @@
         <v>0.99302603186081362</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C135">
         <v>0.8477845121649672</v>
@@ -5895,12 +6398,12 @@
         <v>0.80488224478401083</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C136">
         <v>0.99117336337232165</v>
@@ -5916,33 +6419,33 @@
         <v>0.99105926706221448</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="38" t="s">
+    <row r="137" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B137" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C137" s="39">
+      <c r="B137" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C137" s="25">
         <v>0.84865190165620985</v>
       </c>
-      <c r="D137" s="39">
+      <c r="D137" s="25">
         <v>0.89724202748249926</v>
       </c>
-      <c r="E137" s="39">
+      <c r="E137" s="25">
         <v>0.89724202748249926</v>
       </c>
-      <c r="F137" s="39">
+      <c r="F137" s="25">
         <f t="shared" si="2"/>
         <v>0.80505420565915642</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="37" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B138" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C138">
         <v>0.94992033136233156</v>
@@ -5958,12 +6461,12 @@
         <v>0.9548921682757836</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B139" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C139">
         <v>0.98032714412024757</v>
@@ -5979,12 +6482,12 @@
         <v>0.9806545067282787</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B140" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C140">
         <v>0.99480081716036761</v>
@@ -6000,12 +6503,12 @@
         <v>0.99460171405111342</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B141" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C141">
         <v>0.95539917182918721</v>
@@ -6021,12 +6524,12 @@
         <v>0.95084223252771638</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B142" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C142">
         <v>0.96083360641358162</v>
@@ -6042,12 +6545,12 @@
         <v>0.95670303502576992</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B143" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C143">
         <v>0.97271164196774418</v>
@@ -6063,12 +6566,12 @@
         <v>0.97043400049102846</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B144" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C144">
         <v>0.8569834515366429</v>
@@ -6084,12 +6587,12 @@
         <v>0.81789138020937768</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B145" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C145">
         <v>0.96056274388931095</v>
@@ -6105,33 +6608,33 @@
         <v>0.95616610771904142</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="38" t="s">
+    <row r="146" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B146" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C146" s="39">
+      <c r="B146" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C146" s="25">
         <v>0.82382978723404254</v>
       </c>
-      <c r="D146" s="39">
+      <c r="D146" s="25">
         <v>0.88</v>
       </c>
-      <c r="E146" s="39">
+      <c r="E146" s="25">
         <v>0.88</v>
       </c>
-      <c r="F146" s="39">
+      <c r="F146" s="25">
         <f t="shared" si="2"/>
         <v>0.77439999999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="37" t="s">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B147" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C147">
         <v>0.89505178969012644</v>
@@ -6147,12 +6650,12 @@
         <v>0.91476528625700393</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B148" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C148">
         <v>0.94430917028576555</v>
@@ -6168,12 +6671,12 @@
         <v>0.93961544570870492</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B149" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C149">
         <v>0.95734653764856203</v>
@@ -6189,12 +6692,12 @@
         <v>0.95834112119603532</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B150" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C150">
         <v>0.95095808804148718</v>
@@ -6210,12 +6713,12 @@
         <v>0.94753384827890708</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B151" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C151">
         <v>0.93530425677546136</v>
@@ -6231,12 +6734,12 @@
         <v>0.932388471632563</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B152" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C152">
         <v>0.94287038379913557</v>
@@ -6252,12 +6755,12 @@
         <v>0.93680233404510715</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B153" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C153">
         <v>0.87373713936096331</v>
@@ -6273,12 +6776,12 @@
         <v>0.84748376126939884</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B154" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C154">
         <v>0.95427621203292601</v>
@@ -6294,33 +6797,33 @@
         <v>0.9522372210146135</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="38" t="s">
+    <row r="155" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B155" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C155" s="39">
+      <c r="B155" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C155" s="25">
         <v>0.86037159600083213</v>
       </c>
-      <c r="D155" s="39">
+      <c r="D155" s="25">
         <v>0.90533910533910522</v>
       </c>
-      <c r="E155" s="39">
+      <c r="E155" s="25">
         <v>0.90533910533910522</v>
       </c>
-      <c r="F155" s="39">
+      <c r="F155" s="25">
         <f t="shared" si="2"/>
         <v>0.81965971713983221</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="37" t="s">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B156" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C156">
         <v>0.96028911793066118</v>
@@ -6336,12 +6839,12 @@
         <v>0.96351497910408401</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B157" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C157">
         <v>0.99699440052700916</v>
@@ -6357,12 +6860,12 @@
         <v>0.99711382965979867</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B158" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C158">
         <v>0.99352612080770619</v>
@@ -6378,12 +6881,12 @@
         <v>0.9932262032858914</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B159" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -6399,12 +6902,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B160" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C160">
         <v>0.99344679186228479</v>
@@ -6420,12 +6923,12 @@
         <v>0.99314376869489918</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B161" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -6441,12 +6944,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B162" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C162">
         <v>0.82389046995112469</v>
@@ -6462,12 +6965,12 @@
         <v>0.78105198526807462</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B163" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C163">
         <v>0.98317802072441518</v>
@@ -6483,23 +6986,23 @@
         <v>0.98472982708327028</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="38" t="s">
+    <row r="164" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B164" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C164" s="39">
+      <c r="B164" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C164" s="25">
         <v>0.81621315676193718</v>
       </c>
-      <c r="D164" s="39">
+      <c r="D164" s="25">
         <v>0.87467334494773519</v>
       </c>
-      <c r="E164" s="39">
+      <c r="E164" s="25">
         <v>0.87467334494773519</v>
       </c>
-      <c r="F164" s="39">
+      <c r="F164" s="25">
         <f t="shared" si="2"/>
         <v>0.76507795151023728</v>
       </c>
@@ -6522,32 +7025,32 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="G1" s="30" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="G1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="M1" s="30" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="M1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6584,15 +7087,15 @@
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6639,7 +7142,7 @@
         <v>0.8727243452125375</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -6686,7 +7189,7 @@
         <v>0.94075163398692807</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -6733,7 +7236,7 @@
         <v>0.92877816627816634</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -6780,7 +7283,7 @@
         <v>0.93029331779331792</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -6827,7 +7330,7 @@
         <v>0.92328224377020118</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -6874,7 +7377,7 @@
         <v>0.90674048174048172</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -6921,7 +7424,7 @@
         <v>0.92949640287769797</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -6968,7 +7471,7 @@
         <v>0.92057008192122092</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -7015,7 +7518,7 @@
         <v>0.95059434621915884</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -7062,7 +7565,7 @@
         <v>0.93925925925925924</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -7109,7 +7612,7 @@
         <v>0.93595744680851067</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -7156,7 +7659,7 @@
         <v>0.93129770992366423</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -7203,7 +7706,7 @@
         <v>0.96538314176245199</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -7250,7 +7753,7 @@
         <v>0.9207496352822353</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -7297,7 +7800,7 @@
         <v>0.87643363728470125</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -7344,7 +7847,7 @@
         <v>0.92742919389978229</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -7391,7 +7894,7 @@
         <v>0.93150739704118346</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -7438,7 +7941,7 @@
         <v>0.93585105257590173</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
@@ -7494,7 +7997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -7553,7 +8056,7 @@
         <v>-3.0769230769230882E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -7612,7 +8115,7 @@
         <v>-1.1764705882352899E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -7671,7 +8174,7 @@
         <v>-2.222222222222214E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -7751,14 +8254,14 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:12" ht="34" x14ac:dyDescent="0.4">
       <c r="A1" s="33" t="s">
         <v>48</v>
       </c>
@@ -7767,7 +8270,7 @@
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7781,7 +8284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -7797,15 +8300,15 @@
       <c r="E3">
         <v>0.97312299999999996</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -7822,7 +8325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
@@ -7839,16 +8342,16 @@
         <v>0.97692299999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.4">
       <c r="A9" s="33" t="s">
         <v>50</v>
       </c>
@@ -7857,7 +8360,7 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -7871,16 +8374,16 @@
       <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -7897,7 +8400,7 @@
         <v>0.98260899999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -7914,7 +8417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -7931,31 +8434,31 @@
         <v>0.99230799999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
     </row>
   </sheetData>
@@ -7971,651 +8474,189 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D156AB4A-B94F-484C-9210-CE1AAD538863}">
-  <dimension ref="B1:M25"/>
+  <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:13" s="3" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="6"/>
-      <c r="I1" s="30" t="s">
+    <row r="1" spans="2:13" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="22"/>
+      <c r="I1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-    </row>
-    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="11"/>
-      <c r="C2" s="25" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+    </row>
+    <row r="2" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+      <c r="C2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="20" t="s">
+      <c r="J2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="22">
-        <v>0.97701149425287304</v>
-      </c>
-      <c r="D3" s="22">
-        <v>0.890625</v>
-      </c>
-      <c r="E3" s="22">
-        <v>0.80281690140844997</v>
-      </c>
-      <c r="F3" s="23">
-        <v>1</v>
-      </c>
-      <c r="H3" s="16" t="str">
-        <f>VLOOKUP($B3,TL!$G3:$K20,1,FALSE)</f>
+      <c r="C3">
+        <v>0.989326765188834</v>
+      </c>
+      <c r="D3">
+        <v>0.94420600858369097</v>
+      </c>
+      <c r="E3">
+        <v>0.92436974789915904</v>
+      </c>
+      <c r="F3">
+        <v>0.96491228070175405</v>
+      </c>
+      <c r="H3" s="13" t="str">
+        <f>VLOOKUP($B3,[1]TL!$G3:$K20,1,FALSE)</f>
         <v>BRCA</v>
       </c>
-      <c r="I3" s="9">
-        <f>VLOOKUP($B3,TL!$G3:$K20,2,FALSE)</f>
+      <c r="I3" s="26">
+        <f>VLOOKUP($B3,[1]TL!$G3:$K20,2,FALSE)</f>
         <v>0.98851104186424599</v>
       </c>
-      <c r="J3" s="9">
-        <f>VLOOKUP($B3,TL!$G3:$K20,3,FALSE)</f>
+      <c r="J3" s="27">
+        <f>VLOOKUP($B3,[1]TL!$G3:$K20,3,FALSE)</f>
         <v>0.94562199235649746</v>
       </c>
-      <c r="K3" s="9">
-        <f>VLOOKUP($B3,TL!$G3:$K20,4,FALSE)</f>
+      <c r="K3" s="27">
+        <f>VLOOKUP($B3,[1]TL!$G3:$K20,4,FALSE)</f>
         <v>0.91041666666666676</v>
       </c>
-      <c r="L3" s="9">
-        <f>VLOOKUP($B3,TL!$G3:$K20,5,FALSE)</f>
+      <c r="L3" s="28">
+        <f>VLOOKUP($B3,[1]TL!$G3:$K20,5,FALSE)</f>
         <v>0.9913043478260869</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0.99019607843137203</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0.96212121212121204</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0.94074074074073999</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0.98449612403100695</v>
+      </c>
+      <c r="H4" s="14" t="e">
+        <f>VLOOKUP($B4,[1]TL!$G5:$K22,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I4" s="29" t="e">
+        <f>VLOOKUP($B4,[1]TL!$G5:$K22,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J4" s="8" t="e">
+        <f>VLOOKUP($B4,[1]TL!$G5:$K22,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K4" s="8" t="e">
+        <f>VLOOKUP($B4,[1]TL!$G5:$K22,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L4" s="30" t="e">
+        <f>VLOOKUP($B4,[1]TL!$G5:$K22,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="22">
-        <v>0.99019607843137203</v>
-      </c>
-      <c r="D4" s="22">
-        <v>0.96212121212121204</v>
-      </c>
-      <c r="E4" s="22">
-        <v>0.94074074074073999</v>
-      </c>
-      <c r="F4" s="23">
-        <v>0.98449612403100695</v>
-      </c>
-      <c r="H4" s="17" t="e">
-        <f>VLOOKUP($B4,TL!$G5:$K22,1,FALSE)</f>
+      <c r="C5" s="18">
+        <v>0.98317094774136404</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0.92050209205020905</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0.85271317829457305</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="14" t="e">
+        <f>VLOOKUP($B5,[1]TL!$G6:$K23,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I4" s="9" t="e">
-        <f>VLOOKUP($B4,TL!$G5:$K22,2,FALSE)</f>
+      <c r="I5" s="29" t="e">
+        <f>VLOOKUP($B5,[1]TL!$G6:$K23,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J4" s="9" t="e">
-        <f>VLOOKUP($B4,TL!$G5:$K22,3,FALSE)</f>
+      <c r="J5" s="8" t="e">
+        <f>VLOOKUP($B5,[1]TL!$G6:$K23,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K4" s="9" t="e">
-        <f>VLOOKUP($B4,TL!$G5:$K22,4,FALSE)</f>
+      <c r="K5" s="8" t="e">
+        <f>VLOOKUP($B5,[1]TL!$G6:$K23,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L4" s="9" t="e">
-        <f>VLOOKUP($B4,TL!$G5:$K22,5,FALSE)</f>
+      <c r="L5" s="30" t="e">
+        <f>VLOOKUP($B5,[1]TL!$G6:$K23,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="22">
-        <v>0.98317094774136404</v>
-      </c>
-      <c r="D5" s="22">
-        <v>0.92050209205020905</v>
-      </c>
-      <c r="E5" s="22">
-        <v>0.85271317829457305</v>
-      </c>
-      <c r="F5" s="23">
-        <v>1</v>
-      </c>
-      <c r="H5" s="17" t="e">
-        <f>VLOOKUP($B5,TL!$G6:$K23,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I5" s="9" t="e">
-        <f>VLOOKUP($B5,TL!$G6:$K23,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J5" s="9" t="e">
-        <f>VLOOKUP($B5,TL!$G6:$K23,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K5" s="9" t="e">
-        <f>VLOOKUP($B5,TL!$G6:$K23,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L5" s="9" t="e">
-        <f>VLOOKUP($B5,TL!$G6:$K23,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="22">
-        <v>0.960093896713615</v>
-      </c>
-      <c r="D6" s="22">
-        <v>0.679245283018868</v>
-      </c>
-      <c r="E6" s="22">
-        <v>0.52941176470588203</v>
-      </c>
-      <c r="F6" s="23">
-        <v>0.94736842105263097</v>
-      </c>
-      <c r="H6" s="17" t="str">
-        <f>VLOOKUP($B6,TL!$G4:$K21,1,FALSE)</f>
-        <v>BLCA</v>
-      </c>
-      <c r="I6" s="9">
-        <f>VLOOKUP($B6,TL!$G4:$K21,2,FALSE)</f>
-        <v>0.98823464269428707</v>
-      </c>
-      <c r="J6" s="9">
-        <f>VLOOKUP($B6,TL!$G4:$K21,3,FALSE)</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="K6" s="9">
-        <f>VLOOKUP($B6,TL!$G4:$K21,4,FALSE)</f>
-        <v>0.88333333333333319</v>
-      </c>
-      <c r="L6" s="9">
-        <f>VLOOKUP($B6,TL!$G4:$K21,5,FALSE)</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="22">
-        <v>0.94155844155844104</v>
-      </c>
-      <c r="D7" s="22">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22">
-        <v>0</v>
-      </c>
-      <c r="F7" s="23">
-        <v>0</v>
-      </c>
-      <c r="H7" s="17" t="e">
-        <f>VLOOKUP($B7,TL!$G7:$K24,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I7" s="9" t="e">
-        <f>VLOOKUP($B7,TL!$G7:$K24,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J7" s="9" t="e">
-        <f>VLOOKUP($B7,TL!$G7:$K24,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K7" s="9" t="e">
-        <f>VLOOKUP($B7,TL!$G7:$K24,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L7" s="9" t="e">
-        <f>VLOOKUP($B7,TL!$G7:$K24,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="22">
-        <v>0.98480243161094205</v>
-      </c>
-      <c r="D8" s="22">
-        <v>0.94252873563218298</v>
-      </c>
-      <c r="E8" s="22">
-        <v>0.89130434782608603</v>
-      </c>
-      <c r="F8" s="23">
-        <v>1</v>
-      </c>
-      <c r="H8" s="17" t="str">
-        <f>VLOOKUP($B8,TL!$G8:$K25,1,FALSE)</f>
-        <v>COAD</v>
-      </c>
-      <c r="I8" s="9">
-        <f>VLOOKUP($B8,TL!$G8:$K25,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="J8" s="9">
-        <f>VLOOKUP($B8,TL!$G8:$K25,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="K8" s="9">
-        <f>VLOOKUP($B8,TL!$G8:$K25,4,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L8" s="9">
-        <f>VLOOKUP($B8,TL!$G8:$K25,5,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="22">
-        <v>0.96996466431095396</v>
-      </c>
-      <c r="D9" s="22">
-        <v>0.83168316831683098</v>
-      </c>
-      <c r="E9" s="22">
-        <v>0.73684210526315697</v>
-      </c>
-      <c r="F9" s="23">
-        <v>0.95454545454545403</v>
-      </c>
-      <c r="H9" s="17" t="e">
-        <f>VLOOKUP($B9,TL!$G9:$K26,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I9" s="9" t="e">
-        <f>VLOOKUP($B9,TL!$G9:$K26,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J9" s="9" t="e">
-        <f>VLOOKUP($B9,TL!$G9:$K26,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K9" s="9" t="e">
-        <f>VLOOKUP($B9,TL!$G9:$K26,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L9" s="9" t="e">
-        <f>VLOOKUP($B9,TL!$G9:$K26,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="22">
-        <v>0.97854785478547801</v>
-      </c>
-      <c r="D10" s="22">
-        <v>0.91612903225806397</v>
-      </c>
-      <c r="E10" s="22">
-        <v>0.85542168674698704</v>
-      </c>
-      <c r="F10" s="23">
-        <v>0.98611111111111105</v>
-      </c>
-      <c r="H10" s="17" t="str">
-        <f>VLOOKUP($B10,TL!$G10:$K27,1,FALSE)</f>
-        <v>KIRC</v>
-      </c>
-      <c r="I10" s="9">
-        <f>VLOOKUP($B10,TL!$G10:$K27,2,FALSE)</f>
-        <v>0.99504109650905481</v>
-      </c>
-      <c r="J10" s="9">
-        <f>VLOOKUP($B10,TL!$G10:$K27,3,FALSE)</f>
-        <v>0.97873357228195934</v>
-      </c>
-      <c r="K10" s="9">
-        <f>VLOOKUP($B10,TL!$G10:$K27,4,FALSE)</f>
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="L10" s="9">
-        <f>VLOOKUP($B10,TL!$G10:$K27,5,FALSE)</f>
-        <v>0.97142857142857153</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="22">
-        <v>0.98142414860681104</v>
-      </c>
-      <c r="D11" s="22">
-        <v>0.91428571428571404</v>
-      </c>
-      <c r="E11" s="22">
-        <v>0.84210526315789402</v>
-      </c>
-      <c r="F11" s="23">
-        <v>1</v>
-      </c>
-      <c r="H11" s="17" t="e">
-        <f>VLOOKUP($B11,TL!$G11:$K28,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I11" s="9" t="e">
-        <f>VLOOKUP($B11,TL!$G11:$K28,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J11" s="9" t="e">
-        <f>VLOOKUP($B11,TL!$G11:$K28,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K11" s="9" t="e">
-        <f>VLOOKUP($B11,TL!$G11:$K28,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L11" s="9" t="e">
-        <f>VLOOKUP($B11,TL!$G11:$K28,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="22">
-        <v>0.93617021276595702</v>
-      </c>
-      <c r="D12" s="22">
-        <v>0.78740157480314898</v>
-      </c>
-      <c r="E12" s="22">
-        <v>0.64935064935064901</v>
-      </c>
-      <c r="F12" s="23">
-        <v>1</v>
-      </c>
-      <c r="H12" s="17" t="str">
-        <f>VLOOKUP($B12,TL!$G12:$K29,1,FALSE)</f>
-        <v>LIHC</v>
-      </c>
-      <c r="I12" s="9">
-        <f>VLOOKUP($B12,TL!$G12:$K29,2,FALSE)</f>
-        <v>0.9857983193277311</v>
-      </c>
-      <c r="J12" s="9">
-        <f>VLOOKUP($B12,TL!$G12:$K29,3,FALSE)</f>
-        <v>0.94071542492595128</v>
-      </c>
-      <c r="K12" s="9">
-        <f>VLOOKUP($B12,TL!$G12:$K29,4,FALSE)</f>
-        <v>0.92626262626262634</v>
-      </c>
-      <c r="L12" s="9">
-        <f>VLOOKUP($B12,TL!$G12:$K29,5,FALSE)</f>
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="22">
-        <v>0.96701388888888795</v>
-      </c>
-      <c r="D13" s="22">
-        <v>0.86131386861313797</v>
-      </c>
-      <c r="E13" s="22">
-        <v>0.75641025641025605</v>
-      </c>
-      <c r="F13" s="23">
-        <v>1</v>
-      </c>
-      <c r="H13" s="17" t="e">
-        <f>VLOOKUP($B13,TL!$G13:$K30,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I13" s="9" t="e">
-        <f>VLOOKUP($B13,TL!$G13:$K30,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J13" s="9" t="e">
-        <f>VLOOKUP($B13,TL!$G13:$K30,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K13" s="9" t="e">
-        <f>VLOOKUP($B13,TL!$G13:$K30,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L13" s="9" t="e">
-        <f>VLOOKUP($B13,TL!$G13:$K30,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="22">
-        <v>0.98191681735985503</v>
-      </c>
-      <c r="D14" s="22">
-        <v>0.91071428571428503</v>
-      </c>
-      <c r="E14" s="22">
-        <v>0.83606557377049096</v>
-      </c>
-      <c r="F14" s="23">
-        <v>1</v>
-      </c>
-      <c r="H14" s="17" t="e">
-        <f>VLOOKUP($B14,TL!$G14:$K31,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I14" s="9" t="e">
-        <f>VLOOKUP($B14,TL!$G14:$K31,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J14" s="9" t="e">
-        <f>VLOOKUP($B14,TL!$G14:$K31,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K14" s="9" t="e">
-        <f>VLOOKUP($B14,TL!$G14:$K31,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L14" s="9" t="e">
-        <f>VLOOKUP($B14,TL!$G14:$K31,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="22">
-        <v>0.88545454545454505</v>
-      </c>
-      <c r="D15" s="22">
-        <v>0.56551724137931003</v>
-      </c>
-      <c r="E15" s="22">
-        <v>0.44086021505376299</v>
-      </c>
-      <c r="F15" s="23">
-        <v>0.78846153846153799</v>
-      </c>
-      <c r="H15" s="17" t="e">
-        <f>VLOOKUP($B15,TL!$G15:$K32,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I15" s="9" t="e">
-        <f>VLOOKUP($B15,TL!$G15:$K32,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J15" s="9" t="e">
-        <f>VLOOKUP($B15,TL!$G15:$K32,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K15" s="9" t="e">
-        <f>VLOOKUP($B15,TL!$G15:$K32,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L15" s="9" t="e">
-        <f>VLOOKUP($B15,TL!$G15:$K32,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="22">
-        <v>0.95777777777777695</v>
-      </c>
-      <c r="D16" s="22">
-        <v>0.78160919540229801</v>
-      </c>
-      <c r="E16" s="22">
-        <v>0.65384615384615297</v>
-      </c>
-      <c r="F16" s="23">
-        <v>0.97142857142857097</v>
-      </c>
-      <c r="H16" s="17" t="e">
-        <f>VLOOKUP($B16,TL!$G16:$K33,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I16" s="9" t="e">
-        <f>VLOOKUP($B16,TL!$G16:$K33,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J16" s="9" t="e">
-        <f>VLOOKUP($B16,TL!$G16:$K33,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K16" s="9" t="e">
-        <f>VLOOKUP($B16,TL!$G16:$K33,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L16" s="9" t="e">
-        <f>VLOOKUP($B16,TL!$G16:$K33,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="24">
-        <v>0.88461538461538403</v>
-      </c>
-      <c r="D17" s="24">
-        <v>0.63333333333333297</v>
-      </c>
-      <c r="E17" s="24">
-        <v>0.47107438016528902</v>
-      </c>
-      <c r="F17" s="12">
-        <v>0.96610169491525399</v>
-      </c>
-      <c r="H17" s="18" t="e">
-        <f>VLOOKUP($B17,TL!$G17:$K34,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I17" s="9" t="e">
-        <f>VLOOKUP($B17,TL!$G17:$K34,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J17" s="9" t="e">
-        <f>VLOOKUP($B17,TL!$G17:$K34,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K17" s="9" t="e">
-        <f>VLOOKUP($B17,TL!$G17:$K34,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L17" s="9" t="e">
-        <f>VLOOKUP($B17,TL!$G17:$K34,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" s="27" customFormat="1" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-    </row>
-    <row r="25" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B25" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="B13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/summary/performances.xlsx
+++ b/summary/performances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10610"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canakoglu/GMQL-sources/CIBB2018/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{48568C0F-8FE3-2C45-9298-514A4762FA25}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{75D335A6-7E97-ED40-BA7B-B4F390C3B303}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCGA_info" sheetId="3" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="TL" sheetId="1" r:id="rId3"/>
     <sheet name="DM" sheetId="2" r:id="rId4"/>
     <sheet name="LADDER" sheetId="4" r:id="rId5"/>
+    <sheet name="Merged table" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Classical ML'!$A$2:$F$164</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="75">
   <si>
     <t>accuracy</t>
   </si>
@@ -232,6 +233,30 @@
   </si>
   <si>
     <t>%normal</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>Data aug</t>
+  </si>
+  <si>
+    <t>Additional info</t>
+  </si>
+  <si>
+    <t>unsupervised info</t>
+  </si>
+  <si>
+    <t>TRAN.LEARN</t>
+  </si>
+  <si>
+    <t>Ladder</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>feature reduction</t>
   </si>
 </sst>
 </file>
@@ -587,7 +612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -635,6 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -659,7 +685,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2824,21 +2856,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9BC486-AE94-4A41-83C2-002C0FB8F3B3}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="176" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2873,8 +2905,8 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="39">
-        <f>D3/B3</f>
+      <c r="E3" s="31">
+        <f t="shared" ref="E3:E35" si="0">D3/B3</f>
         <v>0</v>
       </c>
       <c r="F3">
@@ -2894,8 +2926,8 @@
       <c r="D4">
         <v>19</v>
       </c>
-      <c r="E4" s="39">
-        <f>D4/B4</f>
+      <c r="E4" s="31">
+        <f t="shared" si="0"/>
         <v>4.4600938967136149E-2</v>
       </c>
       <c r="F4">
@@ -2915,8 +2947,8 @@
       <c r="D5">
         <v>114</v>
       </c>
-      <c r="E5" s="39">
-        <f>D5/B5</f>
+      <c r="E5" s="31">
+        <f t="shared" si="0"/>
         <v>9.3596059113300489E-2</v>
       </c>
       <c r="F5">
@@ -2936,8 +2968,8 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="39">
-        <f>D6/B6</f>
+      <c r="E6" s="31">
+        <f t="shared" si="0"/>
         <v>9.74025974025974E-3</v>
       </c>
       <c r="F6">
@@ -2957,8 +2989,8 @@
       <c r="D7">
         <v>9</v>
       </c>
-      <c r="E7" s="39">
-        <f>D7/B7</f>
+      <c r="E7" s="31">
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="F7">
@@ -2978,8 +3010,8 @@
       <c r="D8">
         <v>41</v>
       </c>
-      <c r="E8" s="39">
-        <f>D8/B8</f>
+      <c r="E8" s="31">
+        <f t="shared" si="0"/>
         <v>0.12462006079027356</v>
       </c>
       <c r="F8">
@@ -2999,8 +3031,8 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="39">
-        <f>D9/B9</f>
+      <c r="E9" s="31">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9">
@@ -3020,8 +3052,8 @@
       <c r="D10">
         <v>11</v>
       </c>
-      <c r="E10" s="39">
-        <f>D10/B10</f>
+      <c r="E10" s="31">
+        <f t="shared" si="0"/>
         <v>5.6122448979591837E-2</v>
       </c>
       <c r="F10">
@@ -3041,8 +3073,8 @@
       <c r="D11">
         <v>5</v>
       </c>
-      <c r="E11" s="39">
-        <f>D11/B11</f>
+      <c r="E11" s="31">
+        <f t="shared" si="0"/>
         <v>2.9069767441860465E-2</v>
       </c>
       <c r="F11">
@@ -3062,8 +3094,8 @@
       <c r="D12">
         <v>44</v>
       </c>
-      <c r="E12" s="39">
-        <f>D12/B12</f>
+      <c r="E12" s="31">
+        <f t="shared" si="0"/>
         <v>7.7738515901060068E-2</v>
       </c>
       <c r="F12">
@@ -3083,8 +3115,8 @@
       <c r="D13">
         <v>25</v>
       </c>
-      <c r="E13" s="39">
-        <f>D13/B13</f>
+      <c r="E13" s="31">
+        <f t="shared" si="0"/>
         <v>0.27472527472527475</v>
       </c>
       <c r="F13">
@@ -3104,8 +3136,8 @@
       <c r="D14">
         <v>72</v>
       </c>
-      <c r="E14" s="39">
-        <f>D14/B14</f>
+      <c r="E14" s="31">
+        <f t="shared" si="0"/>
         <v>0.11881188118811881</v>
       </c>
       <c r="F14">
@@ -3125,8 +3157,8 @@
       <c r="D15">
         <v>32</v>
       </c>
-      <c r="E15" s="39">
-        <f>D15/B15</f>
+      <c r="E15" s="31">
+        <f t="shared" si="0"/>
         <v>9.9071207430340563E-2</v>
       </c>
       <c r="F15">
@@ -3146,8 +3178,8 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="39">
-        <f>D16/B16</f>
+      <c r="E16" s="31">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16">
@@ -3167,8 +3199,8 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="39">
-        <f>D17/B17</f>
+      <c r="E17" s="31">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17">
@@ -3188,8 +3220,8 @@
       <c r="D18">
         <v>50</v>
       </c>
-      <c r="E18" s="39">
-        <f>D18/B18</f>
+      <c r="E18" s="31">
+        <f t="shared" si="0"/>
         <v>0.1182033096926714</v>
       </c>
       <c r="F18">
@@ -3209,8 +3241,8 @@
       <c r="D19">
         <v>59</v>
       </c>
-      <c r="E19" s="39">
-        <f>D19/B19</f>
+      <c r="E19" s="31">
+        <f t="shared" si="0"/>
         <v>0.10243055555555555</v>
       </c>
       <c r="F19">
@@ -3230,8 +3262,8 @@
       <c r="D20">
         <v>51</v>
       </c>
-      <c r="E20" s="39">
-        <f>D20/B20</f>
+      <c r="E20" s="31">
+        <f t="shared" si="0"/>
         <v>9.2224231464737794E-2</v>
       </c>
       <c r="F20">
@@ -3251,8 +3283,8 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" s="39">
-        <f>D21/B21</f>
+      <c r="E21" s="31">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21">
@@ -3272,8 +3304,8 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" s="39">
-        <f>D22/B22</f>
+      <c r="E22" s="31">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22">
@@ -3293,8 +3325,8 @@
       <c r="D23">
         <v>4</v>
       </c>
-      <c r="E23" s="39">
-        <f>D23/B23</f>
+      <c r="E23" s="31">
+        <f t="shared" si="0"/>
         <v>2.185792349726776E-2</v>
       </c>
       <c r="F23">
@@ -3314,8 +3346,8 @@
       <c r="D24">
         <v>3</v>
       </c>
-      <c r="E24" s="39">
-        <f>D24/B24</f>
+      <c r="E24" s="31">
+        <f t="shared" si="0"/>
         <v>1.6042780748663103E-2</v>
       </c>
       <c r="F24">
@@ -3335,8 +3367,8 @@
       <c r="D25">
         <v>52</v>
       </c>
-      <c r="E25" s="39">
-        <f>D25/B25</f>
+      <c r="E25" s="31">
+        <f t="shared" si="0"/>
         <v>9.4545454545454544E-2</v>
       </c>
       <c r="F25">
@@ -3356,8 +3388,8 @@
       <c r="D26">
         <v>10</v>
       </c>
-      <c r="E26" s="39">
-        <f>D26/B26</f>
+      <c r="E26" s="31">
+        <f t="shared" si="0"/>
         <v>9.5238095238095233E-2</v>
       </c>
       <c r="F26">
@@ -3377,8 +3409,8 @@
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="E27" s="39">
-        <f>D27/B27</f>
+      <c r="E27" s="31">
+        <f t="shared" si="0"/>
         <v>7.5471698113207548E-3</v>
       </c>
       <c r="F27">
@@ -3398,8 +3430,8 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="39">
-        <f>D28/B28</f>
+      <c r="E28" s="31">
+        <f t="shared" si="0"/>
         <v>2.1097046413502108E-3</v>
       </c>
       <c r="F28">
@@ -3419,8 +3451,8 @@
       <c r="D29">
         <v>35</v>
       </c>
-      <c r="E29" s="39">
-        <f>D29/B29</f>
+      <c r="E29" s="31">
+        <f t="shared" si="0"/>
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="F29">
@@ -3440,8 +3472,8 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" s="39">
-        <f>D30/B30</f>
+      <c r="E30" s="31">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F30">
@@ -3461,8 +3493,8 @@
       <c r="D31">
         <v>59</v>
       </c>
-      <c r="E31" s="39">
-        <f>D31/B31</f>
+      <c r="E31" s="31">
+        <f t="shared" si="0"/>
         <v>0.10314685314685315</v>
       </c>
       <c r="F31">
@@ -3482,8 +3514,8 @@
       <c r="D32">
         <v>2</v>
       </c>
-      <c r="E32" s="39">
-        <f>D32/B32</f>
+      <c r="E32" s="31">
+        <f t="shared" si="0"/>
         <v>1.6393442622950821E-2</v>
       </c>
       <c r="F32">
@@ -3503,8 +3535,8 @@
       <c r="D33">
         <v>24</v>
       </c>
-      <c r="E33" s="39">
-        <f>D33/B33</f>
+      <c r="E33" s="31">
+        <f t="shared" si="0"/>
         <v>0.11940298507462686</v>
       </c>
       <c r="F33">
@@ -3524,8 +3556,8 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" s="39">
-        <f>D34/B34</f>
+      <c r="E34" s="31">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F34">
@@ -3545,8 +3577,8 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" s="39">
-        <f>D35/B35</f>
+      <c r="E35" s="31">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F35">
@@ -3579,14 +3611,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -7021,34 +7053,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="158" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="G1" s="35" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="G1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="M1" s="35" t="s">
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="M1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -7087,13 +7119,13 @@
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="S2" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -8248,29 +8280,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBC07E4-70E4-4EA6-BC7B-0A2447B840E5}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E20" sqref="E20:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="34" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.4">
+      <c r="A1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8284,7 +8318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -8300,15 +8334,15 @@
       <c r="E3">
         <v>0.97312299999999996</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="F3" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -8325,7 +8359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
@@ -8342,25 +8376,25 @@
         <v>0.97692299999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.4">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.4">
+      <c r="A9" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -8374,16 +8408,15 @@
       <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>51</v>
       </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -8400,7 +8433,7 @@
         <v>0.98260899999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -8417,7 +8450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -8434,13 +8467,13 @@
         <v>0.99230799999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -8463,7 +8496,7 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="F3:J3"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A9:E9"/>
   </mergeCells>
@@ -8477,27 +8510,27 @@
   <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F4"/>
+      <selection activeCell="C3" sqref="C3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:13" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
       <c r="G1" s="22"/>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
@@ -8640,11 +8673,11 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C15" s="20"/>
@@ -8660,4 +8693,239 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0D92E8-BE8B-7042-85EF-6FE2473B88F2}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="H1" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="41"/>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>0.99343599999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.96574899999999997</v>
+      </c>
+      <c r="J3">
+        <v>0.95060900000000004</v>
+      </c>
+      <c r="K3">
+        <v>0.98260899999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="41"/>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4">
+        <v>0.99292000000000002</v>
+      </c>
+      <c r="I4">
+        <v>0.96574899999999997</v>
+      </c>
+      <c r="J4">
+        <v>0.93517300000000003</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="41"/>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5">
+        <v>0.99803900000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.99230499999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.99259299999999995</v>
+      </c>
+      <c r="K5">
+        <v>0.99230799999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="41"/>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>0.99343599999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.96574899999999997</v>
+      </c>
+      <c r="E7">
+        <v>0.95060900000000004</v>
+      </c>
+      <c r="F7">
+        <v>0.98260899999999995</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="41"/>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>0.99292000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.96574899999999997</v>
+      </c>
+      <c r="E8">
+        <v>0.93517300000000003</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="41"/>
+      <c r="B9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>0.99803900000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.99230499999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.99259299999999995</v>
+      </c>
+      <c r="F9">
+        <v>0.99230799999999997</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/summary/performances.xlsx
+++ b/summary/performances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canakoglu/GMQL-sources/CIBB2018/summary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucan\OneDrive - Politecnico di Milano\PhD\progetti\CIBB2018\summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{75D335A6-7E97-ED40-BA7B-B4F390C3B303}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64249C63-D71F-43A7-898D-F7691A32765F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16236" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCGA_info" sheetId="3" r:id="rId1"/>
@@ -27,12 +27,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Classical ML'!$A$2:$F$164</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TCGA_info!$A$2:$F$35</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="92">
   <si>
     <t>accuracy</t>
   </si>
@@ -238,15 +238,6 @@
     <t>DM</t>
   </si>
   <si>
-    <t>Data aug</t>
-  </si>
-  <si>
-    <t>Additional info</t>
-  </si>
-  <si>
-    <t>unsupervised info</t>
-  </si>
-  <si>
     <t>TRAN.LEARN</t>
   </si>
   <si>
@@ -257,6 +248,66 @@
   </si>
   <si>
     <t>feature reduction</t>
+  </si>
+  <si>
+    <t>LUAD + LUSC</t>
+  </si>
+  <si>
+    <t>KIRC + KIRP + KICH</t>
+  </si>
+  <si>
+    <t>Data augmentation</t>
+  </si>
+  <si>
+    <t>Additional information</t>
+  </si>
+  <si>
+    <t>Unsupervised information</t>
+  </si>
+  <si>
+    <t>Distance matrices</t>
+  </si>
+  <si>
+    <t># Genes used</t>
+  </si>
+  <si>
+    <t>Sampling</t>
+  </si>
+  <si>
+    <t>Top 5K variant</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Useless table…don't look at this :)</t>
+  </si>
+  <si>
+    <t>Transfer learning</t>
+  </si>
+  <si>
+    <t>Ladder network</t>
+  </si>
+  <si>
+    <t>Autoencoder</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>5-rep 5-CV</t>
+  </si>
+  <si>
+    <t>Scaling</t>
+  </si>
+  <si>
+    <t>MinMax column-wise</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>1vsALL</t>
   </si>
 </sst>
 </file>
@@ -266,7 +317,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,16 +386,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -607,12 +672,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -661,6 +824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -685,17 +849,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -713,7 +922,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -794,7 +1003,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -810,7 +1019,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>TL!$A$25</c:f>
+              <c:f>TL!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -831,7 +1040,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>TL!$B$24:$S$24</c:f>
+              <c:f>TL!$B$30:$S$30</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
@@ -893,7 +1102,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TL!$B$25:$S$25</c:f>
+              <c:f>TL!$B$31:$S$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -965,7 +1174,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>TL!$A$26</c:f>
+              <c:f>TL!$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -986,7 +1195,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>TL!$B$24:$S$24</c:f>
+              <c:f>TL!$B$30:$S$30</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
@@ -1048,7 +1257,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TL!$B$26:$S$26</c:f>
+              <c:f>TL!$B$32:$S$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1120,7 +1329,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>TL!$A$27</c:f>
+              <c:f>TL!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1141,7 +1350,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>TL!$B$24:$S$24</c:f>
+              <c:f>TL!$B$30:$S$30</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
@@ -1203,7 +1412,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TL!$B$27:$S$27</c:f>
+              <c:f>TL!$B$33:$S$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1275,7 +1484,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>TL!$A$28</c:f>
+              <c:f>TL!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1296,7 +1505,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>TL!$B$24:$S$24</c:f>
+              <c:f>TL!$B$30:$S$30</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
@@ -1358,7 +1567,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TL!$B$28:$S$28</c:f>
+              <c:f>TL!$B$34:$S$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1479,7 +1688,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="460990440"/>
@@ -1538,7 +1747,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="460991752"/>
@@ -1580,7 +1789,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1610,7 +1819,7 @@
       <a:pPr>
         <a:defRPr sz="1400"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2170,13 +2379,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>167639</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>53338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>581890</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2209,332 +2418,17 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="TCGA_info"/>
       <sheetName val="TL"/>
-      <sheetName val="DM"/>
-      <sheetName val="LADDER"/>
-      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="G3" t="str">
-            <v>HNSC</v>
-          </cell>
-          <cell r="H3">
-            <v>0.99468998824494859</v>
-          </cell>
-          <cell r="I3">
-            <v>0.9647058823529413</v>
-          </cell>
-          <cell r="J3">
-            <v>0.97777777777777786</v>
-          </cell>
-          <cell r="K3">
-            <v>0.95555555555555549</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4" t="str">
-            <v>LUSC</v>
-          </cell>
-          <cell r="H4">
-            <v>0.99821428571428572</v>
-          </cell>
-          <cell r="I4">
-            <v>0.9913043478260869</v>
-          </cell>
-          <cell r="J4">
-            <v>0.98333333333333317</v>
-          </cell>
-          <cell r="K4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5" t="str">
-            <v>READ</v>
-          </cell>
-          <cell r="H5">
-            <v>1</v>
-          </cell>
-          <cell r="I5">
-            <v>1</v>
-          </cell>
-          <cell r="J5">
-            <v>1</v>
-          </cell>
-          <cell r="K5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6" t="str">
-            <v>ESCA</v>
-          </cell>
-          <cell r="H6">
-            <v>0.98974358974358978</v>
-          </cell>
-          <cell r="I6">
-            <v>0.86666666666666659</v>
-          </cell>
-          <cell r="J6">
-            <v>1</v>
-          </cell>
-          <cell r="K6">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7" t="str">
-            <v>STAD</v>
-          </cell>
-          <cell r="H7">
-            <v>0.99777777777777776</v>
-          </cell>
-          <cell r="I7">
-            <v>0.98666666666666669</v>
-          </cell>
-          <cell r="J7">
-            <v>0.97499999999999998</v>
-          </cell>
-          <cell r="K7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8" t="str">
-            <v>CHOL</v>
-          </cell>
-          <cell r="H8">
-            <v>1</v>
-          </cell>
-          <cell r="I8">
-            <v>1</v>
-          </cell>
-          <cell r="J8">
-            <v>1</v>
-          </cell>
-          <cell r="K8">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="G9" t="str">
-            <v>KIRP</v>
-          </cell>
-          <cell r="H9">
-            <v>1</v>
-          </cell>
-          <cell r="I9">
-            <v>1</v>
-          </cell>
-          <cell r="J9">
-            <v>1</v>
-          </cell>
-          <cell r="K9">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="G10" t="str">
-            <v>LUAD</v>
-          </cell>
-          <cell r="H10">
-            <v>0.99652173913043485</v>
-          </cell>
-          <cell r="I10">
-            <v>0.98461538461538467</v>
-          </cell>
-          <cell r="J10">
-            <v>0.97142857142857153</v>
-          </cell>
-          <cell r="K10">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="G11" t="str">
-            <v>BLCA</v>
-          </cell>
-          <cell r="H11">
-            <v>0.98823464269428707</v>
-          </cell>
-          <cell r="I11">
-            <v>0.8571428571428571</v>
-          </cell>
-          <cell r="J11">
-            <v>0.88333333333333319</v>
-          </cell>
-          <cell r="K11">
-            <v>0.85</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="G12" t="str">
-            <v>PRAD</v>
-          </cell>
-          <cell r="H12">
-            <v>0.96907212466845505</v>
-          </cell>
-          <cell r="I12">
-            <v>0.83516396457572939</v>
-          </cell>
-          <cell r="J12">
-            <v>0.85438311688311686</v>
-          </cell>
-          <cell r="K12">
-            <v>0.8418181818181818</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="G13" t="str">
-            <v>KICH</v>
-          </cell>
-          <cell r="H13">
-            <v>1</v>
-          </cell>
-          <cell r="I13">
-            <v>1</v>
-          </cell>
-          <cell r="J13">
-            <v>1</v>
-          </cell>
-          <cell r="K13">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="G14" t="str">
-            <v>KIRC</v>
-          </cell>
-          <cell r="H14">
-            <v>0.99504109650905481</v>
-          </cell>
-          <cell r="I14">
-            <v>0.97873357228195934</v>
-          </cell>
-          <cell r="J14">
-            <v>0.98750000000000004</v>
-          </cell>
-          <cell r="K14">
-            <v>0.97142857142857153</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="G15" t="str">
-            <v>GBM</v>
-          </cell>
-          <cell r="H15">
-            <v>1</v>
-          </cell>
-          <cell r="I15">
-            <v>1</v>
-          </cell>
-          <cell r="J15">
-            <v>1</v>
-          </cell>
-          <cell r="K15">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="G16" t="str">
-            <v>THCA</v>
-          </cell>
-          <cell r="H16">
-            <v>0.98770323268733584</v>
-          </cell>
-          <cell r="I16">
-            <v>0.94391973244147154</v>
-          </cell>
-          <cell r="J16">
-            <v>0.91318681318681327</v>
-          </cell>
-          <cell r="K16">
-            <v>0.98333333333333317</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="G17" t="str">
-            <v>UCEC</v>
-          </cell>
-          <cell r="H17">
-            <v>1</v>
-          </cell>
-          <cell r="I17">
-            <v>1</v>
-          </cell>
-          <cell r="J17">
-            <v>1</v>
-          </cell>
-          <cell r="K17">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="G18" t="str">
-            <v>LIHC</v>
-          </cell>
-          <cell r="H18">
-            <v>0.9857983193277311</v>
-          </cell>
-          <cell r="I18">
-            <v>0.94071542492595128</v>
-          </cell>
-          <cell r="J18">
-            <v>0.92626262626262634</v>
-          </cell>
-          <cell r="K18">
-            <v>0.96</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="G19" t="str">
-            <v>BRCA</v>
-          </cell>
-          <cell r="H19">
-            <v>0.98851104186424599</v>
-          </cell>
-          <cell r="I19">
-            <v>0.94562199235649746</v>
-          </cell>
-          <cell r="J19">
-            <v>0.91041666666666676</v>
-          </cell>
-          <cell r="K19">
-            <v>0.9913043478260869</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="G20" t="str">
-            <v>COAD</v>
-          </cell>
-          <cell r="H20">
-            <v>1</v>
-          </cell>
-          <cell r="I20">
-            <v>1</v>
-          </cell>
-          <cell r="J20">
-            <v>1</v>
-          </cell>
-          <cell r="K20">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2857,22 +2751,22 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -2892,7 +2786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -2913,7 +2807,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2934,7 +2828,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -2955,7 +2849,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -2976,7 +2870,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2997,7 +2891,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -3018,7 +2912,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -3039,7 +2933,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3060,7 +2954,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -3081,7 +2975,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -3102,7 +2996,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -3123,7 +3017,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -3144,7 +3038,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -3165,7 +3059,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -3186,7 +3080,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -3207,7 +3101,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -3228,7 +3122,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -3249,7 +3143,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -3270,7 +3164,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -3291,7 +3185,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -3312,7 +3206,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -3333,7 +3227,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -3354,7 +3248,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -3375,7 +3269,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -3396,7 +3290,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -3417,7 +3311,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -3438,7 +3332,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -3459,7 +3353,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -3480,7 +3374,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -3501,7 +3395,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -3522,7 +3416,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -3543,7 +3437,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -3564,7 +3458,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -3603,24 +3497,24 @@
       <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:6" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A1" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
@@ -3637,7 +3531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -3658,7 +3552,7 @@
         <v>0.93342783709138</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3679,7 +3573,7 @@
         <v>0.98142897589386802</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3700,7 +3594,7 @@
         <v>0.99254105839416051</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -3721,7 +3615,7 @@
         <v>0.99254105839416051</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3742,7 +3636,7 @@
         <v>0.98743566479432654</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3763,7 +3657,7 @@
         <v>0.99254105839416051</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3784,7 +3678,7 @@
         <v>0.9381888723275893</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -3805,7 +3699,7 @@
         <v>0.97280700799135544</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>16</v>
       </c>
@@ -3826,7 +3720,7 @@
         <v>0.9381888723275893</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
@@ -3847,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -3868,7 +3762,7 @@
         <v>0.97963138493944213</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -3889,7 +3783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3910,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3931,7 +3825,7 @@
         <v>0.98945470728207363</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -3952,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -3973,7 +3867,7 @@
         <v>0.92121459900134073</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -3994,7 +3888,7 @@
         <v>0.93168869309838476</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
         <v>14</v>
       </c>
@@ -4015,7 +3909,7 @@
         <v>0.52585673349700923</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>15</v>
       </c>
@@ -4036,7 +3930,7 @@
         <v>0.97499191563499832</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -4057,7 +3951,7 @@
         <v>0.98916909853794277</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -4078,7 +3972,7 @@
         <v>0.99486998898126011</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -4099,7 +3993,7 @@
         <v>0.98538636911158961</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -4120,7 +4014,7 @@
         <v>0.99002149103971482</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
@@ -4141,7 +4035,7 @@
         <v>0.99316437262751078</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -4162,7 +4056,7 @@
         <v>0.81605696514016346</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -4183,7 +4077,7 @@
         <v>0.98871852244004577</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="24" t="s">
         <v>15</v>
       </c>
@@ -4204,7 +4098,7 @@
         <v>0.77626543414849702</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>4</v>
       </c>
@@ -4225,7 +4119,7 @@
         <v>0.92431635321792094</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -4246,7 +4140,7 @@
         <v>0.98897028735473957</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -4267,7 +4161,7 @@
         <v>0.98834313662151152</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -4288,7 +4182,7 @@
         <v>0.96705553340674377</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -4309,7 +4203,7 @@
         <v>0.96832273162612936</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -4330,7 +4224,7 @@
         <v>0.98633392132871511</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -4351,7 +4245,7 @@
         <v>0.85548863352160343</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -4372,7 +4266,7 @@
         <v>0.98703726630069166</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
         <v>4</v>
       </c>
@@ -4393,7 +4287,7 @@
         <v>0.85016561387674594</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
         <v>20</v>
       </c>
@@ -4414,7 +4308,7 @@
         <v>0.96198609045048045</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
@@ -4435,7 +4329,7 @@
         <v>0.99382000824292438</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -4456,7 +4350,7 @@
         <v>0.99197121344212535</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -4477,7 +4371,7 @@
         <v>0.98576496472925412</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -4498,7 +4392,7 @@
         <v>0.99153522929547155</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,7 +4413,7 @@
         <v>0.99058216435555657</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -4540,7 +4434,7 @@
         <v>0.87536517239403921</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -4561,7 +4455,7 @@
         <v>0.99321064153036553</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="24" t="s">
         <v>20</v>
       </c>
@@ -4582,7 +4476,7 @@
         <v>0.82063037762013002</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
         <v>17</v>
       </c>
@@ -4603,7 +4497,7 @@
         <v>0.92171002978625005</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>17</v>
       </c>
@@ -4624,7 +4518,7 @@
         <v>0.96766016902440921</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>17</v>
       </c>
@@ -4645,7 +4539,7 @@
         <v>0.98715748983331675</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
@@ -4666,7 +4560,7 @@
         <v>0.97137312983436241</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>17</v>
       </c>
@@ -4687,7 +4581,7 @@
         <v>0.96564818113584405</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>17</v>
       </c>
@@ -4708,7 +4602,7 @@
         <v>0.98615413351303938</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
@@ -4729,7 +4623,7 @@
         <v>0.81614304813724192</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>17</v>
       </c>
@@ -4750,7 +4644,7 @@
         <v>0.99062747502826054</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="24" t="s">
         <v>17</v>
       </c>
@@ -4771,7 +4665,7 @@
         <v>0.8017889383227903</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="23" t="s">
         <v>8</v>
       </c>
@@ -4792,7 +4686,7 @@
         <v>0.91491242479773871</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -4813,7 +4707,7 @@
         <v>0.98614668783411374</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -4834,7 +4728,7 @@
         <v>0.98846460022921379</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -4855,7 +4749,7 @@
         <v>0.97801665665891335</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -4876,7 +4770,7 @@
         <v>0.97938272361722756</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -4897,7 +4791,7 @@
         <v>0.98468794106606472</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -4918,7 +4812,7 @@
         <v>0.85048694279360326</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -4939,7 +4833,7 @@
         <v>0.99131757407630161</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="24" t="s">
         <v>8</v>
       </c>
@@ -4960,7 +4854,7 @@
         <v>0.85048694279360326</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="23" t="s">
         <v>5</v>
       </c>
@@ -4981,7 +4875,7 @@
         <v>0.96239078659640898</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -5002,7 +4896,7 @@
         <v>0.99475732424626429</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -5023,7 +4917,7 @@
         <v>0.99835895351950787</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -5044,7 +4938,7 @@
         <v>0.99275511386664239</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -5065,7 +4959,7 @@
         <v>0.99108386122525394</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -5086,7 +4980,7 @@
         <v>0.99475732424626429</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
@@ -5107,7 +5001,7 @@
         <v>0.82361801283346525</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -5128,7 +5022,7 @@
         <v>0.99475732424626429</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="24" t="s">
         <v>5</v>
       </c>
@@ -5149,7 +5043,7 @@
         <v>0.82414337994265474</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="23" t="s">
         <v>7</v>
       </c>
@@ -5170,7 +5064,7 @@
         <v>0.89229655899751925</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -5191,7 +5085,7 @@
         <v>0.9660568874430101</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
@@ -5212,7 +5106,7 @@
         <v>0.9577696454973843</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>7</v>
       </c>
@@ -5233,7 +5127,7 @@
         <v>0.9660568874430101</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>7</v>
       </c>
@@ -5254,7 +5148,7 @@
         <v>0.9567341492904996</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
@@ -5275,7 +5169,7 @@
         <v>0.9660568874430101</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
@@ -5296,7 +5190,7 @@
         <v>0.89042048439629262</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>7</v>
       </c>
@@ -5317,7 +5211,7 @@
         <v>0.9660568874430101</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="24" t="s">
         <v>7</v>
       </c>
@@ -5338,7 +5232,7 @@
         <v>0.89042048439629262</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="23" t="s">
         <v>12</v>
       </c>
@@ -5359,7 +5253,7 @@
         <v>0.91640477464424985</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>12</v>
       </c>
@@ -5380,7 +5274,7 @@
         <v>0.98183550520608875</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -5401,7 +5295,7 @@
         <v>0.98528676458249154</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
@@ -5422,7 +5316,7 @@
         <v>0.9634590798090622</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -5443,7 +5337,7 @@
         <v>0.98108671467625141</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
@@ -5464,7 +5358,7 @@
         <v>0.9762370260908031</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>12</v>
       </c>
@@ -5485,7 +5379,7 @@
         <v>0.91282094856419826</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>12</v>
       </c>
@@ -5506,7 +5400,7 @@
         <v>0.98727180486467481</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="24" t="s">
         <v>12</v>
       </c>
@@ -5527,7 +5421,7 @@
         <v>0.91282094856419826</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="23" t="s">
         <v>9</v>
       </c>
@@ -5548,7 +5442,7 @@
         <v>0.96122209165687411</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>9</v>
       </c>
@@ -5569,7 +5463,7 @@
         <v>0.97961697543188164</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
@@ -5590,7 +5484,7 @@
         <v>0.97643466086144881</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>9</v>
       </c>
@@ -5611,7 +5505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
@@ -5632,7 +5526,7 @@
         <v>0.97961697543188164</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
@@ -5653,7 +5547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>9</v>
       </c>
@@ -5674,7 +5568,7 @@
         <v>0.64080832382946129</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>9</v>
       </c>
@@ -5695,7 +5589,7 @@
         <v>0.97643466086144881</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="24" t="s">
         <v>9</v>
       </c>
@@ -5716,7 +5610,7 @@
         <v>0.64080832382946129</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="23" t="s">
         <v>6</v>
       </c>
@@ -5737,7 +5631,7 @@
         <v>0.89778791725507401</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>6</v>
       </c>
@@ -5758,7 +5652,7 @@
         <v>0.96752432456959747</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>6</v>
       </c>
@@ -5779,7 +5673,7 @@
         <v>0.94464249007298773</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>6</v>
       </c>
@@ -5800,7 +5694,7 @@
         <v>0.97637205875436972</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>6</v>
       </c>
@@ -5821,7 +5715,7 @@
         <v>0.90851454110602192</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>6</v>
       </c>
@@ -5842,7 +5736,7 @@
         <v>0.97637205875436972</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>6</v>
       </c>
@@ -5863,7 +5757,7 @@
         <v>0.8169378698224854</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>6</v>
       </c>
@@ -5884,7 +5778,7 @@
         <v>0.95070615658850921</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="24" t="s">
         <v>6</v>
       </c>
@@ -5905,7 +5799,7 @@
         <v>0.8169378698224854</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="23" t="s">
         <v>19</v>
       </c>
@@ -5926,7 +5820,7 @@
         <v>0.93743665785724206</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>19</v>
       </c>
@@ -5947,7 +5841,7 @@
         <v>0.97286426789261193</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>19</v>
       </c>
@@ -5968,7 +5862,7 @@
         <v>0.98679580934736344</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>19</v>
       </c>
@@ -5989,7 +5883,7 @@
         <v>0.97691381615327322</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>19</v>
       </c>
@@ -6010,7 +5904,7 @@
         <v>0.97192684674819696</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>19</v>
       </c>
@@ -6031,7 +5925,7 @@
         <v>0.98603599623958682</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>19</v>
       </c>
@@ -6052,7 +5946,7 @@
         <v>0.77629128560739868</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>19</v>
       </c>
@@ -6073,7 +5967,7 @@
         <v>0.98936080295385254</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="24" t="s">
         <v>19</v>
       </c>
@@ -6094,7 +5988,7 @@
         <v>0.7765653324345565</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="23" t="s">
         <v>10</v>
       </c>
@@ -6115,7 +6009,7 @@
         <v>0.96005973711686565</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>10</v>
       </c>
@@ -6136,7 +6030,7 @@
         <v>0.98890572330559889</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>10</v>
       </c>
@@ -6157,7 +6051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>10</v>
       </c>
@@ -6178,7 +6072,7 @@
         <v>0.98678761331293874</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>10</v>
       </c>
@@ -6199,7 +6093,7 @@
         <v>0.9873571748624258</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>10</v>
       </c>
@@ -6220,7 +6114,7 @@
         <v>0.9965384094072971</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>10</v>
       </c>
@@ -6241,7 +6135,7 @@
         <v>0.85060393827230385</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
@@ -6262,7 +6156,7 @@
         <v>0.98786282347320298</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="24" t="s">
         <v>10</v>
       </c>
@@ -6283,7 +6177,7 @@
         <v>0.81136396694210688</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="23" t="s">
         <v>11</v>
       </c>
@@ -6304,7 +6198,7 @@
         <v>0.94421131295178096</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>11</v>
       </c>
@@ -6325,7 +6219,7 @@
         <v>0.98882446624292764</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
@@ -6346,7 +6240,7 @@
         <v>0.99489049248364869</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>11</v>
       </c>
@@ -6367,7 +6261,7 @@
         <v>0.98432310695684699</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>11</v>
       </c>
@@ -6388,7 +6282,7 @@
         <v>0.97714184851486474</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>11</v>
       </c>
@@ -6409,7 +6303,7 @@
         <v>0.99302603186081362</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>11</v>
       </c>
@@ -6430,7 +6324,7 @@
         <v>0.80488224478401083</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
@@ -6451,7 +6345,7 @@
         <v>0.99105926706221448</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="24" t="s">
         <v>11</v>
       </c>
@@ -6472,7 +6366,7 @@
         <v>0.80505420565915642</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="23" t="s">
         <v>18</v>
       </c>
@@ -6493,7 +6387,7 @@
         <v>0.9548921682757836</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>18</v>
       </c>
@@ -6514,7 +6408,7 @@
         <v>0.9806545067282787</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>18</v>
       </c>
@@ -6535,7 +6429,7 @@
         <v>0.99460171405111342</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>18</v>
       </c>
@@ -6556,7 +6450,7 @@
         <v>0.95084223252771638</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>18</v>
       </c>
@@ -6577,7 +6471,7 @@
         <v>0.95670303502576992</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>18</v>
       </c>
@@ -6598,7 +6492,7 @@
         <v>0.97043400049102846</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>18</v>
       </c>
@@ -6619,7 +6513,7 @@
         <v>0.81789138020937768</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>18</v>
       </c>
@@ -6640,7 +6534,7 @@
         <v>0.95616610771904142</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="24" t="s">
         <v>18</v>
       </c>
@@ -6661,7 +6555,7 @@
         <v>0.77439999999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="23" t="s">
         <v>13</v>
       </c>
@@ -6682,7 +6576,7 @@
         <v>0.91476528625700393</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>13</v>
       </c>
@@ -6703,7 +6597,7 @@
         <v>0.93961544570870492</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>13</v>
       </c>
@@ -6724,7 +6618,7 @@
         <v>0.95834112119603532</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>13</v>
       </c>
@@ -6745,7 +6639,7 @@
         <v>0.94753384827890708</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>13</v>
       </c>
@@ -6766,7 +6660,7 @@
         <v>0.932388471632563</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>13</v>
       </c>
@@ -6787,7 +6681,7 @@
         <v>0.93680233404510715</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>13</v>
       </c>
@@ -6808,7 +6702,7 @@
         <v>0.84748376126939884</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>13</v>
       </c>
@@ -6829,7 +6723,7 @@
         <v>0.9522372210146135</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="24" t="s">
         <v>13</v>
       </c>
@@ -6850,7 +6744,7 @@
         <v>0.81965971713983221</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="23" t="s">
         <v>21</v>
       </c>
@@ -6871,7 +6765,7 @@
         <v>0.96351497910408401</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>21</v>
       </c>
@@ -6892,7 +6786,7 @@
         <v>0.99711382965979867</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>21</v>
       </c>
@@ -6913,7 +6807,7 @@
         <v>0.9932262032858914</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>21</v>
       </c>
@@ -6934,7 +6828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>21</v>
       </c>
@@ -6955,7 +6849,7 @@
         <v>0.99314376869489918</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>21</v>
       </c>
@@ -6976,7 +6870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>21</v>
       </c>
@@ -6997,7 +6891,7 @@
         <v>0.78105198526807462</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>21</v>
       </c>
@@ -7018,7 +6912,7 @@
         <v>0.98472982708327028</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="24" t="s">
         <v>21</v>
       </c>
@@ -7051,38 +6945,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView zoomScale="158" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:K14"/>
+    <sheetView topLeftCell="A12" zoomScale="95" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="G1" s="36" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="G1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="M1" s="36" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="M1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7119,15 +7023,15 @@
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -7174,7 +7078,7 @@
         <v>0.8727243452125375</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -7221,7 +7125,7 @@
         <v>0.94075163398692807</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -7268,35 +7172,35 @@
         <v>0.92877816627816634</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="44">
         <v>0.98474358974358966</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="44">
         <v>0.89142857142857146</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="44">
         <v>0.81666666666666665</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="E6" s="44">
+        <v>1</v>
+      </c>
+      <c r="G6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="44">
         <v>0.98974358974358978</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="44">
         <v>0.86666666666666659</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
+      <c r="J6" s="44">
+        <v>1</v>
+      </c>
+      <c r="K6" s="44">
         <v>0.8</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -7315,7 +7219,7 @@
         <v>0.93029331779331792</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -7362,7 +7266,7 @@
         <v>0.92328224377020118</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -7409,7 +7313,7 @@
         <v>0.90674048174048172</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -7456,7 +7360,7 @@
         <v>0.92949640287769797</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -7503,35 +7407,35 @@
         <v>0.92057008192122092</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="44">
         <v>0.99299589603283178</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="44">
         <v>0.93142857142857127</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="44">
         <v>0.93333333333333324</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="44">
         <v>0.95</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="44">
         <v>0.98823464269428707</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="44">
         <v>0.8571428571428571</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="44">
         <v>0.88333333333333319</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="44">
         <v>0.85</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -7550,7 +7454,7 @@
         <v>0.95059434621915884</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -7597,7 +7501,7 @@
         <v>0.93925925925925924</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -7644,7 +7548,7 @@
         <v>0.93595744680851067</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -7691,7 +7595,7 @@
         <v>0.93129770992366423</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -7738,7 +7642,7 @@
         <v>0.96538314176245199</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -7785,7 +7689,7 @@
         <v>0.9207496352822353</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -7832,7 +7736,7 @@
         <v>0.87643363728470125</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -7879,35 +7783,35 @@
         <v>0.92742919389978229</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="44">
         <v>0.9909632841078444</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="44">
         <v>0.95382269503546091</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="44">
         <v>0.92031239935587761</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="44">
         <v>0.99090909090909096</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="44">
         <v>0.98851104186424599</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="44">
         <v>0.94562199235649746</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="44">
         <v>0.91041666666666676</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="44">
         <v>0.9913043478260869</v>
       </c>
       <c r="M19" s="1" t="s">
@@ -7926,7 +7830,7 @@
         <v>0.93150739704118346</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -7973,304 +7877,376 @@
         <v>0.93585105257590173</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21">
+        <v>0.99397400000000002</v>
+      </c>
+      <c r="C21">
+        <v>0.97008700000000003</v>
+      </c>
+      <c r="D21">
+        <v>0.94891300000000001</v>
+      </c>
+      <c r="E21">
+        <v>0.99272700000000003</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21">
+        <v>0.99503900000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.97575999999999996</v>
+      </c>
+      <c r="J21">
+        <v>0.95708099999999996</v>
+      </c>
+      <c r="K21">
+        <v>0.99636400000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22">
+        <v>0.99568299999999998</v>
+      </c>
+      <c r="C22">
+        <v>0.98293200000000003</v>
+      </c>
+      <c r="D22">
+        <v>0.98222699999999996</v>
+      </c>
+      <c r="E22">
+        <v>0.98443099999999994</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22">
+        <v>0.99607900000000005</v>
+      </c>
+      <c r="I22">
+        <v>0.98426599999999997</v>
+      </c>
+      <c r="J22">
+        <v>0.98945899999999998</v>
+      </c>
+      <c r="K22">
+        <v>0.97981499999999999</v>
+      </c>
+      <c r="M22" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="R30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="S30" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B25">
+      <c r="B31">
         <v>-3.5714285714286702E-3</v>
       </c>
-      <c r="C25">
+      <c r="C31">
         <v>-1.8181818181819409E-3</v>
       </c>
-      <c r="D25">
+      <c r="D31">
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="E31">
         <v>-5.0000000000001146E-3</v>
       </c>
-      <c r="F25">
+      <c r="F31">
         <v>-2.6666666666666731E-2</v>
       </c>
-      <c r="G25">
+      <c r="G31">
         <v>0</v>
       </c>
-      <c r="H25">
+      <c r="H31">
         <v>-3.125000000000044E-3</v>
       </c>
-      <c r="I25">
+      <c r="I31">
         <v>-6.9720402956415786E-3</v>
       </c>
-      <c r="J25">
+      <c r="J31">
         <v>4.7612533385447131E-3</v>
       </c>
-      <c r="K25">
+      <c r="K31">
         <v>-1.6563202067789381E-2</v>
       </c>
-      <c r="L25">
+      <c r="L31">
         <v>-2.222222222222214E-2</v>
       </c>
-      <c r="M25">
+      <c r="M31">
         <v>-6.5846994535520009E-3</v>
       </c>
-      <c r="N25">
+      <c r="N31">
         <v>-2.9075630252100911E-2</v>
       </c>
-      <c r="O25">
+      <c r="O31">
         <v>-2.439332266796268E-2</v>
       </c>
-      <c r="P25">
+      <c r="P31">
         <v>-1.5134459036898029E-2</v>
       </c>
-      <c r="Q25">
+      <c r="Q31">
         <v>-9.4117647058822307E-3</v>
       </c>
-      <c r="R25">
+      <c r="R31">
         <v>2.452242243598413E-3</v>
       </c>
-      <c r="S25">
+      <c r="S31">
         <v>-3.0769230769230882E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
         <v>-1.981424148606814E-2</v>
       </c>
-      <c r="C26">
+      <c r="C32">
         <v>-9.52380952380949E-3</v>
       </c>
-      <c r="D26">
+      <c r="D32">
         <v>0</v>
       </c>
-      <c r="E26">
+      <c r="E32">
         <v>2.476190476190487E-2</v>
       </c>
-      <c r="F26">
+      <c r="F32">
         <v>-0.14644110275689229</v>
       </c>
-      <c r="G26">
+      <c r="G32">
         <v>0</v>
       </c>
-      <c r="H26">
+      <c r="H32">
         <v>-1.538461538461533E-2</v>
       </c>
-      <c r="I26">
+      <c r="I32">
         <v>-3.2666666666666837E-2</v>
       </c>
-      <c r="J26">
+      <c r="J32">
         <v>7.4285714285714177E-2</v>
       </c>
-      <c r="K26">
+      <c r="K32">
         <v>-0.18236284412755019</v>
       </c>
-      <c r="L26">
+      <c r="L32">
         <v>-4.0404040404040331E-2</v>
       </c>
-      <c r="M26">
+      <c r="M32">
         <v>-2.61590261590261E-2</v>
       </c>
-      <c r="N26">
+      <c r="N32">
         <v>-0.8666666666666667</v>
       </c>
-      <c r="O26">
+      <c r="O32">
         <v>-0.1245781175346392</v>
       </c>
-      <c r="P26">
+      <c r="P32">
         <v>-6.2222222222222179E-2</v>
       </c>
-      <c r="Q26">
+      <c r="Q32">
         <v>-4.7244582043343697E-2</v>
       </c>
-      <c r="R26">
+      <c r="R32">
         <v>8.2007026789634452E-3</v>
       </c>
-      <c r="S26">
+      <c r="S32">
         <v>-1.1764705882352899E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B27">
+      <c r="B33">
         <v>-3.2323232323232309E-2</v>
       </c>
-      <c r="C27">
+      <c r="C33">
         <v>-1.8181818181817969E-2</v>
       </c>
-      <c r="D27">
+      <c r="D33">
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="E33">
         <v>-0.18333333333333329</v>
       </c>
-      <c r="F27">
+      <c r="F33">
         <v>-0.18214285714285719</v>
       </c>
-      <c r="G27">
+      <c r="G33">
         <v>0</v>
       </c>
-      <c r="H27">
+      <c r="H33">
         <v>-2.857142857142847E-2</v>
       </c>
-      <c r="I27">
+      <c r="I33">
         <v>-6.1538461538461653E-2</v>
       </c>
-      <c r="J27">
+      <c r="J33">
         <v>5.0000000000000037E-2</v>
       </c>
-      <c r="K27">
+      <c r="K33">
         <v>-0.19086663336663329</v>
       </c>
-      <c r="L27">
+      <c r="L33">
         <v>-3.3333333333333208E-2</v>
       </c>
-      <c r="M27">
+      <c r="M33">
         <v>-3.3333333333333208E-2</v>
       </c>
-      <c r="N27">
+      <c r="N33">
         <v>-0.9</v>
       </c>
-      <c r="O27">
+      <c r="O33">
         <v>-4.2907092907092943E-2</v>
       </c>
-      <c r="P27">
+      <c r="P33">
         <v>-6.6666666666666652E-2</v>
       </c>
-      <c r="Q27">
+      <c r="Q33">
         <v>-2.6349206349206459E-2</v>
       </c>
-      <c r="R27">
+      <c r="R33">
         <v>9.8957326892108455E-3</v>
       </c>
-      <c r="S27">
+      <c r="S33">
         <v>-2.222222222222214E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B28">
+      <c r="B34">
         <v>0</v>
       </c>
-      <c r="C28">
+      <c r="C34">
         <v>0</v>
       </c>
-      <c r="D28">
+      <c r="D34">
         <v>0</v>
       </c>
-      <c r="E28">
+      <c r="E34">
         <v>0.2</v>
       </c>
-      <c r="F28">
+      <c r="F34">
         <v>-8.5714285714285743E-2</v>
       </c>
-      <c r="G28">
+      <c r="G34">
         <v>0</v>
       </c>
-      <c r="H28">
+      <c r="H34">
         <v>0</v>
       </c>
-      <c r="I28">
+      <c r="I34">
         <v>0</v>
       </c>
-      <c r="J28">
+      <c r="J34">
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="K28">
+      <c r="K34">
         <v>-0.17818181818181811</v>
       </c>
-      <c r="L28">
+      <c r="L34">
         <v>-4.0000000000000042E-2</v>
       </c>
-      <c r="M28">
+      <c r="M34">
         <v>-1.428571428571446E-2</v>
       </c>
-      <c r="N28">
+      <c r="N34">
         <v>-0.8</v>
       </c>
-      <c r="O28">
+      <c r="O34">
         <v>-0.20303030303030281</v>
       </c>
-      <c r="P28">
+      <c r="P34">
         <v>-4.0000000000000042E-2</v>
       </c>
-      <c r="Q28">
+      <c r="Q34">
         <v>-5.9999999999999942E-2</v>
       </c>
-      <c r="R28">
+      <c r="R34">
         <v>-3.9525691699593413E-4</v>
       </c>
-      <c r="S28">
+      <c r="S34">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="S2:W2"/>
+    <mergeCell ref="M22:Q22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8283,28 +8259,28 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:O29"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8318,7 +8294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -8334,15 +8310,15 @@
       <c r="E3">
         <v>0.97312299999999996</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -8359,7 +8335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
@@ -8376,25 +8352,25 @@
         <v>0.97692299999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.4">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:10" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A9" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -8416,7 +8392,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -8433,7 +8409,7 @@
         <v>0.98260899999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -8450,7 +8426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -8467,31 +8443,31 @@
         <v>0.99230799999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
     </row>
   </sheetData>
@@ -8513,26 +8489,26 @@
       <selection activeCell="C3" sqref="C3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:13" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="36" t="s">
+    <row r="1" spans="2:13" s="3" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
       <c r="G1" s="22"/>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-    </row>
-    <row r="2" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+    </row>
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10"/>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -8561,7 +8537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
@@ -8577,28 +8553,28 @@
       <c r="F3">
         <v>0.96491228070175405</v>
       </c>
-      <c r="H3" s="13" t="str">
+      <c r="H3" s="13" t="e">
         <f>VLOOKUP($B3,[1]TL!$G3:$K20,1,FALSE)</f>
-        <v>BRCA</v>
-      </c>
-      <c r="I3" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="I3" s="26" t="e">
         <f>VLOOKUP($B3,[1]TL!$G3:$K20,2,FALSE)</f>
-        <v>0.98851104186424599</v>
-      </c>
-      <c r="J3" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="J3" s="27" t="e">
         <f>VLOOKUP($B3,[1]TL!$G3:$K20,3,FALSE)</f>
-        <v>0.94562199235649746</v>
-      </c>
-      <c r="K3" s="27">
+        <v>#N/A</v>
+      </c>
+      <c r="K3" s="27" t="e">
         <f>VLOOKUP($B3,[1]TL!$G3:$K20,4,FALSE)</f>
-        <v>0.91041666666666676</v>
-      </c>
-      <c r="L3" s="28">
+        <v>#N/A</v>
+      </c>
+      <c r="L3" s="28" t="e">
         <f>VLOOKUP($B3,[1]TL!$G3:$K20,5,FALSE)</f>
-        <v>0.9913043478260869</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
@@ -8635,7 +8611,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>53</v>
       </c>
@@ -8672,14 +8648,14 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -8697,38 +8673,47 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0D92E8-BE8B-7042-85EF-6FE2473B88F2}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:K8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="H1" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+    <row r="1" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B1" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>68</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -8739,11 +8724,11 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="40" t="s">
-        <v>72</v>
+      <c r="G2" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>0</v>
@@ -8757,13 +8742,41 @@
       <c r="K2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="C3" s="18">
+        <v>0.9909632841078444</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0.95382269503546091</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0.92031239935587761</v>
+      </c>
+      <c r="F3" s="52">
+        <v>0.99090909090909096</v>
+      </c>
+      <c r="G3" s="47" t="s">
         <v>20</v>
       </c>
       <c r="H3">
@@ -8778,13 +8791,43 @@
       <c r="K3">
         <v>0.98260899999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
+      <c r="M3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="C4" s="18">
+        <v>0.99397400000000002</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0.97008700000000003</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0.94891300000000001</v>
+      </c>
+      <c r="F4" s="52">
+        <v>0.99272700000000003</v>
+      </c>
+      <c r="G4" s="47" t="s">
         <v>46</v>
       </c>
       <c r="H4">
@@ -8799,13 +8842,43 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
-      <c r="B5" s="5" t="s">
+      <c r="M4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="45"/>
+      <c r="B5" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="C5">
+        <v>0.99568299999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.98293200000000003</v>
+      </c>
+      <c r="E5">
+        <v>0.98222699999999996</v>
+      </c>
+      <c r="F5">
+        <v>0.98443099999999994</v>
+      </c>
+      <c r="G5" s="54" t="s">
         <v>49</v>
       </c>
       <c r="H5">
@@ -8820,111 +8893,145 @@
       <c r="K5">
         <v>0.99230799999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="40" t="s">
+      <c r="M5" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="I6" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="57" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
+      <c r="M6" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="59"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="18">
         <v>0.99343599999999999</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="18">
         <v>0.96574899999999997</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="18">
         <v>0.95060900000000004</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="52">
         <v>0.98260899999999995</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="47" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="59"/>
       <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="18">
         <v>0.99292000000000002</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="18">
         <v>0.96574899999999997</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="18">
         <v>0.93517300000000003</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="52">
+        <v>1</v>
+      </c>
+      <c r="G8" s="47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="59"/>
       <c r="B9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="18">
         <v>0.99803900000000001</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="18">
         <v>0.99230499999999999</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="18">
         <v>0.99259299999999995</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="52">
         <v>0.99230799999999997</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="48" t="s">
         <v>49</v>
       </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="H1:K1"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/summary/performances.xlsx
+++ b/summary/performances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10610"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucan\OneDrive - Politecnico di Milano\PhD\progetti\CIBB2018\summary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canakoglu/GMQL-sources/CIBB2018/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64249C63-D71F-43A7-898D-F7691A32765F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{372FA923-4C9B-0845-9494-0A7132611FC8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16236" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCGA_info" sheetId="3" r:id="rId1"/>
@@ -27,12 +27,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Classical ML'!$A$2:$F$164</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TCGA_info!$A$2:$F$35</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="94">
   <si>
     <t>accuracy</t>
   </si>
@@ -235,30 +235,12 @@
     <t>%normal</t>
   </si>
   <si>
-    <t>DM</t>
-  </si>
-  <si>
-    <t>TRAN.LEARN</t>
-  </si>
-  <si>
-    <t>Ladder</t>
-  </si>
-  <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>feature reduction</t>
-  </si>
-  <si>
     <t>LUAD + LUSC</t>
   </si>
   <si>
     <t>KIRC + KIRP + KICH</t>
   </si>
   <si>
-    <t>Data augmentation</t>
-  </si>
-  <si>
     <t>Additional information</t>
   </si>
   <si>
@@ -308,6 +290,35 @@
   </si>
   <si>
     <t>1vsALL</t>
+  </si>
+  <si>
+    <t>Data 
+augmentation</t>
+  </si>
+  <si>
+    <t>Feature
+reduction</t>
+  </si>
+  <si>
+    <t>Transfer
+Learning</t>
+  </si>
+  <si>
+    <t>Ladder
+Network</t>
+  </si>
+  <si>
+    <t>Distance
+ Matrix</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>In the supervised part of the algorithm there is only 60 samples used</t>
+  </si>
+  <si>
+    <t>5-CV</t>
   </si>
 </sst>
 </file>
@@ -409,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -684,63 +695,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -759,9 +713,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thick">
         <color auto="1"/>
       </top>
@@ -770,12 +722,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -824,7 +869,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -846,65 +906,61 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -922,7 +978,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1003,7 +1059,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1688,7 +1744,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="460990440"/>
@@ -1747,7 +1803,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="460991752"/>
@@ -1789,7 +1845,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1819,7 +1875,7 @@
       <a:pPr>
         <a:defRPr sz="1400"/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2428,7 +2484,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2754,19 +2810,19 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -2786,7 +2842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -2807,7 +2863,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2828,7 +2884,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -2849,7 +2905,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -2870,7 +2926,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2891,7 +2947,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -2912,7 +2968,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2933,7 +2989,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2954,7 +3010,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2975,7 +3031,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2996,7 +3052,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -3017,7 +3073,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -3038,7 +3094,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -3059,7 +3115,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -3080,7 +3136,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -3101,7 +3157,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -3122,7 +3178,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -3143,7 +3199,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -3164,7 +3220,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -3185,7 +3241,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -3206,7 +3262,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -3227,7 +3283,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,7 +3304,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -3269,7 +3325,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -3290,7 +3346,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -3311,7 +3367,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -3332,7 +3388,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -3353,7 +3409,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -3374,7 +3430,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -3395,7 +3451,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -3416,7 +3472,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -3437,7 +3493,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -3458,7 +3514,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -3497,24 +3553,24 @@
       <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.4">
+      <c r="A1" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
@@ -3531,7 +3587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -3552,7 +3608,7 @@
         <v>0.93342783709138</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3573,7 +3629,7 @@
         <v>0.98142897589386802</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3594,7 +3650,7 @@
         <v>0.99254105839416051</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -3615,7 +3671,7 @@
         <v>0.99254105839416051</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3636,7 +3692,7 @@
         <v>0.98743566479432654</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3657,7 +3713,7 @@
         <v>0.99254105839416051</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3678,7 +3734,7 @@
         <v>0.9381888723275893</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -3699,7 +3755,7 @@
         <v>0.97280700799135544</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>16</v>
       </c>
@@ -3720,7 +3776,7 @@
         <v>0.9381888723275893</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
@@ -3741,7 +3797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -3762,7 +3818,7 @@
         <v>0.97963138493944213</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -3783,7 +3839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3804,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3825,7 +3881,7 @@
         <v>0.98945470728207363</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -3846,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -3867,7 +3923,7 @@
         <v>0.92121459900134073</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -3888,7 +3944,7 @@
         <v>0.93168869309838476</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>14</v>
       </c>
@@ -3909,7 +3965,7 @@
         <v>0.52585673349700923</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>15</v>
       </c>
@@ -3930,7 +3986,7 @@
         <v>0.97499191563499832</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -3951,7 +4007,7 @@
         <v>0.98916909853794277</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -3972,7 +4028,7 @@
         <v>0.99486998898126011</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -3993,7 +4049,7 @@
         <v>0.98538636911158961</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -4014,7 +4070,7 @@
         <v>0.99002149103971482</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
@@ -4035,7 +4091,7 @@
         <v>0.99316437262751078</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -4056,7 +4112,7 @@
         <v>0.81605696514016346</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -4077,7 +4133,7 @@
         <v>0.98871852244004577</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>15</v>
       </c>
@@ -4098,7 +4154,7 @@
         <v>0.77626543414849702</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>4</v>
       </c>
@@ -4119,7 +4175,7 @@
         <v>0.92431635321792094</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -4140,7 +4196,7 @@
         <v>0.98897028735473957</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -4161,7 +4217,7 @@
         <v>0.98834313662151152</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -4182,7 +4238,7 @@
         <v>0.96705553340674377</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -4203,7 +4259,7 @@
         <v>0.96832273162612936</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -4224,7 +4280,7 @@
         <v>0.98633392132871511</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -4245,7 +4301,7 @@
         <v>0.85548863352160343</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -4266,7 +4322,7 @@
         <v>0.98703726630069166</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>4</v>
       </c>
@@ -4287,7 +4343,7 @@
         <v>0.85016561387674594</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="s">
         <v>20</v>
       </c>
@@ -4308,7 +4364,7 @@
         <v>0.96198609045048045</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
@@ -4329,7 +4385,7 @@
         <v>0.99382000824292438</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -4350,7 +4406,7 @@
         <v>0.99197121344212535</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -4371,7 +4427,7 @@
         <v>0.98576496472925412</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -4392,7 +4448,7 @@
         <v>0.99153522929547155</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -4413,7 +4469,7 @@
         <v>0.99058216435555657</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -4434,7 +4490,7 @@
         <v>0.87536517239403921</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -4455,7 +4511,7 @@
         <v>0.99321064153036553</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>20</v>
       </c>
@@ -4476,7 +4532,7 @@
         <v>0.82063037762013002</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
         <v>17</v>
       </c>
@@ -4497,7 +4553,7 @@
         <v>0.92171002978625005</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>17</v>
       </c>
@@ -4518,7 +4574,7 @@
         <v>0.96766016902440921</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>17</v>
       </c>
@@ -4539,7 +4595,7 @@
         <v>0.98715748983331675</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
@@ -4560,7 +4616,7 @@
         <v>0.97137312983436241</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>17</v>
       </c>
@@ -4581,7 +4637,7 @@
         <v>0.96564818113584405</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>17</v>
       </c>
@@ -4602,7 +4658,7 @@
         <v>0.98615413351303938</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
@@ -4623,7 +4679,7 @@
         <v>0.81614304813724192</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>17</v>
       </c>
@@ -4644,7 +4700,7 @@
         <v>0.99062747502826054</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
         <v>17</v>
       </c>
@@ -4665,7 +4721,7 @@
         <v>0.8017889383227903</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="s">
         <v>8</v>
       </c>
@@ -4686,7 +4742,7 @@
         <v>0.91491242479773871</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -4707,7 +4763,7 @@
         <v>0.98614668783411374</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -4728,7 +4784,7 @@
         <v>0.98846460022921379</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -4749,7 +4805,7 @@
         <v>0.97801665665891335</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -4770,7 +4826,7 @@
         <v>0.97938272361722756</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -4791,7 +4847,7 @@
         <v>0.98468794106606472</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -4812,7 +4868,7 @@
         <v>0.85048694279360326</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -4833,7 +4889,7 @@
         <v>0.99131757407630161</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
         <v>8</v>
       </c>
@@ -4854,7 +4910,7 @@
         <v>0.85048694279360326</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="23" t="s">
         <v>5</v>
       </c>
@@ -4875,7 +4931,7 @@
         <v>0.96239078659640898</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -4896,7 +4952,7 @@
         <v>0.99475732424626429</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -4917,7 +4973,7 @@
         <v>0.99835895351950787</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -4938,7 +4994,7 @@
         <v>0.99275511386664239</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -4959,7 +5015,7 @@
         <v>0.99108386122525394</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -4980,7 +5036,7 @@
         <v>0.99475732424626429</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
@@ -5001,7 +5057,7 @@
         <v>0.82361801283346525</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -5022,7 +5078,7 @@
         <v>0.99475732424626429</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>5</v>
       </c>
@@ -5043,7 +5099,7 @@
         <v>0.82414337994265474</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="s">
         <v>7</v>
       </c>
@@ -5064,7 +5120,7 @@
         <v>0.89229655899751925</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -5085,7 +5141,7 @@
         <v>0.9660568874430101</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
@@ -5106,7 +5162,7 @@
         <v>0.9577696454973843</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>7</v>
       </c>
@@ -5127,7 +5183,7 @@
         <v>0.9660568874430101</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>7</v>
       </c>
@@ -5148,7 +5204,7 @@
         <v>0.9567341492904996</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
@@ -5169,7 +5225,7 @@
         <v>0.9660568874430101</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
@@ -5190,7 +5246,7 @@
         <v>0.89042048439629262</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>7</v>
       </c>
@@ -5211,7 +5267,7 @@
         <v>0.9660568874430101</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="24" t="s">
         <v>7</v>
       </c>
@@ -5232,7 +5288,7 @@
         <v>0.89042048439629262</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="23" t="s">
         <v>12</v>
       </c>
@@ -5253,7 +5309,7 @@
         <v>0.91640477464424985</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>12</v>
       </c>
@@ -5274,7 +5330,7 @@
         <v>0.98183550520608875</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -5295,7 +5351,7 @@
         <v>0.98528676458249154</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
@@ -5316,7 +5372,7 @@
         <v>0.9634590798090622</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -5337,7 +5393,7 @@
         <v>0.98108671467625141</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
@@ -5358,7 +5414,7 @@
         <v>0.9762370260908031</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>12</v>
       </c>
@@ -5379,7 +5435,7 @@
         <v>0.91282094856419826</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>12</v>
       </c>
@@ -5400,7 +5456,7 @@
         <v>0.98727180486467481</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="24" t="s">
         <v>12</v>
       </c>
@@ -5421,7 +5477,7 @@
         <v>0.91282094856419826</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="s">
         <v>9</v>
       </c>
@@ -5442,7 +5498,7 @@
         <v>0.96122209165687411</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>9</v>
       </c>
@@ -5463,7 +5519,7 @@
         <v>0.97961697543188164</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
@@ -5484,7 +5540,7 @@
         <v>0.97643466086144881</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>9</v>
       </c>
@@ -5505,7 +5561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
@@ -5526,7 +5582,7 @@
         <v>0.97961697543188164</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
@@ -5547,7 +5603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>9</v>
       </c>
@@ -5568,7 +5624,7 @@
         <v>0.64080832382946129</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>9</v>
       </c>
@@ -5589,7 +5645,7 @@
         <v>0.97643466086144881</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="24" t="s">
         <v>9</v>
       </c>
@@ -5610,7 +5666,7 @@
         <v>0.64080832382946129</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="23" t="s">
         <v>6</v>
       </c>
@@ -5631,7 +5687,7 @@
         <v>0.89778791725507401</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>6</v>
       </c>
@@ -5652,7 +5708,7 @@
         <v>0.96752432456959747</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>6</v>
       </c>
@@ -5673,7 +5729,7 @@
         <v>0.94464249007298773</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>6</v>
       </c>
@@ -5694,7 +5750,7 @@
         <v>0.97637205875436972</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>6</v>
       </c>
@@ -5715,7 +5771,7 @@
         <v>0.90851454110602192</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>6</v>
       </c>
@@ -5736,7 +5792,7 @@
         <v>0.97637205875436972</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>6</v>
       </c>
@@ -5757,7 +5813,7 @@
         <v>0.8169378698224854</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>6</v>
       </c>
@@ -5778,7 +5834,7 @@
         <v>0.95070615658850921</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="24" t="s">
         <v>6</v>
       </c>
@@ -5799,7 +5855,7 @@
         <v>0.8169378698224854</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="23" t="s">
         <v>19</v>
       </c>
@@ -5820,7 +5876,7 @@
         <v>0.93743665785724206</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>19</v>
       </c>
@@ -5841,7 +5897,7 @@
         <v>0.97286426789261193</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>19</v>
       </c>
@@ -5862,7 +5918,7 @@
         <v>0.98679580934736344</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>19</v>
       </c>
@@ -5883,7 +5939,7 @@
         <v>0.97691381615327322</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>19</v>
       </c>
@@ -5904,7 +5960,7 @@
         <v>0.97192684674819696</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>19</v>
       </c>
@@ -5925,7 +5981,7 @@
         <v>0.98603599623958682</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>19</v>
       </c>
@@ -5946,7 +6002,7 @@
         <v>0.77629128560739868</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>19</v>
       </c>
@@ -5967,7 +6023,7 @@
         <v>0.98936080295385254</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="24" t="s">
         <v>19</v>
       </c>
@@ -5988,7 +6044,7 @@
         <v>0.7765653324345565</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="23" t="s">
         <v>10</v>
       </c>
@@ -6009,7 +6065,7 @@
         <v>0.96005973711686565</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>10</v>
       </c>
@@ -6030,7 +6086,7 @@
         <v>0.98890572330559889</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>10</v>
       </c>
@@ -6051,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>10</v>
       </c>
@@ -6072,7 +6128,7 @@
         <v>0.98678761331293874</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>10</v>
       </c>
@@ -6093,7 +6149,7 @@
         <v>0.9873571748624258</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>10</v>
       </c>
@@ -6114,7 +6170,7 @@
         <v>0.9965384094072971</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>10</v>
       </c>
@@ -6135,7 +6191,7 @@
         <v>0.85060393827230385</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
@@ -6156,7 +6212,7 @@
         <v>0.98786282347320298</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="24" t="s">
         <v>10</v>
       </c>
@@ -6177,7 +6233,7 @@
         <v>0.81136396694210688</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="23" t="s">
         <v>11</v>
       </c>
@@ -6198,7 +6254,7 @@
         <v>0.94421131295178096</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>11</v>
       </c>
@@ -6219,7 +6275,7 @@
         <v>0.98882446624292764</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
@@ -6240,7 +6296,7 @@
         <v>0.99489049248364869</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>11</v>
       </c>
@@ -6261,7 +6317,7 @@
         <v>0.98432310695684699</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>11</v>
       </c>
@@ -6282,7 +6338,7 @@
         <v>0.97714184851486474</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>11</v>
       </c>
@@ -6303,7 +6359,7 @@
         <v>0.99302603186081362</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>11</v>
       </c>
@@ -6324,7 +6380,7 @@
         <v>0.80488224478401083</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
@@ -6345,7 +6401,7 @@
         <v>0.99105926706221448</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="24" t="s">
         <v>11</v>
       </c>
@@ -6366,7 +6422,7 @@
         <v>0.80505420565915642</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="23" t="s">
         <v>18</v>
       </c>
@@ -6387,7 +6443,7 @@
         <v>0.9548921682757836</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>18</v>
       </c>
@@ -6408,7 +6464,7 @@
         <v>0.9806545067282787</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>18</v>
       </c>
@@ -6429,7 +6485,7 @@
         <v>0.99460171405111342</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>18</v>
       </c>
@@ -6450,7 +6506,7 @@
         <v>0.95084223252771638</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>18</v>
       </c>
@@ -6471,7 +6527,7 @@
         <v>0.95670303502576992</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>18</v>
       </c>
@@ -6492,7 +6548,7 @@
         <v>0.97043400049102846</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>18</v>
       </c>
@@ -6513,7 +6569,7 @@
         <v>0.81789138020937768</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>18</v>
       </c>
@@ -6534,7 +6590,7 @@
         <v>0.95616610771904142</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="24" t="s">
         <v>18</v>
       </c>
@@ -6555,7 +6611,7 @@
         <v>0.77439999999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="23" t="s">
         <v>13</v>
       </c>
@@ -6576,7 +6632,7 @@
         <v>0.91476528625700393</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>13</v>
       </c>
@@ -6597,7 +6653,7 @@
         <v>0.93961544570870492</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>13</v>
       </c>
@@ -6618,7 +6674,7 @@
         <v>0.95834112119603532</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>13</v>
       </c>
@@ -6639,7 +6695,7 @@
         <v>0.94753384827890708</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>13</v>
       </c>
@@ -6660,7 +6716,7 @@
         <v>0.932388471632563</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>13</v>
       </c>
@@ -6681,7 +6737,7 @@
         <v>0.93680233404510715</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>13</v>
       </c>
@@ -6702,7 +6758,7 @@
         <v>0.84748376126939884</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>13</v>
       </c>
@@ -6723,7 +6779,7 @@
         <v>0.9522372210146135</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="24" t="s">
         <v>13</v>
       </c>
@@ -6744,7 +6800,7 @@
         <v>0.81965971713983221</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="23" t="s">
         <v>21</v>
       </c>
@@ -6765,7 +6821,7 @@
         <v>0.96351497910408401</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>21</v>
       </c>
@@ -6786,7 +6842,7 @@
         <v>0.99711382965979867</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>21</v>
       </c>
@@ -6807,7 +6863,7 @@
         <v>0.9932262032858914</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>21</v>
       </c>
@@ -6828,7 +6884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>21</v>
       </c>
@@ -6849,7 +6905,7 @@
         <v>0.99314376869489918</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>21</v>
       </c>
@@ -6870,7 +6926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>21</v>
       </c>
@@ -6891,7 +6947,7 @@
         <v>0.78105198526807462</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>21</v>
       </c>
@@ -6912,7 +6968,7 @@
         <v>0.98472982708327028</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="24" t="s">
         <v>21</v>
       </c>
@@ -6951,42 +7007,42 @@
       <selection activeCell="B22" sqref="B22:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="G1" s="37" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="G1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="M1" s="37" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="M1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7023,15 +7079,15 @@
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -7078,7 +7134,7 @@
         <v>0.8727243452125375</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -7125,7 +7181,7 @@
         <v>0.94075163398692807</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -7172,35 +7228,35 @@
         <v>0.92877816627816634</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="34">
         <v>0.98474358974358966</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="34">
         <v>0.89142857142857146</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="34">
         <v>0.81666666666666665</v>
       </c>
-      <c r="E6" s="44">
-        <v>1</v>
-      </c>
-      <c r="G6" s="43" t="s">
+      <c r="E6" s="34">
+        <v>1</v>
+      </c>
+      <c r="G6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="34">
         <v>0.98974358974358978</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="34">
         <v>0.86666666666666659</v>
       </c>
-      <c r="J6" s="44">
-        <v>1</v>
-      </c>
-      <c r="K6" s="44">
+      <c r="J6" s="34">
+        <v>1</v>
+      </c>
+      <c r="K6" s="34">
         <v>0.8</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -7219,7 +7275,7 @@
         <v>0.93029331779331792</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -7266,7 +7322,7 @@
         <v>0.92328224377020118</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -7313,7 +7369,7 @@
         <v>0.90674048174048172</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -7360,7 +7416,7 @@
         <v>0.92949640287769797</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -7407,35 +7463,35 @@
         <v>0.92057008192122092</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="43" t="s">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="34">
         <v>0.99299589603283178</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="34">
         <v>0.93142857142857127</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="34">
         <v>0.93333333333333324</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="34">
         <v>0.95</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="34">
         <v>0.98823464269428707</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="34">
         <v>0.8571428571428571</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="34">
         <v>0.88333333333333319</v>
       </c>
-      <c r="K11" s="44">
+      <c r="K11" s="34">
         <v>0.85</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -7454,7 +7510,7 @@
         <v>0.95059434621915884</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -7501,7 +7557,7 @@
         <v>0.93925925925925924</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -7548,7 +7604,7 @@
         <v>0.93595744680851067</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -7595,7 +7651,7 @@
         <v>0.93129770992366423</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -7642,7 +7698,7 @@
         <v>0.96538314176245199</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -7689,7 +7745,7 @@
         <v>0.9207496352822353</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -7736,7 +7792,7 @@
         <v>0.87643363728470125</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -7783,35 +7839,35 @@
         <v>0.92742919389978229</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="34">
         <v>0.9909632841078444</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="34">
         <v>0.95382269503546091</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="34">
         <v>0.92031239935587761</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="34">
         <v>0.99090909090909096</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="34">
         <v>0.98851104186424599</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="34">
         <v>0.94562199235649746</v>
       </c>
-      <c r="J19" s="44">
+      <c r="J19" s="34">
         <v>0.91041666666666676</v>
       </c>
-      <c r="K19" s="44">
+      <c r="K19" s="34">
         <v>0.9913043478260869</v>
       </c>
       <c r="M19" s="1" t="s">
@@ -7830,7 +7886,7 @@
         <v>0.93150739704118346</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -7877,9 +7933,9 @@
         <v>0.93585105257590173</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
-        <v>72</v>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="32" t="s">
+        <v>67</v>
       </c>
       <c r="B21">
         <v>0.99397400000000002</v>
@@ -7893,8 +7949,8 @@
       <c r="E21">
         <v>0.99272700000000003</v>
       </c>
-      <c r="G21" s="42" t="s">
-        <v>72</v>
+      <c r="G21" s="32" t="s">
+        <v>67</v>
       </c>
       <c r="H21">
         <v>0.99503900000000001</v>
@@ -7909,9 +7965,9 @@
         <v>0.99636400000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B22">
         <v>0.99568299999999998</v>
@@ -7926,7 +7982,7 @@
         <v>0.98443099999999994</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H22">
         <v>0.99607900000000005</v>
@@ -7940,15 +7996,15 @@
       <c r="K22">
         <v>0.97981499999999999</v>
       </c>
-      <c r="M22" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M22" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
@@ -8004,7 +8060,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -8063,7 +8119,7 @@
         <v>-3.0769230769230882E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -8122,7 +8178,7 @@
         <v>-1.1764705882352899E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -8181,7 +8237,7 @@
         <v>-2.222222222222214E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
@@ -8262,25 +8318,25 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.4">
+      <c r="A1" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8294,7 +8350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -8310,15 +8366,15 @@
       <c r="E3">
         <v>0.97312299999999996</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -8335,7 +8391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
@@ -8352,25 +8408,25 @@
         <v>0.97692299999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.4">
+      <c r="A9" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -8392,7 +8448,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -8409,7 +8465,7 @@
         <v>0.98260899999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -8426,7 +8482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -8443,31 +8499,31 @@
         <v>0.99230799999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
     </row>
   </sheetData>
@@ -8489,26 +8545,26 @@
       <selection activeCell="C3" sqref="C3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:13" s="3" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="2:13" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="22"/>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-    </row>
-    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -8537,7 +8593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
@@ -8574,7 +8630,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
@@ -8611,7 +8667,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>53</v>
       </c>
@@ -8648,14 +8704,14 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -8673,365 +8729,399 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0D92E8-BE8B-7042-85EF-6FE2473B88F2}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B1" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="55"/>
+    </row>
+    <row r="3" spans="2:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="B3" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="G3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="H3" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="J3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" s="3" t="s">
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="58"/>
+      <c r="C4" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0.9909632841078444</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0.95382269503546091</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0.92031239935587761</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0.99090909090909096</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>0.99343599999999999</v>
+      </c>
+      <c r="J4">
+        <v>0.96574899999999997</v>
+      </c>
+      <c r="K4">
+        <v>0.95060900000000004</v>
+      </c>
+      <c r="L4">
+        <v>0.98260899999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="58"/>
+      <c r="C5" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0.99397400000000002</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0.97008700000000003</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0.94891300000000001</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0.99272700000000003</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5">
+        <v>0.99292000000000002</v>
+      </c>
+      <c r="J5">
+        <v>0.96574899999999997</v>
+      </c>
+      <c r="K5">
+        <v>0.93517300000000003</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="58"/>
+      <c r="C6" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6">
+        <v>0.99568299999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.98293200000000003</v>
+      </c>
+      <c r="F6">
+        <v>0.98222699999999996</v>
+      </c>
+      <c r="G6">
+        <v>0.98443099999999994</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6">
+        <v>0.99803900000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.99230499999999999</v>
+      </c>
+      <c r="K6">
+        <v>0.99259299999999995</v>
+      </c>
+      <c r="L6">
+        <v>0.99230799999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="31" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="1" t="s">
+      <c r="I7" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="60"/>
+      <c r="C8" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="18">
-        <v>0.9909632841078444</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0.95382269503546091</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0.92031239935587761</v>
-      </c>
-      <c r="F3" s="52">
-        <v>0.99090909090909096</v>
-      </c>
-      <c r="G3" s="47" t="s">
+      <c r="D8" s="18">
+        <v>0.99343599999999999</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0.96574899999999997</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0.95060900000000004</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0.98260899999999995</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3">
-        <v>0.99343599999999999</v>
-      </c>
-      <c r="I3">
-        <v>0.96574899999999997</v>
-      </c>
-      <c r="J3">
-        <v>0.95060900000000004</v>
-      </c>
-      <c r="K3">
-        <v>0.98260899999999995</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="N3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>89</v>
-      </c>
-      <c r="R3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0.99397400000000002</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0.97008700000000003</v>
-      </c>
-      <c r="E4" s="18">
-        <v>0.94891300000000001</v>
-      </c>
-      <c r="F4" s="52">
-        <v>0.99272700000000003</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4">
-        <v>0.99292000000000002</v>
-      </c>
-      <c r="I4">
-        <v>0.96574899999999997</v>
-      </c>
-      <c r="J4">
-        <v>0.93517300000000003</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="N4" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>89</v>
-      </c>
-      <c r="R4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="45"/>
-      <c r="B5" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5">
-        <v>0.99568299999999998</v>
-      </c>
-      <c r="D5">
-        <v>0.98293200000000003</v>
-      </c>
-      <c r="E5">
-        <v>0.98222699999999996</v>
-      </c>
-      <c r="F5">
-        <v>0.98443099999999994</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5">
-        <v>0.99803900000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.99230499999999999</v>
-      </c>
-      <c r="J5">
-        <v>0.99259299999999995</v>
-      </c>
-      <c r="K5">
-        <v>0.99230799999999997</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="18">
-        <v>0.99343599999999999</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0.96574899999999997</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0.95060900000000004</v>
-      </c>
-      <c r="F7" s="52">
-        <v>0.98260899999999995</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="18">
-        <v>0.99292000000000002</v>
-      </c>
-      <c r="D8" s="18">
-        <v>0.96574899999999997</v>
-      </c>
-      <c r="E8" s="18">
-        <v>0.93517300000000003</v>
-      </c>
-      <c r="F8" s="52">
-        <v>1</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="18">
-        <v>0.99803900000000001</v>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="60"/>
+      <c r="C9" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="D9" s="18">
-        <v>0.99230499999999999</v>
+        <v>0.99292000000000002</v>
       </c>
       <c r="E9" s="18">
-        <v>0.99259299999999995</v>
-      </c>
-      <c r="F9" s="52">
-        <v>0.99230799999999997</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="18"/>
+        <v>0.96574899999999997</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0.93517300000000003</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="61"/>
+      <c r="C10" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0.99803900000000001</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0.99230499999999999</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0.99259299999999995</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0.99230799999999997</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/summary/performances.xlsx
+++ b/summary/performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canakoglu/GMQL-sources/CIBB2018/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{372FA923-4C9B-0845-9494-0A7132611FC8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{45C7BF39-EBC4-4C47-B6B9-269E9B28B2C4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCGA_info" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="96">
   <si>
     <t>accuracy</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>5-CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> calculate LUNG AND KIDNEY</t>
+  </si>
+  <si>
+    <t>TL against NN</t>
   </si>
 </sst>
 </file>
@@ -820,7 +826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -885,6 +891,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -915,33 +939,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -956,6 +953,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2813,14 +2828,14 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3549,8 +3564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5BAE2A-9A59-4090-92C4-B579FFF4B317}">
   <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3561,14 +3576,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -7003,8 +7018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="95" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:E22"/>
+    <sheetView zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" activeCellId="2" sqref="A19:XFD19 A11:XFD11 A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7020,27 +7035,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="G1" s="42" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="G1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="M1" s="42" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="M1" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -7079,13 +7094,13 @@
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="S2" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -7996,13 +8011,13 @@
       <c r="K22">
         <v>0.97981499999999999</v>
       </c>
-      <c r="M22" s="45" t="s">
+      <c r="M22" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
@@ -8328,13 +8343,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -8366,13 +8381,13 @@
       <c r="E3">
         <v>0.97312299999999996</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -8418,13 +8433,13 @@
       <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.4">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
@@ -8548,21 +8563,21 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:13" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
       <c r="G1" s="22"/>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="2" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
@@ -8705,11 +8720,11 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C15" s="20"/>
@@ -8729,10 +8744,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0D92E8-BE8B-7042-85EF-6FE2473B88F2}">
-  <dimension ref="B1:L22"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8750,28 +8765,28 @@
     <col min="19" max="19" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="53" t="s">
+    <row r="1" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="53" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
-    </row>
-    <row r="3" spans="2:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="B3" s="57" t="s">
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
+    </row>
+    <row r="3" spans="2:14" ht="30" x14ac:dyDescent="0.2">
+      <c r="B3" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="43" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="23" t="s">
@@ -8783,10 +8798,10 @@
       <c r="F3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="41" t="s">
         <v>89</v>
       </c>
       <c r="I3" s="23" t="s">
@@ -8802,8 +8817,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="58"/>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="55"/>
       <c r="C4" s="35" t="s">
         <v>20</v>
       </c>
@@ -8835,8 +8850,8 @@
         <v>0.98260899999999995</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="58"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="55"/>
       <c r="C5" s="35" t="s">
         <v>46</v>
       </c>
@@ -8868,8 +8883,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="58"/>
+    <row r="6" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="55"/>
       <c r="C6" s="36" t="s">
         <v>49</v>
       </c>
@@ -8901,11 +8916,11 @@
         <v>0.99230799999999997</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="31" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="59" t="s">
+    <row r="7" spans="2:14" ht="31" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="38" t="s">
         <v>90</v>
       </c>
       <c r="D7" s="37" t="s">
@@ -8917,10 +8932,10 @@
       <c r="F7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="40" t="s">
         <v>79</v>
       </c>
       <c r="I7" s="37" t="s">
@@ -8936,8 +8951,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="60"/>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="57"/>
       <c r="C8" s="35" t="s">
         <v>20</v>
       </c>
@@ -8961,8 +8976,8 @@
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="60"/>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="57"/>
       <c r="C9" s="35" t="s">
         <v>46</v>
       </c>
@@ -8986,8 +9001,8 @@
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
     </row>
-    <row r="10" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="61"/>
+    <row r="10" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="58"/>
       <c r="C10" s="36" t="s">
         <v>49</v>
       </c>
@@ -9011,117 +9026,396 @@
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+    <row r="11" spans="2:14" ht="26" x14ac:dyDescent="0.2">
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="2:14" ht="26" x14ac:dyDescent="0.2">
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="2:14" ht="26" x14ac:dyDescent="0.3">
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="34">
+        <v>0.98851104186424599</v>
+      </c>
+      <c r="J15" s="34">
+        <v>0.94562199235649746</v>
+      </c>
+      <c r="K15" s="34">
+        <v>0.91041666666666676</v>
+      </c>
+      <c r="L15" s="34">
+        <v>0.9913043478260869</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16">
+        <v>0.99503900000000001</v>
+      </c>
+      <c r="J16">
+        <v>0.97575999999999996</v>
+      </c>
+      <c r="K16">
+        <v>0.95708099999999996</v>
+      </c>
+      <c r="L16">
+        <v>0.99636400000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17">
+        <v>0.99607900000000005</v>
+      </c>
+      <c r="J17">
+        <v>0.98426599999999997</v>
+      </c>
+      <c r="K17">
+        <v>0.98945899999999998</v>
+      </c>
+      <c r="L17">
+        <v>0.97981499999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B20" t="s">
         <v>74</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C20" t="s">
         <v>75</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D20" t="s">
         <v>81</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E20" t="s">
         <v>83</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
+      <c r="I20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B21" t="s">
         <v>74</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C21" t="s">
         <v>75</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D21" t="s">
         <v>81</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E21" t="s">
         <v>83</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F21" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
+      <c r="H21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21">
+        <v>0.95300614189585864</v>
+      </c>
+      <c r="J21">
+        <v>0.95747506139428284</v>
+      </c>
+      <c r="K21">
+        <f>(J21*L21)/(2*L21-J21)</f>
+        <v>0.96198609045048045</v>
+      </c>
+      <c r="L21">
+        <v>0.95300614189585864</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B22" t="s">
         <v>91</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C22" t="s">
         <v>75</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D22" t="s">
         <v>93</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E22" t="s">
         <v>83</v>
       </c>
-      <c r="G19" t="s">
+      <c r="F22" s="64" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
+      <c r="H22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22">
+        <v>0.99342218759878964</v>
+      </c>
+      <c r="J22">
+        <v>0.99362105810153722</v>
+      </c>
+      <c r="K22">
+        <f>(J22*L22)/(2*L22-J22)</f>
+        <v>0.99382000824292438</v>
+      </c>
+      <c r="L22">
+        <v>0.99342218759878964</v>
+      </c>
+      <c r="N22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B23" t="s">
         <v>91</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C23" t="s">
         <v>75</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D23" t="s">
         <v>93</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E23" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
+      <c r="H23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="34">
+        <v>0.9917556338346204</v>
+      </c>
+      <c r="J23">
+        <v>0.99186341192441962</v>
+      </c>
+      <c r="K23">
+        <f>(J23*L23)/(2*L23-J23)</f>
+        <v>0.99197121344212535</v>
+      </c>
+      <c r="L23">
+        <v>0.9917556338346204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24">
+        <v>0.9859496229056588</v>
+      </c>
+      <c r="J24">
+        <v>0.98585728517050464</v>
+      </c>
+      <c r="K24">
+        <f>(J24*L24)/(2*L24-J24)</f>
+        <v>0.98576496472925412</v>
+      </c>
+      <c r="L24">
+        <v>0.9859496229056588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+      <c r="H25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25">
+        <v>0.9917760691866504</v>
+      </c>
+      <c r="J25">
+        <v>0.99165563461807837</v>
+      </c>
+      <c r="K25">
+        <f>(J25*L25)/(2*L25-J25)</f>
+        <v>0.99153522929547155</v>
+      </c>
+      <c r="L25">
+        <v>0.9917760691866504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26">
+        <v>0.99090863929910145</v>
+      </c>
+      <c r="J26">
+        <v>0.99074537493195092</v>
+      </c>
+      <c r="K26">
+        <f>(J26*L26)/(2*L26-J26)</f>
+        <v>0.99058216435555657</v>
+      </c>
+      <c r="L26">
+        <v>0.99090863929910145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27">
+        <v>0.92319830194643915</v>
+      </c>
+      <c r="J27">
+        <v>0.89864567168925424</v>
+      </c>
+      <c r="K27">
+        <f>(J27*L27)/(2*L27-J27)</f>
+        <v>0.87536517239403921</v>
+      </c>
+      <c r="L27">
+        <v>0.92319830194643915</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28">
+        <v>0.99336754279004658</v>
+      </c>
+      <c r="J28">
+        <v>0.99328908596412335</v>
+      </c>
+      <c r="K28">
+        <f>(J28*L28)/(2*L28-J28)</f>
+        <v>0.99321064153036553</v>
+      </c>
+      <c r="L28">
+        <v>0.99336754279004658</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="25">
+        <v>0.90588301043219077</v>
+      </c>
+      <c r="J29" s="25">
+        <v>0.86115187067185472</v>
+      </c>
+      <c r="K29" s="25">
+        <f>(J29*L29)/(2*L29-J29)</f>
+        <v>0.82063037762013002</v>
+      </c>
+      <c r="L29" s="25">
+        <v>0.90588301043219077</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/summary/performances.xlsx
+++ b/summary/performances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canakoglu/GMQL-sources/CIBB2018/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{45C7BF39-EBC4-4C47-B6B9-269E9B28B2C4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DF86C58F-BFFF-0B4C-B337-56AB2CF4D2BE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCGA_info" sheetId="3" r:id="rId1"/>
@@ -909,6 +909,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -962,15 +971,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2828,14 +2828,14 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3576,14 +3576,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -7035,27 +7035,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="G1" s="48" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="G1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="M1" s="48" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="M1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -7094,13 +7094,13 @@
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="50" t="s">
+      <c r="S2" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -8011,13 +8011,13 @@
       <c r="K22">
         <v>0.97981499999999999</v>
       </c>
-      <c r="M22" s="51" t="s">
+      <c r="M22" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
@@ -8343,13 +8343,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -8381,13 +8381,13 @@
       <c r="E3">
         <v>0.97312299999999996</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -8433,13 +8433,13 @@
       <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.4">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
@@ -8563,21 +8563,21 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:13" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
       <c r="G1" s="22"/>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
@@ -8720,11 +8720,11 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C15" s="20"/>
@@ -8747,7 +8747,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I4" sqref="I4:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8767,23 +8767,23 @@
   <sheetData>
     <row r="1" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="59" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="64"/>
     </row>
     <row r="3" spans="2:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="57" t="s">
         <v>86</v>
       </c>
       <c r="C3" s="43" t="s">
@@ -8818,7 +8818,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="55"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="35" t="s">
         <v>20</v>
       </c>
@@ -8838,20 +8838,20 @@
         <v>20</v>
       </c>
       <c r="I4">
-        <v>0.99343599999999999</v>
+        <v>0.989326765188834</v>
       </c>
       <c r="J4">
-        <v>0.96574899999999997</v>
+        <v>0.94420600858369097</v>
       </c>
       <c r="K4">
-        <v>0.95060900000000004</v>
+        <v>0.92436974789915904</v>
       </c>
       <c r="L4">
-        <v>0.98260899999999995</v>
+        <v>0.96491228070175405</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="55"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="35" t="s">
         <v>46</v>
       </c>
@@ -8870,21 +8870,21 @@
       <c r="H5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I5">
-        <v>0.99292000000000002</v>
-      </c>
-      <c r="J5">
-        <v>0.96574899999999997</v>
-      </c>
-      <c r="K5">
-        <v>0.93517300000000003</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
+      <c r="I5" s="18">
+        <v>0.99019607843137203</v>
+      </c>
+      <c r="J5" s="18">
+        <v>0.96212121212121204</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0.94074074074073999</v>
+      </c>
+      <c r="L5" s="19">
+        <v>0.98449612403100695</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="55"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="36" t="s">
         <v>49</v>
       </c>
@@ -8903,21 +8903,21 @@
       <c r="H6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I6">
-        <v>0.99803900000000001</v>
-      </c>
-      <c r="J6">
-        <v>0.99230499999999999</v>
-      </c>
-      <c r="K6">
-        <v>0.99259299999999995</v>
-      </c>
-      <c r="L6">
-        <v>0.99230799999999997</v>
+      <c r="I6" s="18">
+        <v>0.98317094774136404</v>
+      </c>
+      <c r="J6" s="18">
+        <v>0.92050209205020905</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0.85271317829457305</v>
+      </c>
+      <c r="L6" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="31" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="59" t="s">
         <v>87</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -8952,7 +8952,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="57"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="35" t="s">
         <v>20</v>
       </c>
@@ -8977,7 +8977,7 @@
       <c r="L8" s="18"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="57"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="35" t="s">
         <v>46</v>
       </c>
@@ -9002,7 +9002,7 @@
       <c r="L9" s="18"/>
     </row>
     <row r="10" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="58"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="36" t="s">
         <v>49</v>
       </c>
@@ -9027,45 +9027,45 @@
       <c r="L10" s="18"/>
     </row>
     <row r="11" spans="2:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="63"/>
+      <c r="H11" s="45"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
     </row>
     <row r="12" spans="2:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="63"/>
+      <c r="H12" s="45"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
     </row>
     <row r="13" spans="2:14" ht="26" x14ac:dyDescent="0.3">
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="48" t="s">
+      <c r="H13" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I14" s="1" t="s">
@@ -9221,7 +9221,7 @@
         <v>0.95747506139428284</v>
       </c>
       <c r="K21">
-        <f>(J21*L21)/(2*L21-J21)</f>
+        <f t="shared" ref="K21:K29" si="0">(J21*L21)/(2*L21-J21)</f>
         <v>0.96198609045048045</v>
       </c>
       <c r="L21">
@@ -9244,7 +9244,7 @@
       <c r="E22" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="46" t="s">
         <v>92</v>
       </c>
       <c r="H22" t="s">
@@ -9257,7 +9257,7 @@
         <v>0.99362105810153722</v>
       </c>
       <c r="K22">
-        <f>(J22*L22)/(2*L22-J22)</f>
+        <f t="shared" si="0"/>
         <v>0.99382000824292438</v>
       </c>
       <c r="L22">
@@ -9293,7 +9293,7 @@
         <v>0.99186341192441962</v>
       </c>
       <c r="K23">
-        <f>(J23*L23)/(2*L23-J23)</f>
+        <f t="shared" si="0"/>
         <v>0.99197121344212535</v>
       </c>
       <c r="L23">
@@ -9311,7 +9311,7 @@
         <v>0.98585728517050464</v>
       </c>
       <c r="K24">
-        <f>(J24*L24)/(2*L24-J24)</f>
+        <f t="shared" si="0"/>
         <v>0.98576496472925412</v>
       </c>
       <c r="L24">
@@ -9330,7 +9330,7 @@
         <v>0.99165563461807837</v>
       </c>
       <c r="K25">
-        <f>(J25*L25)/(2*L25-J25)</f>
+        <f t="shared" si="0"/>
         <v>0.99153522929547155</v>
       </c>
       <c r="L25">
@@ -9348,7 +9348,7 @@
         <v>0.99074537493195092</v>
       </c>
       <c r="K26">
-        <f>(J26*L26)/(2*L26-J26)</f>
+        <f t="shared" si="0"/>
         <v>0.99058216435555657</v>
       </c>
       <c r="L26">
@@ -9366,7 +9366,7 @@
         <v>0.89864567168925424</v>
       </c>
       <c r="K27">
-        <f>(J27*L27)/(2*L27-J27)</f>
+        <f t="shared" si="0"/>
         <v>0.87536517239403921</v>
       </c>
       <c r="L27">
@@ -9384,7 +9384,7 @@
         <v>0.99328908596412335</v>
       </c>
       <c r="K28">
-        <f>(J28*L28)/(2*L28-J28)</f>
+        <f t="shared" si="0"/>
         <v>0.99321064153036553</v>
       </c>
       <c r="L28">
@@ -9402,7 +9402,7 @@
         <v>0.86115187067185472</v>
       </c>
       <c r="K29" s="25">
-        <f>(J29*L29)/(2*L29-J29)</f>
+        <f t="shared" si="0"/>
         <v>0.82063037762013002</v>
       </c>
       <c r="L29" s="25">

--- a/summary/performances.xlsx
+++ b/summary/performances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canakoglu/GMQL-sources/CIBB2018/summary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucan\OneDrive - Politecnico di Milano\PhD\progetti\CIBB2018\summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DF86C58F-BFFF-0B4C-B337-56AB2CF4D2BE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BE1814-BCC0-4133-842B-6546D98E0ACF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16236" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCGA_info" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Classical ML'!$A$2:$F$164</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TCGA_info!$A$2:$F$35</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -974,8 +974,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -993,7 +993,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1074,7 +1074,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1759,7 +1759,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="460990440"/>
@@ -1818,7 +1818,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="460991752"/>
@@ -1860,7 +1860,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1890,7 +1890,2139 @@
       <a:pPr>
         <a:defRPr sz="1400"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Merged table'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transfer
+Learning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUAD+LUSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KIRC+KIRP+KICH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merged table'!$D$4:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.9909632841078444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99397400000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99568299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-DF54-4DF6-AE17-39DCCDE510CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Merged table'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ladder
+Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUAD+LUSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KIRC+KIRP+KICH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merged table'!$I$4:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.989326765188834</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99019607843137203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98317094774136404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-DF54-4DF6-AE17-39DCCDE510CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Merged table'!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distance
+ Matrix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUAD+LUSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KIRC+KIRP+KICH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merged table'!$D$8:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.99343599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99292000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99803900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-DF54-4DF6-AE17-39DCCDE510CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Merged table'!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Autoencoder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUAD+LUSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KIRC+KIRP+KICH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merged table'!$I$8:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-DF54-4DF6-AE17-39DCCDE510CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="547956000"/>
+        <c:axId val="547957640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="547956000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547957640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="547957640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547956000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>f1-score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Merged table'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transfer
+Learning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUAD+LUSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KIRC+KIRP+KICH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merged table'!$E$4:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.95382269503546091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97008700000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98293200000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34CF-4D3A-A36C-8A38E3E8042D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Merged table'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ladder
+Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUAD+LUSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KIRC+KIRP+KICH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merged table'!$J$4:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.94420600858369097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96212121212121204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92050209205020905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-34CF-4D3A-A36C-8A38E3E8042D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Merged table'!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distance
+ Matrix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUAD+LUSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KIRC+KIRP+KICH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merged table'!$E$8:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.96574899999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96574899999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99230499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-34CF-4D3A-A36C-8A38E3E8042D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Merged table'!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Autoencoder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUAD+LUSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KIRC+KIRP+KICH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merged table'!$J$8:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-34CF-4D3A-A36C-8A38E3E8042D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="547956000"/>
+        <c:axId val="547957640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="547956000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547957640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="547957640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547956000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>precision</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Merged table'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transfer
+Learning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUAD+LUSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KIRC+KIRP+KICH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merged table'!$F$4:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.92031239935587761</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94891300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98222699999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42F9-4B2E-8B7B-909E1159D05D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Merged table'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ladder
+Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUAD+LUSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KIRC+KIRP+KICH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merged table'!$K$4:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.92436974789915904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94074074074073999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85271317829457305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-42F9-4B2E-8B7B-909E1159D05D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Merged table'!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distance
+ Matrix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUAD+LUSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KIRC+KIRP+KICH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merged table'!$F$8:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.95060900000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93517300000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99259299999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-42F9-4B2E-8B7B-909E1159D05D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Merged table'!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Autoencoder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUAD+LUSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KIRC+KIRP+KICH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merged table'!$K$8:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-42F9-4B2E-8B7B-909E1159D05D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="547956000"/>
+        <c:axId val="547957640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="547956000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547957640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="547957640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547956000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>recall</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Merged table'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transfer
+Learning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUAD+LUSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KIRC+KIRP+KICH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merged table'!$G$4:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.99090909090909096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99272700000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98443099999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6795-474A-AF60-A4490CBB64BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Merged table'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ladder
+Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUAD+LUSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KIRC+KIRP+KICH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merged table'!$L$4:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.96491228070175405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98449612403100695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6795-474A-AF60-A4490CBB64BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Merged table'!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distance
+ Matrix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUAD+LUSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KIRC+KIRP+KICH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merged table'!$G$8:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.98260899999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99230799999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6795-474A-AF60-A4490CBB64BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Merged table'!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Autoencoder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUAD+LUSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KIRC+KIRP+KICH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merged table'!$L$8:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6795-474A-AF60-A4490CBB64BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="547956000"/>
+        <c:axId val="547957640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="547956000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547957640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="547957640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547956000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1941,7 +4073,2179 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2485,6 +6789,136 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Gruppo 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49471DEE-121C-431C-BE23-5F517047E699}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="769620" y="7559040"/>
+          <a:ext cx="9616440" cy="6416040"/>
+          <a:chOff x="769620" y="7559040"/>
+          <a:chExt cx="9616440" cy="6416040"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="4" name="Grafico 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D677F0-17E0-47BB-9320-9A1516CBD69D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="769620" y="7566660"/>
+          <a:ext cx="4572000" cy="3017520"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="5" name="Grafico 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83C36CE6-D87F-421C-BAB9-68CC31E8D3D9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="5798820" y="7559040"/>
+          <a:ext cx="4572000" cy="3017520"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="6" name="Grafico 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D537FF2-207F-4888-AEFD-701D6C87F259}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="784860" y="10957560"/>
+          <a:ext cx="4572000" cy="3017520"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="7" name="Grafico 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{254ECF02-0E8F-4032-87E7-2B5E488AB6C0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="5814060" y="10949940"/>
+          <a:ext cx="4572000" cy="3017520"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2499,7 +6933,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2825,9 +7259,9 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="47" t="s">
         <v>45</v>
       </c>
@@ -2837,7 +7271,7 @@
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -2857,7 +7291,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -2878,7 +7312,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2899,7 +7333,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -2920,7 +7354,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -2941,7 +7375,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2962,7 +7396,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -2983,7 +7417,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -3004,7 +7438,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3025,7 +7459,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -3046,7 +7480,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -3067,7 +7501,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -3088,7 +7522,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -3109,7 +7543,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -3130,7 +7564,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -3151,7 +7585,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -3172,7 +7606,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -3193,7 +7627,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -3214,7 +7648,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -3235,7 +7669,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -3256,7 +7690,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -3277,7 +7711,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -3298,7 +7732,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -3319,7 +7753,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -3340,7 +7774,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -3361,7 +7795,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -3382,7 +7816,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -3403,7 +7837,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -3424,7 +7858,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -3445,7 +7879,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -3466,7 +7900,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -3487,7 +7921,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -3508,7 +7942,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -3529,7 +7963,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -3568,14 +8002,14 @@
       <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A1" s="49" t="s">
         <v>64</v>
       </c>
@@ -3585,7 +8019,7 @@
       <c r="E1" s="50"/>
       <c r="F1" s="50"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
@@ -3602,7 +8036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -3623,7 +8057,7 @@
         <v>0.93342783709138</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3644,7 +8078,7 @@
         <v>0.98142897589386802</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3665,7 +8099,7 @@
         <v>0.99254105839416051</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -3686,7 +8120,7 @@
         <v>0.99254105839416051</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3707,7 +8141,7 @@
         <v>0.98743566479432654</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3728,7 +8162,7 @@
         <v>0.99254105839416051</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3749,7 +8183,7 @@
         <v>0.9381888723275893</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -3770,7 +8204,7 @@
         <v>0.97280700799135544</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>16</v>
       </c>
@@ -3791,7 +8225,7 @@
         <v>0.9381888723275893</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
@@ -3812,7 +8246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -3833,7 +8267,7 @@
         <v>0.97963138493944213</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -3854,7 +8288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3875,7 +8309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3896,7 +8330,7 @@
         <v>0.98945470728207363</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -3917,7 +8351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -3938,7 +8372,7 @@
         <v>0.92121459900134073</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -3959,7 +8393,7 @@
         <v>0.93168869309838476</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
         <v>14</v>
       </c>
@@ -3980,7 +8414,7 @@
         <v>0.52585673349700923</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>15</v>
       </c>
@@ -4001,7 +8435,7 @@
         <v>0.97499191563499832</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -4022,7 +8456,7 @@
         <v>0.98916909853794277</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -4043,7 +8477,7 @@
         <v>0.99486998898126011</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -4064,7 +8498,7 @@
         <v>0.98538636911158961</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -4085,7 +8519,7 @@
         <v>0.99002149103971482</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
@@ -4106,7 +8540,7 @@
         <v>0.99316437262751078</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -4127,7 +8561,7 @@
         <v>0.81605696514016346</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -4148,7 +8582,7 @@
         <v>0.98871852244004577</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="24" t="s">
         <v>15</v>
       </c>
@@ -4169,7 +8603,7 @@
         <v>0.77626543414849702</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>4</v>
       </c>
@@ -4190,7 +8624,7 @@
         <v>0.92431635321792094</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -4211,7 +8645,7 @@
         <v>0.98897028735473957</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -4232,7 +8666,7 @@
         <v>0.98834313662151152</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -4253,7 +8687,7 @@
         <v>0.96705553340674377</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -4274,7 +8708,7 @@
         <v>0.96832273162612936</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -4295,7 +8729,7 @@
         <v>0.98633392132871511</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -4316,7 +8750,7 @@
         <v>0.85548863352160343</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -4337,7 +8771,7 @@
         <v>0.98703726630069166</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
         <v>4</v>
       </c>
@@ -4358,7 +8792,7 @@
         <v>0.85016561387674594</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
         <v>20</v>
       </c>
@@ -4379,7 +8813,7 @@
         <v>0.96198609045048045</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
@@ -4400,7 +8834,7 @@
         <v>0.99382000824292438</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -4421,7 +8855,7 @@
         <v>0.99197121344212535</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -4442,7 +8876,7 @@
         <v>0.98576496472925412</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -4463,7 +8897,7 @@
         <v>0.99153522929547155</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -4484,7 +8918,7 @@
         <v>0.99058216435555657</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -4505,7 +8939,7 @@
         <v>0.87536517239403921</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -4526,7 +8960,7 @@
         <v>0.99321064153036553</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="24" t="s">
         <v>20</v>
       </c>
@@ -4547,7 +8981,7 @@
         <v>0.82063037762013002</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
         <v>17</v>
       </c>
@@ -4568,7 +9002,7 @@
         <v>0.92171002978625005</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>17</v>
       </c>
@@ -4589,7 +9023,7 @@
         <v>0.96766016902440921</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>17</v>
       </c>
@@ -4610,7 +9044,7 @@
         <v>0.98715748983331675</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
@@ -4631,7 +9065,7 @@
         <v>0.97137312983436241</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>17</v>
       </c>
@@ -4652,7 +9086,7 @@
         <v>0.96564818113584405</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>17</v>
       </c>
@@ -4673,7 +9107,7 @@
         <v>0.98615413351303938</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
@@ -4694,7 +9128,7 @@
         <v>0.81614304813724192</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>17</v>
       </c>
@@ -4715,7 +9149,7 @@
         <v>0.99062747502826054</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="24" t="s">
         <v>17</v>
       </c>
@@ -4736,7 +9170,7 @@
         <v>0.8017889383227903</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="23" t="s">
         <v>8</v>
       </c>
@@ -4757,7 +9191,7 @@
         <v>0.91491242479773871</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -4778,7 +9212,7 @@
         <v>0.98614668783411374</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -4799,7 +9233,7 @@
         <v>0.98846460022921379</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -4820,7 +9254,7 @@
         <v>0.97801665665891335</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -4841,7 +9275,7 @@
         <v>0.97938272361722756</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -4862,7 +9296,7 @@
         <v>0.98468794106606472</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -4883,7 +9317,7 @@
         <v>0.85048694279360326</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -4904,7 +9338,7 @@
         <v>0.99131757407630161</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="24" t="s">
         <v>8</v>
       </c>
@@ -4925,7 +9359,7 @@
         <v>0.85048694279360326</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="23" t="s">
         <v>5</v>
       </c>
@@ -4946,7 +9380,7 @@
         <v>0.96239078659640898</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -4967,7 +9401,7 @@
         <v>0.99475732424626429</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -4988,7 +9422,7 @@
         <v>0.99835895351950787</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -5009,7 +9443,7 @@
         <v>0.99275511386664239</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -5030,7 +9464,7 @@
         <v>0.99108386122525394</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -5051,7 +9485,7 @@
         <v>0.99475732424626429</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
@@ -5072,7 +9506,7 @@
         <v>0.82361801283346525</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -5093,7 +9527,7 @@
         <v>0.99475732424626429</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="24" t="s">
         <v>5</v>
       </c>
@@ -5114,7 +9548,7 @@
         <v>0.82414337994265474</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="23" t="s">
         <v>7</v>
       </c>
@@ -5135,7 +9569,7 @@
         <v>0.89229655899751925</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -5156,7 +9590,7 @@
         <v>0.9660568874430101</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
@@ -5177,7 +9611,7 @@
         <v>0.9577696454973843</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>7</v>
       </c>
@@ -5198,7 +9632,7 @@
         <v>0.9660568874430101</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>7</v>
       </c>
@@ -5219,7 +9653,7 @@
         <v>0.9567341492904996</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
@@ -5240,7 +9674,7 @@
         <v>0.9660568874430101</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
@@ -5261,7 +9695,7 @@
         <v>0.89042048439629262</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>7</v>
       </c>
@@ -5282,7 +9716,7 @@
         <v>0.9660568874430101</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="24" t="s">
         <v>7</v>
       </c>
@@ -5303,7 +9737,7 @@
         <v>0.89042048439629262</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="23" t="s">
         <v>12</v>
       </c>
@@ -5324,7 +9758,7 @@
         <v>0.91640477464424985</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>12</v>
       </c>
@@ -5345,7 +9779,7 @@
         <v>0.98183550520608875</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -5366,7 +9800,7 @@
         <v>0.98528676458249154</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
@@ -5387,7 +9821,7 @@
         <v>0.9634590798090622</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -5408,7 +9842,7 @@
         <v>0.98108671467625141</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
@@ -5429,7 +9863,7 @@
         <v>0.9762370260908031</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>12</v>
       </c>
@@ -5450,7 +9884,7 @@
         <v>0.91282094856419826</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>12</v>
       </c>
@@ -5471,7 +9905,7 @@
         <v>0.98727180486467481</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="24" t="s">
         <v>12</v>
       </c>
@@ -5492,7 +9926,7 @@
         <v>0.91282094856419826</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="23" t="s">
         <v>9</v>
       </c>
@@ -5513,7 +9947,7 @@
         <v>0.96122209165687411</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>9</v>
       </c>
@@ -5534,7 +9968,7 @@
         <v>0.97961697543188164</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
@@ -5555,7 +9989,7 @@
         <v>0.97643466086144881</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>9</v>
       </c>
@@ -5576,7 +10010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
@@ -5597,7 +10031,7 @@
         <v>0.97961697543188164</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
@@ -5618,7 +10052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>9</v>
       </c>
@@ -5639,7 +10073,7 @@
         <v>0.64080832382946129</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>9</v>
       </c>
@@ -5660,7 +10094,7 @@
         <v>0.97643466086144881</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="24" t="s">
         <v>9</v>
       </c>
@@ -5681,7 +10115,7 @@
         <v>0.64080832382946129</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="23" t="s">
         <v>6</v>
       </c>
@@ -5702,7 +10136,7 @@
         <v>0.89778791725507401</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>6</v>
       </c>
@@ -5723,7 +10157,7 @@
         <v>0.96752432456959747</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>6</v>
       </c>
@@ -5744,7 +10178,7 @@
         <v>0.94464249007298773</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>6</v>
       </c>
@@ -5765,7 +10199,7 @@
         <v>0.97637205875436972</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>6</v>
       </c>
@@ -5786,7 +10220,7 @@
         <v>0.90851454110602192</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>6</v>
       </c>
@@ -5807,7 +10241,7 @@
         <v>0.97637205875436972</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>6</v>
       </c>
@@ -5828,7 +10262,7 @@
         <v>0.8169378698224854</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>6</v>
       </c>
@@ -5849,7 +10283,7 @@
         <v>0.95070615658850921</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="24" t="s">
         <v>6</v>
       </c>
@@ -5870,7 +10304,7 @@
         <v>0.8169378698224854</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="23" t="s">
         <v>19</v>
       </c>
@@ -5891,7 +10325,7 @@
         <v>0.93743665785724206</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>19</v>
       </c>
@@ -5912,7 +10346,7 @@
         <v>0.97286426789261193</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>19</v>
       </c>
@@ -5933,7 +10367,7 @@
         <v>0.98679580934736344</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>19</v>
       </c>
@@ -5954,7 +10388,7 @@
         <v>0.97691381615327322</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>19</v>
       </c>
@@ -5975,7 +10409,7 @@
         <v>0.97192684674819696</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>19</v>
       </c>
@@ -5996,7 +10430,7 @@
         <v>0.98603599623958682</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>19</v>
       </c>
@@ -6017,7 +10451,7 @@
         <v>0.77629128560739868</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>19</v>
       </c>
@@ -6038,7 +10472,7 @@
         <v>0.98936080295385254</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="24" t="s">
         <v>19</v>
       </c>
@@ -6059,7 +10493,7 @@
         <v>0.7765653324345565</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="23" t="s">
         <v>10</v>
       </c>
@@ -6080,7 +10514,7 @@
         <v>0.96005973711686565</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>10</v>
       </c>
@@ -6101,7 +10535,7 @@
         <v>0.98890572330559889</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>10</v>
       </c>
@@ -6122,7 +10556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>10</v>
       </c>
@@ -6143,7 +10577,7 @@
         <v>0.98678761331293874</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>10</v>
       </c>
@@ -6164,7 +10598,7 @@
         <v>0.9873571748624258</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>10</v>
       </c>
@@ -6185,7 +10619,7 @@
         <v>0.9965384094072971</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>10</v>
       </c>
@@ -6206,7 +10640,7 @@
         <v>0.85060393827230385</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
@@ -6227,7 +10661,7 @@
         <v>0.98786282347320298</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="24" t="s">
         <v>10</v>
       </c>
@@ -6248,7 +10682,7 @@
         <v>0.81136396694210688</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="23" t="s">
         <v>11</v>
       </c>
@@ -6269,7 +10703,7 @@
         <v>0.94421131295178096</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>11</v>
       </c>
@@ -6290,7 +10724,7 @@
         <v>0.98882446624292764</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
@@ -6311,7 +10745,7 @@
         <v>0.99489049248364869</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>11</v>
       </c>
@@ -6332,7 +10766,7 @@
         <v>0.98432310695684699</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>11</v>
       </c>
@@ -6353,7 +10787,7 @@
         <v>0.97714184851486474</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>11</v>
       </c>
@@ -6374,7 +10808,7 @@
         <v>0.99302603186081362</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>11</v>
       </c>
@@ -6395,7 +10829,7 @@
         <v>0.80488224478401083</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
@@ -6416,7 +10850,7 @@
         <v>0.99105926706221448</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="24" t="s">
         <v>11</v>
       </c>
@@ -6437,7 +10871,7 @@
         <v>0.80505420565915642</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="23" t="s">
         <v>18</v>
       </c>
@@ -6458,7 +10892,7 @@
         <v>0.9548921682757836</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>18</v>
       </c>
@@ -6479,7 +10913,7 @@
         <v>0.9806545067282787</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>18</v>
       </c>
@@ -6500,7 +10934,7 @@
         <v>0.99460171405111342</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>18</v>
       </c>
@@ -6521,7 +10955,7 @@
         <v>0.95084223252771638</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>18</v>
       </c>
@@ -6542,7 +10976,7 @@
         <v>0.95670303502576992</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>18</v>
       </c>
@@ -6563,7 +10997,7 @@
         <v>0.97043400049102846</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>18</v>
       </c>
@@ -6584,7 +11018,7 @@
         <v>0.81789138020937768</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>18</v>
       </c>
@@ -6605,7 +11039,7 @@
         <v>0.95616610771904142</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="24" t="s">
         <v>18</v>
       </c>
@@ -6626,7 +11060,7 @@
         <v>0.77439999999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="23" t="s">
         <v>13</v>
       </c>
@@ -6647,7 +11081,7 @@
         <v>0.91476528625700393</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>13</v>
       </c>
@@ -6668,7 +11102,7 @@
         <v>0.93961544570870492</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>13</v>
       </c>
@@ -6689,7 +11123,7 @@
         <v>0.95834112119603532</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>13</v>
       </c>
@@ -6710,7 +11144,7 @@
         <v>0.94753384827890708</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>13</v>
       </c>
@@ -6731,7 +11165,7 @@
         <v>0.932388471632563</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>13</v>
       </c>
@@ -6752,7 +11186,7 @@
         <v>0.93680233404510715</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>13</v>
       </c>
@@ -6773,7 +11207,7 @@
         <v>0.84748376126939884</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>13</v>
       </c>
@@ -6794,7 +11228,7 @@
         <v>0.9522372210146135</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="24" t="s">
         <v>13</v>
       </c>
@@ -6815,7 +11249,7 @@
         <v>0.81965971713983221</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="23" t="s">
         <v>21</v>
       </c>
@@ -6836,7 +11270,7 @@
         <v>0.96351497910408401</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>21</v>
       </c>
@@ -6857,7 +11291,7 @@
         <v>0.99711382965979867</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>21</v>
       </c>
@@ -6878,7 +11312,7 @@
         <v>0.9932262032858914</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>21</v>
       </c>
@@ -6899,7 +11333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>21</v>
       </c>
@@ -6920,7 +11354,7 @@
         <v>0.99314376869489918</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>21</v>
       </c>
@@ -6941,7 +11375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>21</v>
       </c>
@@ -6962,7 +11396,7 @@
         <v>0.78105198526807462</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>21</v>
       </c>
@@ -6983,7 +11417,7 @@
         <v>0.98472982708327028</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="24" t="s">
         <v>21</v>
       </c>
@@ -7022,19 +11456,19 @@
       <selection activeCell="A6" activeCellId="2" sqref="A19:XFD19 A11:XFD11 A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="51" t="s">
         <v>22</v>
       </c>
@@ -7057,7 +11491,7 @@
       <c r="P1" s="52"/>
       <c r="Q1" s="52"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7102,7 +11536,7 @@
       <c r="V2" s="53"/>
       <c r="W2" s="53"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -7149,7 +11583,7 @@
         <v>0.8727243452125375</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -7196,7 +11630,7 @@
         <v>0.94075163398692807</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -7243,7 +11677,7 @@
         <v>0.92877816627816634</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
@@ -7290,7 +11724,7 @@
         <v>0.93029331779331792</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -7337,7 +11771,7 @@
         <v>0.92328224377020118</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -7384,7 +11818,7 @@
         <v>0.90674048174048172</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -7431,7 +11865,7 @@
         <v>0.92949640287769797</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -7478,7 +11912,7 @@
         <v>0.92057008192122092</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>12</v>
       </c>
@@ -7525,7 +11959,7 @@
         <v>0.95059434621915884</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -7572,7 +12006,7 @@
         <v>0.93925925925925924</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -7619,7 +12053,7 @@
         <v>0.93595744680851067</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -7666,7 +12100,7 @@
         <v>0.93129770992366423</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -7713,7 +12147,7 @@
         <v>0.96538314176245199</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -7760,7 +12194,7 @@
         <v>0.9207496352822353</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -7807,7 +12241,7 @@
         <v>0.87643363728470125</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -7854,7 +12288,7 @@
         <v>0.92742919389978229</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
         <v>20</v>
       </c>
@@ -7901,7 +12335,7 @@
         <v>0.93150739704118346</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -7948,7 +12382,7 @@
         <v>0.93585105257590173</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
         <v>67</v>
       </c>
@@ -7980,7 +12414,7 @@
         <v>0.99636400000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>68</v>
       </c>
@@ -8019,7 +12453,7 @@
       <c r="P22" s="55"/>
       <c r="Q22" s="55"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
@@ -8075,7 +12509,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -8134,7 +12568,7 @@
         <v>-3.0769230769230882E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -8193,7 +12627,7 @@
         <v>-1.1764705882352899E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -8252,7 +12686,7 @@
         <v>-2.222222222222214E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
@@ -8333,16 +12767,16 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A1" s="49" t="s">
         <v>48</v>
       </c>
@@ -8351,7 +12785,7 @@
       <c r="D1" s="49"/>
       <c r="E1" s="49"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8365,7 +12799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -8389,7 +12823,7 @@
       <c r="I3" s="53"/>
       <c r="J3" s="53"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -8406,7 +12840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
@@ -8423,16 +12857,16 @@
         <v>0.97692299999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A9" s="49" t="s">
         <v>50</v>
       </c>
@@ -8441,7 +12875,7 @@
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -8463,7 +12897,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -8480,7 +12914,7 @@
         <v>0.98260899999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -8497,7 +12931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -8514,31 +12948,31 @@
         <v>0.99230799999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
     </row>
   </sheetData>
@@ -8560,9 +12994,9 @@
       <selection activeCell="C3" sqref="C3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:13" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" s="3" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="51" t="s">
         <v>65</v>
       </c>
@@ -8579,7 +13013,7 @@
       <c r="L1" s="52"/>
       <c r="M1" s="52"/>
     </row>
-    <row r="2" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10"/>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -8608,7 +13042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
@@ -8645,7 +13079,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
@@ -8682,7 +13116,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>53</v>
       </c>
@@ -8719,14 +13153,14 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -8747,26 +13181,26 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:L6"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
     <col min="9" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="62" t="s">
         <v>69</v>
       </c>
@@ -8782,7 +13216,7 @@
       <c r="K2" s="63"/>
       <c r="L2" s="64"/>
     </row>
-    <row r="3" spans="2:14" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="57" t="s">
         <v>86</v>
       </c>
@@ -8817,7 +13251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="58"/>
       <c r="C4" s="35" t="s">
         <v>20</v>
@@ -8850,7 +13284,7 @@
         <v>0.96491228070175405</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="58"/>
       <c r="C5" s="35" t="s">
         <v>46</v>
@@ -8883,7 +13317,7 @@
         <v>0.98449612403100695</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="58"/>
       <c r="C6" s="36" t="s">
         <v>49</v>
@@ -8916,7 +13350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="31" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="59" t="s">
         <v>87</v>
       </c>
@@ -8951,7 +13385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="60"/>
       <c r="C8" s="35" t="s">
         <v>20</v>
@@ -8976,7 +13410,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="60"/>
       <c r="C9" s="35" t="s">
         <v>46</v>
@@ -9001,7 +13435,7 @@
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
     </row>
-    <row r="10" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="61"/>
       <c r="C10" s="36" t="s">
         <v>49</v>
@@ -9026,7 +13460,7 @@
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="2:14" ht="26" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" ht="25.8" x14ac:dyDescent="0.3">
       <c r="B11" s="44"/>
       <c r="C11" s="45"/>
       <c r="D11" s="18"/>
@@ -9039,7 +13473,7 @@
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="2:14" ht="26" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" ht="25.8" x14ac:dyDescent="0.3">
       <c r="B12" s="44"/>
       <c r="C12" s="45"/>
       <c r="D12" s="18"/>
@@ -9052,7 +13486,7 @@
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="2:14" ht="26" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B13" s="44"/>
       <c r="C13" s="45"/>
       <c r="D13" s="18"/>
@@ -9067,7 +13501,7 @@
       <c r="K13" s="52"/>
       <c r="L13" s="52"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I14" s="1" t="s">
         <v>0</v>
       </c>
@@ -9084,7 +13518,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H15" s="1" t="s">
         <v>20</v>
       </c>
@@ -9101,7 +13535,7 @@
         <v>0.9913043478260869</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H16" s="1" t="s">
         <v>46</v>
       </c>
@@ -9118,7 +13552,7 @@
         <v>0.99636400000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H17" s="5" t="s">
         <v>49</v>
       </c>
@@ -9135,14 +13569,14 @@
         <v>0.97981499999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>72</v>
@@ -9160,7 +13594,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>71</v>
       </c>
@@ -9192,7 +13626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>77</v>
       </c>
@@ -9228,7 +13662,7 @@
         <v>0.95300614189585864</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>78</v>
       </c>
@@ -9267,7 +13701,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>79</v>
       </c>
@@ -9300,7 +13734,7 @@
         <v>0.9917556338346204</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H24" t="s">
         <v>58</v>
       </c>
@@ -9318,7 +13752,7 @@
         <v>0.9859496229056588</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="H25" t="s">
         <v>59</v>
@@ -9337,7 +13771,7 @@
         <v>0.9917760691866504</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H26" t="s">
         <v>60</v>
       </c>
@@ -9355,7 +13789,7 @@
         <v>0.99090863929910145</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H27" t="s">
         <v>61</v>
       </c>
@@ -9373,7 +13807,7 @@
         <v>0.92319830194643915</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H28" t="s">
         <v>62</v>
       </c>
@@ -9391,7 +13825,7 @@
         <v>0.99336754279004658</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H29" s="25" t="s">
         <v>63</v>
       </c>
@@ -9418,5 +13852,6 @@
     <mergeCell ref="H13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/summary/performances.xlsx
+++ b/summary/performances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucan\OneDrive - Politecnico di Milano\PhD\progetti\CIBB2018\summary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canakoglu/GMQL-sources/CIBB2018/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BE1814-BCC0-4133-842B-6546D98E0ACF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4A44A723-8294-8849-B208-479547BF2AEF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16236" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCGA_info" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Classical ML'!$A$2:$F$164</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TCGA_info!$A$2:$F$35</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -974,8 +974,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -993,7 +993,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1074,7 +1074,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1759,7 +1759,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="460990440"/>
@@ -1818,7 +1818,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="460991752"/>
@@ -1860,7 +1860,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1890,7 +1890,7 @@
       <a:pPr>
         <a:defRPr sz="1400"/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1904,7 +1904,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1966,7 +1966,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2222,6 +2222,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.95648604269293902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92205491585473798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92352941176470504</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2285,7 +2294,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="547957640"/>
@@ -2344,7 +2353,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="547956000"/>
@@ -2386,7 +2395,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2423,7 +2432,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2437,7 +2446,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2499,7 +2508,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2755,6 +2764,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.71038251366120198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57142857142857095</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2818,7 +2836,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="547957640"/>
@@ -2877,7 +2895,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="547956000"/>
@@ -2919,7 +2937,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2956,7 +2974,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2970,7 +2988,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3032,7 +3050,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3288,6 +3306,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.94202898550724601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98113207547169801</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3351,7 +3378,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="547957640"/>
@@ -3410,7 +3437,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="547956000"/>
@@ -3452,7 +3479,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3489,7 +3516,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3503,7 +3530,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3565,7 +3592,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3821,6 +3848,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.570175438596491</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.403100775193798</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3884,7 +3920,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="547957640"/>
@@ -3943,7 +3979,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="547956000"/>
@@ -3985,7 +4021,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4022,7 +4058,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6817,8 +6853,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="769620" y="7559040"/>
-          <a:ext cx="9616440" cy="6416040"/>
+          <a:off x="769620" y="7798394"/>
+          <a:ext cx="10785597" cy="6635453"/>
           <a:chOff x="769620" y="7559040"/>
           <a:chExt cx="9616440" cy="6416040"/>
         </a:xfrm>
@@ -6933,7 +6969,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7259,9 +7295,9 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
         <v>45</v>
       </c>
@@ -7271,7 +7307,7 @@
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -7291,7 +7327,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -7312,7 +7348,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -7333,7 +7369,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -7354,7 +7390,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -7375,7 +7411,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -7396,7 +7432,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -7417,7 +7453,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -7438,7 +7474,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -7459,7 +7495,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -7480,7 +7516,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -7501,7 +7537,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -7522,7 +7558,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -7543,7 +7579,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -7564,7 +7600,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -7585,7 +7621,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -7606,7 +7642,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -7627,7 +7663,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -7648,7 +7684,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -7669,7 +7705,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -7690,7 +7726,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -7711,7 +7747,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -7732,7 +7768,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -7753,7 +7789,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -7774,7 +7810,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -7795,7 +7831,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -7816,7 +7852,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -7837,7 +7873,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -7858,7 +7894,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -7879,7 +7915,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -7900,7 +7936,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -7921,7 +7957,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -7942,7 +7978,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -7963,7 +7999,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -8002,14 +8038,14 @@
       <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.4">
       <c r="A1" s="49" t="s">
         <v>64</v>
       </c>
@@ -8019,7 +8055,7 @@
       <c r="E1" s="50"/>
       <c r="F1" s="50"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
@@ -8036,7 +8072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -8057,7 +8093,7 @@
         <v>0.93342783709138</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -8078,7 +8114,7 @@
         <v>0.98142897589386802</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -8099,7 +8135,7 @@
         <v>0.99254105839416051</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -8120,7 +8156,7 @@
         <v>0.99254105839416051</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -8141,7 +8177,7 @@
         <v>0.98743566479432654</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -8162,7 +8198,7 @@
         <v>0.99254105839416051</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -8183,7 +8219,7 @@
         <v>0.9381888723275893</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -8204,7 +8240,7 @@
         <v>0.97280700799135544</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>16</v>
       </c>
@@ -8225,7 +8261,7 @@
         <v>0.9381888723275893</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
@@ -8246,7 +8282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -8267,7 +8303,7 @@
         <v>0.97963138493944213</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -8288,7 +8324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -8309,7 +8345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -8330,7 +8366,7 @@
         <v>0.98945470728207363</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -8351,7 +8387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -8372,7 +8408,7 @@
         <v>0.92121459900134073</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -8393,7 +8429,7 @@
         <v>0.93168869309838476</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>14</v>
       </c>
@@ -8414,7 +8450,7 @@
         <v>0.52585673349700923</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>15</v>
       </c>
@@ -8435,7 +8471,7 @@
         <v>0.97499191563499832</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -8456,7 +8492,7 @@
         <v>0.98916909853794277</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -8477,7 +8513,7 @@
         <v>0.99486998898126011</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -8498,7 +8534,7 @@
         <v>0.98538636911158961</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -8519,7 +8555,7 @@
         <v>0.99002149103971482</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
@@ -8540,7 +8576,7 @@
         <v>0.99316437262751078</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -8561,7 +8597,7 @@
         <v>0.81605696514016346</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -8582,7 +8618,7 @@
         <v>0.98871852244004577</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>15</v>
       </c>
@@ -8603,7 +8639,7 @@
         <v>0.77626543414849702</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>4</v>
       </c>
@@ -8624,7 +8660,7 @@
         <v>0.92431635321792094</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -8645,7 +8681,7 @@
         <v>0.98897028735473957</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -8666,7 +8702,7 @@
         <v>0.98834313662151152</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -8687,7 +8723,7 @@
         <v>0.96705553340674377</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -8708,7 +8744,7 @@
         <v>0.96832273162612936</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -8729,7 +8765,7 @@
         <v>0.98633392132871511</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -8750,7 +8786,7 @@
         <v>0.85548863352160343</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -8771,7 +8807,7 @@
         <v>0.98703726630069166</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>4</v>
       </c>
@@ -8792,7 +8828,7 @@
         <v>0.85016561387674594</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="s">
         <v>20</v>
       </c>
@@ -8813,7 +8849,7 @@
         <v>0.96198609045048045</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
@@ -8834,7 +8870,7 @@
         <v>0.99382000824292438</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -8855,7 +8891,7 @@
         <v>0.99197121344212535</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -8876,7 +8912,7 @@
         <v>0.98576496472925412</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -8897,7 +8933,7 @@
         <v>0.99153522929547155</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -8918,7 +8954,7 @@
         <v>0.99058216435555657</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -8939,7 +8975,7 @@
         <v>0.87536517239403921</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -8960,7 +8996,7 @@
         <v>0.99321064153036553</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>20</v>
       </c>
@@ -8981,7 +9017,7 @@
         <v>0.82063037762013002</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
         <v>17</v>
       </c>
@@ -9002,7 +9038,7 @@
         <v>0.92171002978625005</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>17</v>
       </c>
@@ -9023,7 +9059,7 @@
         <v>0.96766016902440921</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>17</v>
       </c>
@@ -9044,7 +9080,7 @@
         <v>0.98715748983331675</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
@@ -9065,7 +9101,7 @@
         <v>0.97137312983436241</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>17</v>
       </c>
@@ -9086,7 +9122,7 @@
         <v>0.96564818113584405</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>17</v>
       </c>
@@ -9107,7 +9143,7 @@
         <v>0.98615413351303938</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
@@ -9128,7 +9164,7 @@
         <v>0.81614304813724192</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>17</v>
       </c>
@@ -9149,7 +9185,7 @@
         <v>0.99062747502826054</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
         <v>17</v>
       </c>
@@ -9170,7 +9206,7 @@
         <v>0.8017889383227903</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="s">
         <v>8</v>
       </c>
@@ -9191,7 +9227,7 @@
         <v>0.91491242479773871</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -9212,7 +9248,7 @@
         <v>0.98614668783411374</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -9233,7 +9269,7 @@
         <v>0.98846460022921379</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -9254,7 +9290,7 @@
         <v>0.97801665665891335</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -9275,7 +9311,7 @@
         <v>0.97938272361722756</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -9296,7 +9332,7 @@
         <v>0.98468794106606472</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -9317,7 +9353,7 @@
         <v>0.85048694279360326</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -9338,7 +9374,7 @@
         <v>0.99131757407630161</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
         <v>8</v>
       </c>
@@ -9359,7 +9395,7 @@
         <v>0.85048694279360326</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="23" t="s">
         <v>5</v>
       </c>
@@ -9380,7 +9416,7 @@
         <v>0.96239078659640898</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -9401,7 +9437,7 @@
         <v>0.99475732424626429</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -9422,7 +9458,7 @@
         <v>0.99835895351950787</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -9443,7 +9479,7 @@
         <v>0.99275511386664239</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -9464,7 +9500,7 @@
         <v>0.99108386122525394</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -9485,7 +9521,7 @@
         <v>0.99475732424626429</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
@@ -9506,7 +9542,7 @@
         <v>0.82361801283346525</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -9527,7 +9563,7 @@
         <v>0.99475732424626429</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>5</v>
       </c>
@@ -9548,7 +9584,7 @@
         <v>0.82414337994265474</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="s">
         <v>7</v>
       </c>
@@ -9569,7 +9605,7 @@
         <v>0.89229655899751925</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -9590,7 +9626,7 @@
         <v>0.9660568874430101</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
@@ -9611,7 +9647,7 @@
         <v>0.9577696454973843</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>7</v>
       </c>
@@ -9632,7 +9668,7 @@
         <v>0.9660568874430101</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>7</v>
       </c>
@@ -9653,7 +9689,7 @@
         <v>0.9567341492904996</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
@@ -9674,7 +9710,7 @@
         <v>0.9660568874430101</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
@@ -9695,7 +9731,7 @@
         <v>0.89042048439629262</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>7</v>
       </c>
@@ -9716,7 +9752,7 @@
         <v>0.9660568874430101</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="24" t="s">
         <v>7</v>
       </c>
@@ -9737,7 +9773,7 @@
         <v>0.89042048439629262</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="23" t="s">
         <v>12</v>
       </c>
@@ -9758,7 +9794,7 @@
         <v>0.91640477464424985</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>12</v>
       </c>
@@ -9779,7 +9815,7 @@
         <v>0.98183550520608875</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -9800,7 +9836,7 @@
         <v>0.98528676458249154</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
@@ -9821,7 +9857,7 @@
         <v>0.9634590798090622</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -9842,7 +9878,7 @@
         <v>0.98108671467625141</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
@@ -9863,7 +9899,7 @@
         <v>0.9762370260908031</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>12</v>
       </c>
@@ -9884,7 +9920,7 @@
         <v>0.91282094856419826</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>12</v>
       </c>
@@ -9905,7 +9941,7 @@
         <v>0.98727180486467481</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="24" t="s">
         <v>12</v>
       </c>
@@ -9926,7 +9962,7 @@
         <v>0.91282094856419826</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="s">
         <v>9</v>
       </c>
@@ -9947,7 +9983,7 @@
         <v>0.96122209165687411</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>9</v>
       </c>
@@ -9968,7 +10004,7 @@
         <v>0.97961697543188164</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
@@ -9989,7 +10025,7 @@
         <v>0.97643466086144881</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>9</v>
       </c>
@@ -10010,7 +10046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
@@ -10031,7 +10067,7 @@
         <v>0.97961697543188164</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
@@ -10052,7 +10088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>9</v>
       </c>
@@ -10073,7 +10109,7 @@
         <v>0.64080832382946129</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>9</v>
       </c>
@@ -10094,7 +10130,7 @@
         <v>0.97643466086144881</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="24" t="s">
         <v>9</v>
       </c>
@@ -10115,7 +10151,7 @@
         <v>0.64080832382946129</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="23" t="s">
         <v>6</v>
       </c>
@@ -10136,7 +10172,7 @@
         <v>0.89778791725507401</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>6</v>
       </c>
@@ -10157,7 +10193,7 @@
         <v>0.96752432456959747</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>6</v>
       </c>
@@ -10178,7 +10214,7 @@
         <v>0.94464249007298773</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>6</v>
       </c>
@@ -10199,7 +10235,7 @@
         <v>0.97637205875436972</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>6</v>
       </c>
@@ -10220,7 +10256,7 @@
         <v>0.90851454110602192</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>6</v>
       </c>
@@ -10241,7 +10277,7 @@
         <v>0.97637205875436972</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>6</v>
       </c>
@@ -10262,7 +10298,7 @@
         <v>0.8169378698224854</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>6</v>
       </c>
@@ -10283,7 +10319,7 @@
         <v>0.95070615658850921</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="24" t="s">
         <v>6</v>
       </c>
@@ -10304,7 +10340,7 @@
         <v>0.8169378698224854</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="23" t="s">
         <v>19</v>
       </c>
@@ -10325,7 +10361,7 @@
         <v>0.93743665785724206</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>19</v>
       </c>
@@ -10346,7 +10382,7 @@
         <v>0.97286426789261193</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>19</v>
       </c>
@@ -10367,7 +10403,7 @@
         <v>0.98679580934736344</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>19</v>
       </c>
@@ -10388,7 +10424,7 @@
         <v>0.97691381615327322</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>19</v>
       </c>
@@ -10409,7 +10445,7 @@
         <v>0.97192684674819696</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>19</v>
       </c>
@@ -10430,7 +10466,7 @@
         <v>0.98603599623958682</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>19</v>
       </c>
@@ -10451,7 +10487,7 @@
         <v>0.77629128560739868</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>19</v>
       </c>
@@ -10472,7 +10508,7 @@
         <v>0.98936080295385254</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="24" t="s">
         <v>19</v>
       </c>
@@ -10493,7 +10529,7 @@
         <v>0.7765653324345565</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="23" t="s">
         <v>10</v>
       </c>
@@ -10514,7 +10550,7 @@
         <v>0.96005973711686565</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>10</v>
       </c>
@@ -10535,7 +10571,7 @@
         <v>0.98890572330559889</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>10</v>
       </c>
@@ -10556,7 +10592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>10</v>
       </c>
@@ -10577,7 +10613,7 @@
         <v>0.98678761331293874</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>10</v>
       </c>
@@ -10598,7 +10634,7 @@
         <v>0.9873571748624258</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>10</v>
       </c>
@@ -10619,7 +10655,7 @@
         <v>0.9965384094072971</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>10</v>
       </c>
@@ -10640,7 +10676,7 @@
         <v>0.85060393827230385</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
@@ -10661,7 +10697,7 @@
         <v>0.98786282347320298</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="24" t="s">
         <v>10</v>
       </c>
@@ -10682,7 +10718,7 @@
         <v>0.81136396694210688</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="23" t="s">
         <v>11</v>
       </c>
@@ -10703,7 +10739,7 @@
         <v>0.94421131295178096</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>11</v>
       </c>
@@ -10724,7 +10760,7 @@
         <v>0.98882446624292764</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
@@ -10745,7 +10781,7 @@
         <v>0.99489049248364869</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>11</v>
       </c>
@@ -10766,7 +10802,7 @@
         <v>0.98432310695684699</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>11</v>
       </c>
@@ -10787,7 +10823,7 @@
         <v>0.97714184851486474</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>11</v>
       </c>
@@ -10808,7 +10844,7 @@
         <v>0.99302603186081362</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>11</v>
       </c>
@@ -10829,7 +10865,7 @@
         <v>0.80488224478401083</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
@@ -10850,7 +10886,7 @@
         <v>0.99105926706221448</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="24" t="s">
         <v>11</v>
       </c>
@@ -10871,7 +10907,7 @@
         <v>0.80505420565915642</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="23" t="s">
         <v>18</v>
       </c>
@@ -10892,7 +10928,7 @@
         <v>0.9548921682757836</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>18</v>
       </c>
@@ -10913,7 +10949,7 @@
         <v>0.9806545067282787</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>18</v>
       </c>
@@ -10934,7 +10970,7 @@
         <v>0.99460171405111342</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>18</v>
       </c>
@@ -10955,7 +10991,7 @@
         <v>0.95084223252771638</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>18</v>
       </c>
@@ -10976,7 +11012,7 @@
         <v>0.95670303502576992</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>18</v>
       </c>
@@ -10997,7 +11033,7 @@
         <v>0.97043400049102846</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>18</v>
       </c>
@@ -11018,7 +11054,7 @@
         <v>0.81789138020937768</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>18</v>
       </c>
@@ -11039,7 +11075,7 @@
         <v>0.95616610771904142</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="24" t="s">
         <v>18</v>
       </c>
@@ -11060,7 +11096,7 @@
         <v>0.77439999999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="23" t="s">
         <v>13</v>
       </c>
@@ -11081,7 +11117,7 @@
         <v>0.91476528625700393</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>13</v>
       </c>
@@ -11102,7 +11138,7 @@
         <v>0.93961544570870492</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>13</v>
       </c>
@@ -11123,7 +11159,7 @@
         <v>0.95834112119603532</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>13</v>
       </c>
@@ -11144,7 +11180,7 @@
         <v>0.94753384827890708</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>13</v>
       </c>
@@ -11165,7 +11201,7 @@
         <v>0.932388471632563</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>13</v>
       </c>
@@ -11186,7 +11222,7 @@
         <v>0.93680233404510715</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>13</v>
       </c>
@@ -11207,7 +11243,7 @@
         <v>0.84748376126939884</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>13</v>
       </c>
@@ -11228,7 +11264,7 @@
         <v>0.9522372210146135</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="24" t="s">
         <v>13</v>
       </c>
@@ -11249,7 +11285,7 @@
         <v>0.81965971713983221</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="23" t="s">
         <v>21</v>
       </c>
@@ -11270,7 +11306,7 @@
         <v>0.96351497910408401</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>21</v>
       </c>
@@ -11291,7 +11327,7 @@
         <v>0.99711382965979867</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>21</v>
       </c>
@@ -11312,7 +11348,7 @@
         <v>0.9932262032858914</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>21</v>
       </c>
@@ -11333,7 +11369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>21</v>
       </c>
@@ -11354,7 +11390,7 @@
         <v>0.99314376869489918</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>21</v>
       </c>
@@ -11375,7 +11411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>21</v>
       </c>
@@ -11396,7 +11432,7 @@
         <v>0.78105198526807462</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>21</v>
       </c>
@@ -11417,7 +11453,7 @@
         <v>0.98472982708327028</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="24" t="s">
         <v>21</v>
       </c>
@@ -11456,19 +11492,19 @@
       <selection activeCell="A6" activeCellId="2" sqref="A19:XFD19 A11:XFD11 A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
         <v>22</v>
       </c>
@@ -11491,7 +11527,7 @@
       <c r="P1" s="52"/>
       <c r="Q1" s="52"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -11536,7 +11572,7 @@
       <c r="V2" s="53"/>
       <c r="W2" s="53"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -11583,7 +11619,7 @@
         <v>0.8727243452125375</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -11630,7 +11666,7 @@
         <v>0.94075163398692807</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -11677,7 +11713,7 @@
         <v>0.92877816627816634</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
@@ -11724,7 +11760,7 @@
         <v>0.93029331779331792</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -11771,7 +11807,7 @@
         <v>0.92328224377020118</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -11818,7 +11854,7 @@
         <v>0.90674048174048172</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -11865,7 +11901,7 @@
         <v>0.92949640287769797</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -11912,7 +11948,7 @@
         <v>0.92057008192122092</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
         <v>12</v>
       </c>
@@ -11959,7 +11995,7 @@
         <v>0.95059434621915884</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -12006,7 +12042,7 @@
         <v>0.93925925925925924</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -12053,7 +12089,7 @@
         <v>0.93595744680851067</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -12100,7 +12136,7 @@
         <v>0.93129770992366423</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -12147,7 +12183,7 @@
         <v>0.96538314176245199</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -12194,7 +12230,7 @@
         <v>0.9207496352822353</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -12241,7 +12277,7 @@
         <v>0.87643363728470125</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -12288,7 +12324,7 @@
         <v>0.92742919389978229</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
         <v>20</v>
       </c>
@@ -12335,7 +12371,7 @@
         <v>0.93150739704118346</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -12382,7 +12418,7 @@
         <v>0.93585105257590173</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
         <v>67</v>
       </c>
@@ -12414,7 +12450,7 @@
         <v>0.99636400000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>68</v>
       </c>
@@ -12453,7 +12489,7 @@
       <c r="P22" s="55"/>
       <c r="Q22" s="55"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
@@ -12509,7 +12545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -12568,7 +12604,7 @@
         <v>-3.0769230769230882E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -12627,7 +12663,7 @@
         <v>-1.1764705882352899E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -12686,7 +12722,7 @@
         <v>-2.222222222222214E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
@@ -12767,16 +12803,16 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.4">
       <c r="A1" s="49" t="s">
         <v>48</v>
       </c>
@@ -12785,7 +12821,7 @@
       <c r="D1" s="49"/>
       <c r="E1" s="49"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -12799,7 +12835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -12823,7 +12859,7 @@
       <c r="I3" s="53"/>
       <c r="J3" s="53"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -12840,7 +12876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
@@ -12857,16 +12893,16 @@
         <v>0.97692299999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.4">
       <c r="A9" s="49" t="s">
         <v>50</v>
       </c>
@@ -12875,7 +12911,7 @@
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -12897,7 +12933,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -12914,7 +12950,7 @@
         <v>0.98260899999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -12931,7 +12967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -12948,31 +12984,31 @@
         <v>0.99230799999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
     </row>
   </sheetData>
@@ -12994,9 +13030,9 @@
       <selection activeCell="C3" sqref="C3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:13" s="3" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:13" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="51" t="s">
         <v>65</v>
       </c>
@@ -13013,7 +13049,7 @@
       <c r="L1" s="52"/>
       <c r="M1" s="52"/>
     </row>
-    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -13042,7 +13078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
@@ -13079,7 +13115,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
@@ -13116,7 +13152,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>53</v>
       </c>
@@ -13153,14 +13189,14 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -13180,27 +13216,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0D92E8-BE8B-7042-85EF-6FE2473B88F2}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="188" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C2" s="62" t="s">
         <v>69</v>
       </c>
@@ -13216,7 +13252,7 @@
       <c r="K2" s="63"/>
       <c r="L2" s="64"/>
     </row>
-    <row r="3" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" ht="30" x14ac:dyDescent="0.2">
       <c r="B3" s="57" t="s">
         <v>86</v>
       </c>
@@ -13251,7 +13287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="58"/>
       <c r="C4" s="35" t="s">
         <v>20</v>
@@ -13284,7 +13320,7 @@
         <v>0.96491228070175405</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="58"/>
       <c r="C5" s="35" t="s">
         <v>46</v>
@@ -13317,7 +13353,7 @@
         <v>0.98449612403100695</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="58"/>
       <c r="C6" s="36" t="s">
         <v>49</v>
@@ -13350,7 +13386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" ht="31" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
         <v>87</v>
       </c>
@@ -13385,7 +13421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="60"/>
       <c r="C8" s="35" t="s">
         <v>20</v>
@@ -13405,12 +13441,20 @@
       <c r="H8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I8" s="18">
+        <v>0.95648604269293902</v>
+      </c>
+      <c r="J8" s="18">
+        <v>0.71038251366120198</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0.94202898550724601</v>
+      </c>
+      <c r="L8" s="18">
+        <v>0.570175438596491</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="60"/>
       <c r="C9" s="35" t="s">
         <v>46</v>
@@ -13430,12 +13474,20 @@
       <c r="H9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-    </row>
-    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I9" s="18">
+        <v>0.92205491585473798</v>
+      </c>
+      <c r="J9" s="18">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="K9" s="18">
+        <v>1</v>
+      </c>
+      <c r="L9" s="18">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="61"/>
       <c r="C10" s="36" t="s">
         <v>49</v>
@@ -13455,12 +13507,20 @@
       <c r="H10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="2:14" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="I10" s="18">
+        <v>0.92352941176470504</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0.98113207547169801</v>
+      </c>
+      <c r="L10" s="18">
+        <v>0.403100775193798</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="26" x14ac:dyDescent="0.2">
       <c r="B11" s="44"/>
       <c r="C11" s="45"/>
       <c r="D11" s="18"/>
@@ -13473,7 +13533,7 @@
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="2:14" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" ht="26" x14ac:dyDescent="0.2">
       <c r="B12" s="44"/>
       <c r="C12" s="45"/>
       <c r="D12" s="18"/>
@@ -13486,7 +13546,7 @@
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="2:14" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:14" ht="26" x14ac:dyDescent="0.3">
       <c r="B13" s="44"/>
       <c r="C13" s="45"/>
       <c r="D13" s="18"/>
@@ -13501,7 +13561,7 @@
       <c r="K13" s="52"/>
       <c r="L13" s="52"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I14" s="1" t="s">
         <v>0</v>
       </c>
@@ -13518,7 +13578,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="H15" s="1" t="s">
         <v>20</v>
       </c>
@@ -13535,7 +13595,7 @@
         <v>0.9913043478260869</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="H16" s="1" t="s">
         <v>46</v>
       </c>
@@ -13552,7 +13612,7 @@
         <v>0.99636400000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H17" s="5" t="s">
         <v>49</v>
       </c>
@@ -13569,14 +13629,14 @@
         <v>0.97981499999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>72</v>
@@ -13594,7 +13654,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>71</v>
       </c>
@@ -13626,7 +13686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>77</v>
       </c>
@@ -13662,7 +13722,7 @@
         <v>0.95300614189585864</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>78</v>
       </c>
@@ -13701,7 +13761,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>79</v>
       </c>
@@ -13734,7 +13794,7 @@
         <v>0.9917556338346204</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H24" t="s">
         <v>58</v>
       </c>
@@ -13752,7 +13812,7 @@
         <v>0.9859496229056588</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="H25" t="s">
         <v>59</v>
@@ -13771,7 +13831,7 @@
         <v>0.9917760691866504</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H26" t="s">
         <v>60</v>
       </c>
@@ -13789,7 +13849,7 @@
         <v>0.99090863929910145</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H27" t="s">
         <v>61</v>
       </c>
@@ -13807,7 +13867,7 @@
         <v>0.92319830194643915</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H28" t="s">
         <v>62</v>
       </c>
@@ -13825,7 +13885,7 @@
         <v>0.99336754279004658</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H29" s="25" t="s">
         <v>63</v>
       </c>
@@ -13852,6 +13912,7 @@
     <mergeCell ref="H13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/summary/performances.xlsx
+++ b/summary/performances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canakoglu/GMQL-sources/CIBB2018/summary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucan\OneDrive - Politecnico di Milano\PhD\progetti\CIBB2018\summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4A44A723-8294-8849-B208-479547BF2AEF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="6_{451907C7-AB60-4BB7-A014-F4FB3421056D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{6D86615D-EA27-4160-B803-0E94256B8DC2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16236" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCGA_info" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Classical ML'!$A$2:$F$164</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TCGA_info!$A$2:$F$35</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -974,8 +974,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -993,7 +993,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1074,7 +1074,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1759,7 +1759,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="460990440"/>
@@ -1818,7 +1818,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="460991752"/>
@@ -1860,7 +1860,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1890,7 +1890,7 @@
       <a:pPr>
         <a:defRPr sz="1400"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1904,7 +1904,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1966,7 +1966,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2004,7 +2004,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:f>'Merged table'!$H$15:$H$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2070,7 +2070,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:f>'Merged table'!$H$15:$H$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2136,7 +2136,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:f>'Merged table'!$H$15:$H$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2201,7 +2201,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:f>'Merged table'!$H$15:$H$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2237,6 +2237,63 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-DF54-4DF6-AE17-39DCCDE510CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>FFNN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Merged table'!$H$15:$H$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUAD+LUSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KIRC+KIRP+KICH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merged table'!$I$15:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.98851104186424599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99503900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99607900000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B134-41D3-9850-062EEC6D8A2D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2294,7 +2351,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="547957640"/>
@@ -2353,7 +2410,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="547956000"/>
@@ -2395,7 +2452,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2432,7 +2489,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2446,7 +2503,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2508,7 +2565,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2546,7 +2603,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:f>'Merged table'!$H$15:$H$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2612,7 +2669,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:f>'Merged table'!$H$15:$H$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2678,7 +2735,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:f>'Merged table'!$H$15:$H$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2743,7 +2800,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:f>'Merged table'!$H$15:$H$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2779,6 +2836,63 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-34CF-4D3A-A36C-8A38E3E8042D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>FFNN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Merged table'!$H$15:$H$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUAD+LUSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KIRC+KIRP+KICH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merged table'!$J$15:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.94562199235649746</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97575999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98426599999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-145A-46FF-8B95-AE8B6E1E8E5F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2836,7 +2950,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="547957640"/>
@@ -2895,7 +3009,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="547956000"/>
@@ -2937,7 +3051,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2974,7 +3088,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2988,7 +3102,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3050,7 +3164,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3088,7 +3202,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:f>'Merged table'!$H$15:$H$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3154,7 +3268,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:f>'Merged table'!$H$15:$H$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3220,7 +3334,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:f>'Merged table'!$H$15:$H$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3285,7 +3399,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:f>'Merged table'!$H$15:$H$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3321,6 +3435,63 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-42F9-4B2E-8B7B-909E1159D05D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>FFNN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Merged table'!$H$15:$H$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUAD+LUSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KIRC+KIRP+KICH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merged table'!$K$15:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.91041666666666676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95708099999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98945899999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92C3-45D3-9EE5-BB168E9F8112}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3378,7 +3549,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="547957640"/>
@@ -3437,7 +3608,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="547956000"/>
@@ -3479,7 +3650,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3516,7 +3687,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3530,7 +3701,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3592,7 +3763,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3630,7 +3801,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:f>'Merged table'!$H$15:$H$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3696,7 +3867,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:f>'Merged table'!$H$15:$H$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3762,7 +3933,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:f>'Merged table'!$H$15:$H$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3827,7 +3998,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$8:$H$10</c:f>
+              <c:f>'Merged table'!$H$15:$H$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3863,6 +4034,63 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6795-474A-AF60-A4490CBB64BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>FFNN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Merged table'!$H$15:$H$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUAD+LUSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KIRC+KIRP+KICH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merged table'!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.9913043478260869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99636400000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97981499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB45-4816-A4D6-21C0E44C220E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3920,7 +4148,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="547957640"/>
@@ -3979,7 +4207,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="547956000"/>
@@ -4021,7 +4249,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4058,7 +4286,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6832,7 +7060,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>769620</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>83819</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
@@ -6853,10 +7081,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="769620" y="7798394"/>
-          <a:ext cx="10785597" cy="6635453"/>
-          <a:chOff x="769620" y="7559040"/>
-          <a:chExt cx="9616440" cy="6416040"/>
+          <a:off x="769620" y="7617680"/>
+          <a:ext cx="9612133" cy="6508806"/>
+          <a:chOff x="769620" y="7559039"/>
+          <a:chExt cx="9616440" cy="6416041"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
@@ -6894,7 +7122,7 @@
           </xdr:cNvGraphicFramePr>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="5798820" y="7559040"/>
+          <a:off x="5798820" y="7559039"/>
           <a:ext cx="4572000" cy="3017520"/>
         </xdr:xfrm>
         <a:graphic>
@@ -6969,7 +7197,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7295,9 +7523,9 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="47" t="s">
         <v>45</v>
       </c>
@@ -7307,7 +7535,7 @@
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -7327,7 +7555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -7348,7 +7576,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -7369,7 +7597,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -7390,7 +7618,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -7411,7 +7639,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -7432,7 +7660,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -7453,7 +7681,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -7474,7 +7702,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -7495,7 +7723,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -7516,7 +7744,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -7537,7 +7765,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -7558,7 +7786,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -7579,7 +7807,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -7600,7 +7828,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -7621,7 +7849,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -7642,7 +7870,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -7663,7 +7891,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -7684,7 +7912,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -7705,7 +7933,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -7726,7 +7954,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -7747,7 +7975,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -7768,7 +7996,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -7789,7 +8017,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -7810,7 +8038,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -7831,7 +8059,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -7852,7 +8080,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -7873,7 +8101,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -7894,7 +8122,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -7915,7 +8143,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -7936,7 +8164,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -7957,7 +8185,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -7978,7 +8206,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -7999,7 +8227,7 @@
         <v>20530</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -8038,14 +8266,14 @@
       <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A1" s="49" t="s">
         <v>64</v>
       </c>
@@ -8055,7 +8283,7 @@
       <c r="E1" s="50"/>
       <c r="F1" s="50"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
@@ -8072,7 +8300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -8093,7 +8321,7 @@
         <v>0.93342783709138</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -8114,7 +8342,7 @@
         <v>0.98142897589386802</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -8135,7 +8363,7 @@
         <v>0.99254105839416051</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -8156,7 +8384,7 @@
         <v>0.99254105839416051</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -8177,7 +8405,7 @@
         <v>0.98743566479432654</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -8198,7 +8426,7 @@
         <v>0.99254105839416051</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -8219,7 +8447,7 @@
         <v>0.9381888723275893</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -8240,7 +8468,7 @@
         <v>0.97280700799135544</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>16</v>
       </c>
@@ -8261,7 +8489,7 @@
         <v>0.9381888723275893</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
@@ -8282,7 +8510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -8303,7 +8531,7 @@
         <v>0.97963138493944213</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -8324,7 +8552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -8345,7 +8573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -8366,7 +8594,7 @@
         <v>0.98945470728207363</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -8387,7 +8615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -8408,7 +8636,7 @@
         <v>0.92121459900134073</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -8429,7 +8657,7 @@
         <v>0.93168869309838476</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
         <v>14</v>
       </c>
@@ -8450,7 +8678,7 @@
         <v>0.52585673349700923</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>15</v>
       </c>
@@ -8471,7 +8699,7 @@
         <v>0.97499191563499832</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -8492,7 +8720,7 @@
         <v>0.98916909853794277</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -8513,7 +8741,7 @@
         <v>0.99486998898126011</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -8534,7 +8762,7 @@
         <v>0.98538636911158961</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -8555,7 +8783,7 @@
         <v>0.99002149103971482</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
@@ -8576,7 +8804,7 @@
         <v>0.99316437262751078</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -8597,7 +8825,7 @@
         <v>0.81605696514016346</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -8618,7 +8846,7 @@
         <v>0.98871852244004577</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="24" t="s">
         <v>15</v>
       </c>
@@ -8639,7 +8867,7 @@
         <v>0.77626543414849702</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>4</v>
       </c>
@@ -8660,7 +8888,7 @@
         <v>0.92431635321792094</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -8681,7 +8909,7 @@
         <v>0.98897028735473957</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -8702,7 +8930,7 @@
         <v>0.98834313662151152</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -8723,7 +8951,7 @@
         <v>0.96705553340674377</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -8744,7 +8972,7 @@
         <v>0.96832273162612936</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -8765,7 +8993,7 @@
         <v>0.98633392132871511</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -8786,7 +9014,7 @@
         <v>0.85548863352160343</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -8807,7 +9035,7 @@
         <v>0.98703726630069166</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
         <v>4</v>
       </c>
@@ -8828,7 +9056,7 @@
         <v>0.85016561387674594</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
         <v>20</v>
       </c>
@@ -8849,7 +9077,7 @@
         <v>0.96198609045048045</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
@@ -8870,7 +9098,7 @@
         <v>0.99382000824292438</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -8891,7 +9119,7 @@
         <v>0.99197121344212535</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -8912,7 +9140,7 @@
         <v>0.98576496472925412</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -8933,7 +9161,7 @@
         <v>0.99153522929547155</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -8954,7 +9182,7 @@
         <v>0.99058216435555657</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -8975,7 +9203,7 @@
         <v>0.87536517239403921</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -8996,7 +9224,7 @@
         <v>0.99321064153036553</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="24" t="s">
         <v>20</v>
       </c>
@@ -9017,7 +9245,7 @@
         <v>0.82063037762013002</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
         <v>17</v>
       </c>
@@ -9038,7 +9266,7 @@
         <v>0.92171002978625005</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>17</v>
       </c>
@@ -9059,7 +9287,7 @@
         <v>0.96766016902440921</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>17</v>
       </c>
@@ -9080,7 +9308,7 @@
         <v>0.98715748983331675</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
@@ -9101,7 +9329,7 @@
         <v>0.97137312983436241</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>17</v>
       </c>
@@ -9122,7 +9350,7 @@
         <v>0.96564818113584405</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>17</v>
       </c>
@@ -9143,7 +9371,7 @@
         <v>0.98615413351303938</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
@@ -9164,7 +9392,7 @@
         <v>0.81614304813724192</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>17</v>
       </c>
@@ -9185,7 +9413,7 @@
         <v>0.99062747502826054</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="24" t="s">
         <v>17</v>
       </c>
@@ -9206,7 +9434,7 @@
         <v>0.8017889383227903</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="23" t="s">
         <v>8</v>
       </c>
@@ -9227,7 +9455,7 @@
         <v>0.91491242479773871</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -9248,7 +9476,7 @@
         <v>0.98614668783411374</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -9269,7 +9497,7 @@
         <v>0.98846460022921379</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -9290,7 +9518,7 @@
         <v>0.97801665665891335</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -9311,7 +9539,7 @@
         <v>0.97938272361722756</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -9332,7 +9560,7 @@
         <v>0.98468794106606472</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -9353,7 +9581,7 @@
         <v>0.85048694279360326</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -9374,7 +9602,7 @@
         <v>0.99131757407630161</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="24" t="s">
         <v>8</v>
       </c>
@@ -9395,7 +9623,7 @@
         <v>0.85048694279360326</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="23" t="s">
         <v>5</v>
       </c>
@@ -9416,7 +9644,7 @@
         <v>0.96239078659640898</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -9437,7 +9665,7 @@
         <v>0.99475732424626429</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -9458,7 +9686,7 @@
         <v>0.99835895351950787</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -9479,7 +9707,7 @@
         <v>0.99275511386664239</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -9500,7 +9728,7 @@
         <v>0.99108386122525394</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -9521,7 +9749,7 @@
         <v>0.99475732424626429</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
@@ -9542,7 +9770,7 @@
         <v>0.82361801283346525</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -9563,7 +9791,7 @@
         <v>0.99475732424626429</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="24" t="s">
         <v>5</v>
       </c>
@@ -9584,7 +9812,7 @@
         <v>0.82414337994265474</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="23" t="s">
         <v>7</v>
       </c>
@@ -9605,7 +9833,7 @@
         <v>0.89229655899751925</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -9626,7 +9854,7 @@
         <v>0.9660568874430101</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
@@ -9647,7 +9875,7 @@
         <v>0.9577696454973843</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>7</v>
       </c>
@@ -9668,7 +9896,7 @@
         <v>0.9660568874430101</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>7</v>
       </c>
@@ -9689,7 +9917,7 @@
         <v>0.9567341492904996</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
@@ -9710,7 +9938,7 @@
         <v>0.9660568874430101</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
@@ -9731,7 +9959,7 @@
         <v>0.89042048439629262</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>7</v>
       </c>
@@ -9752,7 +9980,7 @@
         <v>0.9660568874430101</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="24" t="s">
         <v>7</v>
       </c>
@@ -9773,7 +10001,7 @@
         <v>0.89042048439629262</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="23" t="s">
         <v>12</v>
       </c>
@@ -9794,7 +10022,7 @@
         <v>0.91640477464424985</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>12</v>
       </c>
@@ -9815,7 +10043,7 @@
         <v>0.98183550520608875</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -9836,7 +10064,7 @@
         <v>0.98528676458249154</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
@@ -9857,7 +10085,7 @@
         <v>0.9634590798090622</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -9878,7 +10106,7 @@
         <v>0.98108671467625141</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
@@ -9899,7 +10127,7 @@
         <v>0.9762370260908031</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>12</v>
       </c>
@@ -9920,7 +10148,7 @@
         <v>0.91282094856419826</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>12</v>
       </c>
@@ -9941,7 +10169,7 @@
         <v>0.98727180486467481</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="24" t="s">
         <v>12</v>
       </c>
@@ -9962,7 +10190,7 @@
         <v>0.91282094856419826</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="23" t="s">
         <v>9</v>
       </c>
@@ -9983,7 +10211,7 @@
         <v>0.96122209165687411</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>9</v>
       </c>
@@ -10004,7 +10232,7 @@
         <v>0.97961697543188164</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
@@ -10025,7 +10253,7 @@
         <v>0.97643466086144881</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>9</v>
       </c>
@@ -10046,7 +10274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
@@ -10067,7 +10295,7 @@
         <v>0.97961697543188164</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
@@ -10088,7 +10316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>9</v>
       </c>
@@ -10109,7 +10337,7 @@
         <v>0.64080832382946129</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>9</v>
       </c>
@@ -10130,7 +10358,7 @@
         <v>0.97643466086144881</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="24" t="s">
         <v>9</v>
       </c>
@@ -10151,7 +10379,7 @@
         <v>0.64080832382946129</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="23" t="s">
         <v>6</v>
       </c>
@@ -10172,7 +10400,7 @@
         <v>0.89778791725507401</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>6</v>
       </c>
@@ -10193,7 +10421,7 @@
         <v>0.96752432456959747</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>6</v>
       </c>
@@ -10214,7 +10442,7 @@
         <v>0.94464249007298773</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>6</v>
       </c>
@@ -10235,7 +10463,7 @@
         <v>0.97637205875436972</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>6</v>
       </c>
@@ -10256,7 +10484,7 @@
         <v>0.90851454110602192</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>6</v>
       </c>
@@ -10277,7 +10505,7 @@
         <v>0.97637205875436972</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>6</v>
       </c>
@@ -10298,7 +10526,7 @@
         <v>0.8169378698224854</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>6</v>
       </c>
@@ -10319,7 +10547,7 @@
         <v>0.95070615658850921</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="24" t="s">
         <v>6</v>
       </c>
@@ -10340,7 +10568,7 @@
         <v>0.8169378698224854</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="23" t="s">
         <v>19</v>
       </c>
@@ -10361,7 +10589,7 @@
         <v>0.93743665785724206</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>19</v>
       </c>
@@ -10382,7 +10610,7 @@
         <v>0.97286426789261193</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>19</v>
       </c>
@@ -10403,7 +10631,7 @@
         <v>0.98679580934736344</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>19</v>
       </c>
@@ -10424,7 +10652,7 @@
         <v>0.97691381615327322</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>19</v>
       </c>
@@ -10445,7 +10673,7 @@
         <v>0.97192684674819696</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>19</v>
       </c>
@@ -10466,7 +10694,7 @@
         <v>0.98603599623958682</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>19</v>
       </c>
@@ -10487,7 +10715,7 @@
         <v>0.77629128560739868</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>19</v>
       </c>
@@ -10508,7 +10736,7 @@
         <v>0.98936080295385254</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="24" t="s">
         <v>19</v>
       </c>
@@ -10529,7 +10757,7 @@
         <v>0.7765653324345565</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="23" t="s">
         <v>10</v>
       </c>
@@ -10550,7 +10778,7 @@
         <v>0.96005973711686565</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>10</v>
       </c>
@@ -10571,7 +10799,7 @@
         <v>0.98890572330559889</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>10</v>
       </c>
@@ -10592,7 +10820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>10</v>
       </c>
@@ -10613,7 +10841,7 @@
         <v>0.98678761331293874</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>10</v>
       </c>
@@ -10634,7 +10862,7 @@
         <v>0.9873571748624258</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>10</v>
       </c>
@@ -10655,7 +10883,7 @@
         <v>0.9965384094072971</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>10</v>
       </c>
@@ -10676,7 +10904,7 @@
         <v>0.85060393827230385</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
@@ -10697,7 +10925,7 @@
         <v>0.98786282347320298</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="24" t="s">
         <v>10</v>
       </c>
@@ -10718,7 +10946,7 @@
         <v>0.81136396694210688</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="23" t="s">
         <v>11</v>
       </c>
@@ -10739,7 +10967,7 @@
         <v>0.94421131295178096</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>11</v>
       </c>
@@ -10760,7 +10988,7 @@
         <v>0.98882446624292764</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
@@ -10781,7 +11009,7 @@
         <v>0.99489049248364869</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>11</v>
       </c>
@@ -10802,7 +11030,7 @@
         <v>0.98432310695684699</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>11</v>
       </c>
@@ -10823,7 +11051,7 @@
         <v>0.97714184851486474</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>11</v>
       </c>
@@ -10844,7 +11072,7 @@
         <v>0.99302603186081362</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>11</v>
       </c>
@@ -10865,7 +11093,7 @@
         <v>0.80488224478401083</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
@@ -10886,7 +11114,7 @@
         <v>0.99105926706221448</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="24" t="s">
         <v>11</v>
       </c>
@@ -10907,7 +11135,7 @@
         <v>0.80505420565915642</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="23" t="s">
         <v>18</v>
       </c>
@@ -10928,7 +11156,7 @@
         <v>0.9548921682757836</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>18</v>
       </c>
@@ -10949,7 +11177,7 @@
         <v>0.9806545067282787</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>18</v>
       </c>
@@ -10970,7 +11198,7 @@
         <v>0.99460171405111342</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>18</v>
       </c>
@@ -10991,7 +11219,7 @@
         <v>0.95084223252771638</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>18</v>
       </c>
@@ -11012,7 +11240,7 @@
         <v>0.95670303502576992</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>18</v>
       </c>
@@ -11033,7 +11261,7 @@
         <v>0.97043400049102846</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>18</v>
       </c>
@@ -11054,7 +11282,7 @@
         <v>0.81789138020937768</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>18</v>
       </c>
@@ -11075,7 +11303,7 @@
         <v>0.95616610771904142</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="24" t="s">
         <v>18</v>
       </c>
@@ -11096,7 +11324,7 @@
         <v>0.77439999999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="23" t="s">
         <v>13</v>
       </c>
@@ -11117,7 +11345,7 @@
         <v>0.91476528625700393</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>13</v>
       </c>
@@ -11138,7 +11366,7 @@
         <v>0.93961544570870492</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>13</v>
       </c>
@@ -11159,7 +11387,7 @@
         <v>0.95834112119603532</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>13</v>
       </c>
@@ -11180,7 +11408,7 @@
         <v>0.94753384827890708</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>13</v>
       </c>
@@ -11201,7 +11429,7 @@
         <v>0.932388471632563</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>13</v>
       </c>
@@ -11222,7 +11450,7 @@
         <v>0.93680233404510715</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>13</v>
       </c>
@@ -11243,7 +11471,7 @@
         <v>0.84748376126939884</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>13</v>
       </c>
@@ -11264,7 +11492,7 @@
         <v>0.9522372210146135</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="24" t="s">
         <v>13</v>
       </c>
@@ -11285,7 +11513,7 @@
         <v>0.81965971713983221</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="23" t="s">
         <v>21</v>
       </c>
@@ -11306,7 +11534,7 @@
         <v>0.96351497910408401</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>21</v>
       </c>
@@ -11327,7 +11555,7 @@
         <v>0.99711382965979867</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>21</v>
       </c>
@@ -11348,7 +11576,7 @@
         <v>0.9932262032858914</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>21</v>
       </c>
@@ -11369,7 +11597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>21</v>
       </c>
@@ -11390,7 +11618,7 @@
         <v>0.99314376869489918</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>21</v>
       </c>
@@ -11411,7 +11639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>21</v>
       </c>
@@ -11432,7 +11660,7 @@
         <v>0.78105198526807462</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>21</v>
       </c>
@@ -11453,7 +11681,7 @@
         <v>0.98472982708327028</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="24" t="s">
         <v>21</v>
       </c>
@@ -11492,19 +11720,19 @@
       <selection activeCell="A6" activeCellId="2" sqref="A19:XFD19 A11:XFD11 A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="51" t="s">
         <v>22</v>
       </c>
@@ -11527,7 +11755,7 @@
       <c r="P1" s="52"/>
       <c r="Q1" s="52"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -11572,7 +11800,7 @@
       <c r="V2" s="53"/>
       <c r="W2" s="53"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -11619,7 +11847,7 @@
         <v>0.8727243452125375</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -11666,7 +11894,7 @@
         <v>0.94075163398692807</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -11713,7 +11941,7 @@
         <v>0.92877816627816634</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
@@ -11760,7 +11988,7 @@
         <v>0.93029331779331792</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -11807,7 +12035,7 @@
         <v>0.92328224377020118</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -11854,7 +12082,7 @@
         <v>0.90674048174048172</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -11901,7 +12129,7 @@
         <v>0.92949640287769797</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -11948,7 +12176,7 @@
         <v>0.92057008192122092</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>12</v>
       </c>
@@ -11995,7 +12223,7 @@
         <v>0.95059434621915884</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -12042,7 +12270,7 @@
         <v>0.93925925925925924</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -12089,7 +12317,7 @@
         <v>0.93595744680851067</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -12136,7 +12364,7 @@
         <v>0.93129770992366423</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -12183,7 +12411,7 @@
         <v>0.96538314176245199</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -12230,7 +12458,7 @@
         <v>0.9207496352822353</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -12277,7 +12505,7 @@
         <v>0.87643363728470125</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -12324,7 +12552,7 @@
         <v>0.92742919389978229</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
         <v>20</v>
       </c>
@@ -12371,7 +12599,7 @@
         <v>0.93150739704118346</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -12418,7 +12646,7 @@
         <v>0.93585105257590173</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
         <v>67</v>
       </c>
@@ -12450,7 +12678,7 @@
         <v>0.99636400000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>68</v>
       </c>
@@ -12489,7 +12717,7 @@
       <c r="P22" s="55"/>
       <c r="Q22" s="55"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
@@ -12545,7 +12773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -12604,7 +12832,7 @@
         <v>-3.0769230769230882E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -12663,7 +12891,7 @@
         <v>-1.1764705882352899E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -12722,7 +12950,7 @@
         <v>-2.222222222222214E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
@@ -12803,16 +13031,16 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A1" s="49" t="s">
         <v>48</v>
       </c>
@@ -12821,7 +13049,7 @@
       <c r="D1" s="49"/>
       <c r="E1" s="49"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -12835,7 +13063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -12859,7 +13087,7 @@
       <c r="I3" s="53"/>
       <c r="J3" s="53"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -12876,7 +13104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
@@ -12893,16 +13121,16 @@
         <v>0.97692299999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A9" s="49" t="s">
         <v>50</v>
       </c>
@@ -12911,7 +13139,7 @@
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -12933,7 +13161,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -12950,7 +13178,7 @@
         <v>0.98260899999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -12967,7 +13195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -12984,31 +13212,31 @@
         <v>0.99230799999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
     </row>
   </sheetData>
@@ -13030,9 +13258,9 @@
       <selection activeCell="C3" sqref="C3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:13" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" s="3" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="51" t="s">
         <v>65</v>
       </c>
@@ -13049,7 +13277,7 @@
       <c r="L1" s="52"/>
       <c r="M1" s="52"/>
     </row>
-    <row r="2" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10"/>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -13078,7 +13306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
@@ -13115,7 +13343,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
@@ -13152,7 +13380,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>53</v>
       </c>
@@ -13189,14 +13417,14 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -13216,27 +13444,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0D92E8-BE8B-7042-85EF-6FE2473B88F2}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="188" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
     <col min="9" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="62" t="s">
         <v>69</v>
       </c>
@@ -13252,7 +13480,7 @@
       <c r="K2" s="63"/>
       <c r="L2" s="64"/>
     </row>
-    <row r="3" spans="2:14" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="57" t="s">
         <v>86</v>
       </c>
@@ -13287,7 +13515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="58"/>
       <c r="C4" s="35" t="s">
         <v>20</v>
@@ -13320,7 +13548,7 @@
         <v>0.96491228070175405</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="58"/>
       <c r="C5" s="35" t="s">
         <v>46</v>
@@ -13353,7 +13581,7 @@
         <v>0.98449612403100695</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="58"/>
       <c r="C6" s="36" t="s">
         <v>49</v>
@@ -13386,7 +13614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="31" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="59" t="s">
         <v>87</v>
       </c>
@@ -13421,7 +13649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="60"/>
       <c r="C8" s="35" t="s">
         <v>20</v>
@@ -13454,7 +13682,7 @@
         <v>0.570175438596491</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="60"/>
       <c r="C9" s="35" t="s">
         <v>46</v>
@@ -13487,7 +13715,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="61"/>
       <c r="C10" s="36" t="s">
         <v>49</v>
@@ -13520,7 +13748,7 @@
         <v>0.403100775193798</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="26" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" ht="25.8" x14ac:dyDescent="0.3">
       <c r="B11" s="44"/>
       <c r="C11" s="45"/>
       <c r="D11" s="18"/>
@@ -13533,7 +13761,7 @@
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="2:14" ht="26" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" ht="25.8" x14ac:dyDescent="0.3">
       <c r="B12" s="44"/>
       <c r="C12" s="45"/>
       <c r="D12" s="18"/>
@@ -13546,7 +13774,7 @@
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="2:14" ht="26" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B13" s="44"/>
       <c r="C13" s="45"/>
       <c r="D13" s="18"/>
@@ -13561,7 +13789,7 @@
       <c r="K13" s="52"/>
       <c r="L13" s="52"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I14" s="1" t="s">
         <v>0</v>
       </c>
@@ -13578,7 +13806,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H15" s="1" t="s">
         <v>20</v>
       </c>
@@ -13595,7 +13823,7 @@
         <v>0.9913043478260869</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H16" s="1" t="s">
         <v>46</v>
       </c>
@@ -13612,7 +13840,7 @@
         <v>0.99636400000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H17" s="5" t="s">
         <v>49</v>
       </c>
@@ -13629,14 +13857,14 @@
         <v>0.97981499999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>72</v>
@@ -13654,7 +13882,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>71</v>
       </c>
@@ -13686,7 +13914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>77</v>
       </c>
@@ -13722,7 +13950,7 @@
         <v>0.95300614189585864</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>78</v>
       </c>
@@ -13761,7 +13989,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>79</v>
       </c>
@@ -13794,7 +14022,7 @@
         <v>0.9917556338346204</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H24" t="s">
         <v>58</v>
       </c>
@@ -13812,7 +14040,7 @@
         <v>0.9859496229056588</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="H25" t="s">
         <v>59</v>
@@ -13831,7 +14059,7 @@
         <v>0.9917760691866504</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H26" t="s">
         <v>60</v>
       </c>
@@ -13849,7 +14077,7 @@
         <v>0.99090863929910145</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H27" t="s">
         <v>61</v>
       </c>
@@ -13867,7 +14095,7 @@
         <v>0.92319830194643915</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H28" t="s">
         <v>62</v>
       </c>
@@ -13885,7 +14113,7 @@
         <v>0.99336754279004658</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H29" s="25" t="s">
         <v>63</v>
       </c>

--- a/summary/performances.xlsx
+++ b/summary/performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucan\OneDrive - Politecnico di Milano\PhD\progetti\CIBB2018\summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="6_{451907C7-AB60-4BB7-A014-F4FB3421056D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{6D86615D-EA27-4160-B803-0E94256B8DC2}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="6_{451907C7-AB60-4BB7-A014-F4FB3421056D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{CCC14476-A39C-47FD-A318-50A911518322}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16236" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,12 +27,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Classical ML'!$A$2:$F$164</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TCGA_info!$A$2:$F$35</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="97">
   <si>
     <t>accuracy</t>
   </si>
@@ -321,10 +321,13 @@
     <t>5-CV</t>
   </si>
   <si>
-    <t xml:space="preserve"> calculate LUNG AND KIDNEY</t>
+    <t>FFNN</t>
   </si>
   <si>
-    <t>TL against NN</t>
+    <t>LinearSVM</t>
+  </si>
+  <si>
+    <t>Baselines</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -821,12 +824,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -970,6 +986,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2004,7 +2034,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$15:$H$17</c:f>
+              <c:f>'Merged table'!$C$15:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2070,7 +2100,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$15:$H$17</c:f>
+              <c:f>'Merged table'!$C$15:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2136,7 +2166,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$15:$H$17</c:f>
+              <c:f>'Merged table'!$C$15:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2201,7 +2231,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$15:$H$17</c:f>
+              <c:f>'Merged table'!$C$15:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2258,7 +2288,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$15:$H$17</c:f>
+              <c:f>'Merged table'!$C$15:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2294,6 +2324,71 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B134-41D3-9850-062EEC6D8A2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Merged table'!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LinearSVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Merged table'!$C$15:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUAD+LUSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KIRC+KIRP+KICH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merged table'!$D$15:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.99491300000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99698600000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.996668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07D8-4D93-9B99-FBA8EF467B3E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2603,7 +2698,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$15:$H$17</c:f>
+              <c:f>'Merged table'!$C$15:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2669,7 +2764,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$15:$H$17</c:f>
+              <c:f>'Merged table'!$C$15:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2735,7 +2830,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$15:$H$17</c:f>
+              <c:f>'Merged table'!$C$15:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2800,7 +2895,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$15:$H$17</c:f>
+              <c:f>'Merged table'!$C$15:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2857,7 +2952,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$15:$H$17</c:f>
+              <c:f>'Merged table'!$C$15:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2893,6 +2988,71 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-145A-46FF-8B95-AE8B6E1E8E5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Merged table'!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LinearSVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Merged table'!$C$15:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUAD+LUSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KIRC+KIRP+KICH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merged table'!$E$15:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.97324100000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98484700000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98686499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C01D-403E-98BA-3A658E936328}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3202,7 +3362,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$15:$H$17</c:f>
+              <c:f>'Merged table'!$C$15:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3268,7 +3428,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$15:$H$17</c:f>
+              <c:f>'Merged table'!$C$15:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3334,7 +3494,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$15:$H$17</c:f>
+              <c:f>'Merged table'!$C$15:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3399,7 +3559,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$15:$H$17</c:f>
+              <c:f>'Merged table'!$C$15:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3456,7 +3616,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$15:$H$17</c:f>
+              <c:f>'Merged table'!$C$15:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3492,6 +3652,71 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-92C3-45D3-9EE5-BB168E9F8112}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Merged table'!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LinearSVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Merged table'!$C$15:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUAD+LUSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KIRC+KIRP+KICH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merged table'!$F$15:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.96469899999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98830300000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5439-4D94-B458-3CA3C67EABC8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3801,7 +4026,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$15:$H$17</c:f>
+              <c:f>'Merged table'!$C$15:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3867,7 +4092,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$15:$H$17</c:f>
+              <c:f>'Merged table'!$C$15:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3933,7 +4158,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$15:$H$17</c:f>
+              <c:f>'Merged table'!$C$15:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3998,7 +4223,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$15:$H$17</c:f>
+              <c:f>'Merged table'!$C$15:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4055,7 +4280,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Merged table'!$H$15:$H$17</c:f>
+              <c:f>'Merged table'!$C$15:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4091,6 +4316,71 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CB45-4816-A4D6-21C0E44C220E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Merged table'!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LinearSVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Merged table'!$C$15:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUAD+LUSC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KIRC+KIRP+KICH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merged table'!$G$15:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.98260899999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99636400000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98603099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1872-49F7-8BC4-048222C28E1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7081,8 +7371,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="769620" y="7617680"/>
-          <a:ext cx="9612133" cy="6508806"/>
+          <a:off x="769620" y="7611054"/>
+          <a:ext cx="10188603" cy="6508806"/>
           <a:chOff x="769620" y="7559039"/>
           <a:chExt cx="9616440" cy="6416041"/>
         </a:xfrm>
@@ -13442,17 +13732,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0D92E8-BE8B-7042-85EF-6FE2473B88F2}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.44140625" customWidth="1"/>
@@ -13463,8 +13754,8 @@
     <col min="19" max="19" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="62" t="s">
         <v>69</v>
       </c>
@@ -13480,7 +13771,7 @@
       <c r="K2" s="63"/>
       <c r="L2" s="64"/>
     </row>
-    <row r="3" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="57" t="s">
         <v>86</v>
       </c>
@@ -13515,7 +13806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="58"/>
       <c r="C4" s="35" t="s">
         <v>20</v>
@@ -13548,7 +13839,7 @@
         <v>0.96491228070175405</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="58"/>
       <c r="C5" s="35" t="s">
         <v>46</v>
@@ -13581,7 +13872,7 @@
         <v>0.98449612403100695</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="58"/>
       <c r="C6" s="36" t="s">
         <v>49</v>
@@ -13614,7 +13905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="59" t="s">
         <v>87</v>
       </c>
@@ -13649,7 +13940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="60"/>
       <c r="C8" s="35" t="s">
         <v>20</v>
@@ -13682,7 +13973,7 @@
         <v>0.570175438596491</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="60"/>
       <c r="C9" s="35" t="s">
         <v>46</v>
@@ -13715,7 +14006,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="61"/>
       <c r="C10" s="36" t="s">
         <v>49</v>
@@ -13748,7 +14039,7 @@
         <v>0.403100775193798</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="25.8" x14ac:dyDescent="0.3">
       <c r="B11" s="44"/>
       <c r="C11" s="45"/>
       <c r="D11" s="18"/>
@@ -13761,7 +14052,7 @@
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="2:14" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="25.8" x14ac:dyDescent="0.3">
       <c r="B12" s="44"/>
       <c r="C12" s="45"/>
       <c r="D12" s="18"/>
@@ -13774,22 +14065,41 @@
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="2:14" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B13" s="44"/>
       <c r="C13" s="45"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="51" t="s">
-        <v>23</v>
-      </c>
+      <c r="H13" s="51"/>
       <c r="I13" s="52"/>
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
       <c r="L13" s="52"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="67" t="s">
+        <v>94</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>0</v>
       </c>
@@ -13802,11 +14112,24 @@
       <c r="L14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="69"/>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="65">
+        <v>0.99491300000000005</v>
+      </c>
+      <c r="E15" s="65">
+        <v>0.97324100000000002</v>
+      </c>
+      <c r="F15" s="65">
+        <v>0.96469899999999997</v>
+      </c>
+      <c r="G15" s="66">
+        <v>0.98260899999999995</v>
+      </c>
       <c r="H15" s="1" t="s">
         <v>20</v>
       </c>
@@ -13823,7 +14146,23 @@
         <v>0.9913043478260869</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="69"/>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>0.99698600000000004</v>
+      </c>
+      <c r="E16">
+        <v>0.98484700000000003</v>
+      </c>
+      <c r="F16">
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="G16">
+        <v>0.99636400000000003</v>
+      </c>
       <c r="H16" s="1" t="s">
         <v>46</v>
       </c>
@@ -13840,7 +14179,23 @@
         <v>0.99636400000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="70"/>
+      <c r="C17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>0.996668</v>
+      </c>
+      <c r="E17">
+        <v>0.98686499999999999</v>
+      </c>
+      <c r="F17">
+        <v>0.98830300000000004</v>
+      </c>
+      <c r="G17">
+        <v>0.98603099999999999</v>
+      </c>
       <c r="H17" s="5" t="s">
         <v>49</v>
       </c>
@@ -13857,14 +14212,14 @@
         <v>0.97981499999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>72</v>
@@ -13882,7 +14237,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>71</v>
       </c>
@@ -13914,7 +14269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>77</v>
       </c>
@@ -13950,7 +14305,7 @@
         <v>0.95300614189585864</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>78</v>
       </c>
@@ -13985,11 +14340,8 @@
       <c r="L22">
         <v>0.99342218759878964</v>
       </c>
-      <c r="N22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>79</v>
       </c>
@@ -14022,7 +14374,22 @@
         <v>0.9917556338346204</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
       <c r="H24" t="s">
         <v>58</v>
       </c>
@@ -14040,7 +14407,7 @@
         <v>0.9859496229056588</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="H25" t="s">
         <v>59</v>
@@ -14059,7 +14426,7 @@
         <v>0.9917760691866504</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H26" t="s">
         <v>60</v>
       </c>
@@ -14077,7 +14444,7 @@
         <v>0.99090863929910145</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H27" t="s">
         <v>61</v>
       </c>
@@ -14095,7 +14462,7 @@
         <v>0.92319830194643915</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H28" t="s">
         <v>62</v>
       </c>
@@ -14113,7 +14480,7 @@
         <v>0.99336754279004658</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H29" s="25" t="s">
         <v>63</v>
       </c>
@@ -14132,7 +14499,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C2:G2"/>
@@ -14140,7 +14508,7 @@
     <mergeCell ref="H13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/summary/performances.xlsx
+++ b/summary/performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucan\OneDrive - Politecnico di Milano\PhD\progetti\CIBB2018\summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="6_{451907C7-AB60-4BB7-A014-F4FB3421056D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{CCC14476-A39C-47FD-A318-50A911518322}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CC1F18-C3FE-449B-823B-C9B39D4D9524}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16236" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16236" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCGA_info" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="100">
   <si>
     <t>accuracy</t>
   </si>
@@ -329,6 +329,15 @@
   <si>
     <t>Baselines</t>
   </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>FFN</t>
+  </si>
 </sst>
 </file>
 
@@ -337,7 +346,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +419,15 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -842,7 +860,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -934,6 +952,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -964,6 +990,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -988,20 +1023,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -7360,7 +7389,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Gruppo 7">
+        <xdr:cNvPr id="12" name="Gruppo 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49471DEE-121C-431C-BE23-5F517047E699}"/>
@@ -7379,7 +7408,7 @@
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="4" name="Grafico 3">
+          <xdr:cNvPr id="13" name="Grafico 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D677F0-17E0-47BB-9320-9A1516CBD69D}"/>
@@ -7400,7 +7429,7 @@
       </xdr:graphicFrame>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="5" name="Grafico 4">
+          <xdr:cNvPr id="14" name="Grafico 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83C36CE6-D87F-421C-BAB9-68CC31E8D3D9}"/>
@@ -7423,7 +7452,7 @@
       </xdr:graphicFrame>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="6" name="Grafico 5">
+          <xdr:cNvPr id="15" name="Grafico 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D537FF2-207F-4888-AEFD-701D6C87F259}"/>
@@ -7446,7 +7475,7 @@
       </xdr:graphicFrame>
       <xdr:graphicFrame macro="">
         <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="7" name="Grafico 6">
+          <xdr:cNvPr id="16" name="Grafico 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{254ECF02-0E8F-4032-87E7-2B5E488AB6C0}"/>
@@ -7809,21 +7838,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9BC486-AE94-4A41-83C2-002C0FB8F3B3}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8550,30 +8579,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5BAE2A-9A59-4090-92C4-B579FFF4B317}">
-  <dimension ref="A1:F164"/>
+  <dimension ref="A1:M164"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:13" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A1" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
@@ -8589,8 +8625,23 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I2" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -8610,8 +8661,23 @@
         <f>(C3*D3)/(2*D3-C3)</f>
         <v>0.93342783709138</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="50">
+        <v>0.991622</v>
+      </c>
+      <c r="K3" s="50">
+        <v>0.95774899999999996</v>
+      </c>
+      <c r="L3" s="50">
+        <v>0.92178400000000005</v>
+      </c>
+      <c r="M3" s="50">
+        <v>0.99826099999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -8631,8 +8697,23 @@
         <f t="shared" ref="F4:F67" si="0">(C4*D4)/(2*D4-C4)</f>
         <v>0.98142897589386802</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="50">
+        <v>0.99184899999999998</v>
+      </c>
+      <c r="K4" s="50">
+        <v>0.96051900000000001</v>
+      </c>
+      <c r="L4" s="50">
+        <v>0.925095</v>
+      </c>
+      <c r="M4" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -8652,8 +8733,23 @@
         <f t="shared" si="0"/>
         <v>0.99254105839416051</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="50">
+        <v>0.99686600000000003</v>
+      </c>
+      <c r="K5" s="50">
+        <v>0.98774200000000001</v>
+      </c>
+      <c r="L5" s="50">
+        <v>0.98369600000000001</v>
+      </c>
+      <c r="M5" s="50">
+        <v>0.99218499999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -8673,8 +8769,13 @@
         <f t="shared" si="0"/>
         <v>0.99254105839416051</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -8694,8 +8795,13 @@
         <f t="shared" si="0"/>
         <v>0.98743566479432654</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -8715,8 +8821,23 @@
         <f t="shared" si="0"/>
         <v>0.99254105839416051</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I8" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -8736,8 +8857,23 @@
         <f t="shared" si="0"/>
         <v>0.9381888723275893</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="50">
+        <v>0.98784300000000003</v>
+      </c>
+      <c r="K9" s="50">
+        <v>0.93200799999999995</v>
+      </c>
+      <c r="L9" s="50">
+        <v>0.96544799999999997</v>
+      </c>
+      <c r="M9" s="50">
+        <v>0.90308299999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -8757,8 +8893,23 @@
         <f t="shared" si="0"/>
         <v>0.97280700799135544</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="50">
+        <v>0.99256100000000003</v>
+      </c>
+      <c r="K10" s="50">
+        <v>0.960789</v>
+      </c>
+      <c r="L10" s="50">
+        <v>0.97269099999999997</v>
+      </c>
+      <c r="M10" s="50">
+        <v>0.950909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>16</v>
       </c>
@@ -8778,8 +8929,23 @@
         <f t="shared" si="0"/>
         <v>0.9381888723275893</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="50">
+        <v>0.99294300000000002</v>
+      </c>
+      <c r="K11" s="50">
+        <v>0.970947</v>
+      </c>
+      <c r="L11" s="50">
+        <v>0.99202000000000001</v>
+      </c>
+      <c r="M11" s="50">
+        <v>0.95206199999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
@@ -8799,8 +8965,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -8820,8 +8991,23 @@
         <f t="shared" si="0"/>
         <v>0.97963138493944213</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I13" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -8841,8 +9027,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="72">
+        <v>0.99491300000000005</v>
+      </c>
+      <c r="K14" s="72">
+        <v>0.97324100000000002</v>
+      </c>
+      <c r="L14" s="72">
+        <v>0.96469899999999997</v>
+      </c>
+      <c r="M14" s="73">
+        <v>0.98260899999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -8862,8 +9063,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="50">
+        <v>0.99698600000000004</v>
+      </c>
+      <c r="K15" s="50">
+        <v>0.98484700000000003</v>
+      </c>
+      <c r="L15" s="50">
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="M15" s="50">
+        <v>0.99636400000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -8882,6 +9098,21 @@
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0.98945470728207363</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="50">
+        <v>0.996668</v>
+      </c>
+      <c r="K16" s="50">
+        <v>0.98686499999999999</v>
+      </c>
+      <c r="L16" s="50">
+        <v>0.98830300000000004</v>
+      </c>
+      <c r="M16" s="50">
+        <v>0.98603099999999999</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -12004,10 +12235,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" activeCellId="2" sqref="A19:XFD19 A11:XFD11 A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12022,30 +12253,30 @@
     <col min="11" max="19" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="G1" s="51" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="G1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="M1" s="51" t="s">
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="M1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -12082,15 +12313,15 @@
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="53" t="s">
+      <c r="S2" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -12137,7 +12368,7 @@
         <v>0.8727243452125375</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -12184,7 +12415,7 @@
         <v>0.94075163398692807</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -12231,7 +12462,7 @@
         <v>0.92877816627816634</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
@@ -12278,7 +12509,7 @@
         <v>0.93029331779331792</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -12325,7 +12556,7 @@
         <v>0.92328224377020118</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -12372,7 +12603,7 @@
         <v>0.90674048174048172</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -12418,8 +12649,23 @@
       <c r="Q9">
         <v>0.92949640287769797</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T9" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -12465,8 +12711,23 @@
       <c r="Q10">
         <v>0.92057008192122092</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T10" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="U10" s="8">
+        <v>0.98966799999999999</v>
+      </c>
+      <c r="V10" s="8">
+        <v>0.897123</v>
+      </c>
+      <c r="W10" s="8">
+        <v>0.87152399999999997</v>
+      </c>
+      <c r="X10" s="8">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>12</v>
       </c>
@@ -12512,8 +12773,23 @@
       <c r="Q11">
         <v>0.95059434621915884</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T11" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="U11" s="8">
+        <v>0.99106899999999998</v>
+      </c>
+      <c r="V11" s="8">
+        <v>0.87263500000000005</v>
+      </c>
+      <c r="W11" s="8">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="X11" s="8">
+        <v>0.85666699999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -12560,7 +12836,7 @@
         <v>0.93925925925925924</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -12607,7 +12883,7 @@
         <v>0.93595744680851067</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -12654,7 +12930,7 @@
         <v>0.93129770992366423</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -12701,7 +12977,7 @@
         <v>0.96538314176245199</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -12999,13 +13275,13 @@
       <c r="K22">
         <v>0.97981499999999999</v>
       </c>
-      <c r="M22" s="54" t="s">
+      <c r="M22" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
@@ -13331,13 +13607,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -13369,13 +13645,13 @@
       <c r="E3">
         <v>0.97312299999999996</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -13421,13 +13697,13 @@
       <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -13551,21 +13827,21 @@
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:13" s="3" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
       <c r="G1" s="22"/>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
     </row>
     <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10"/>
@@ -13708,11 +13984,11 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C15" s="20"/>
@@ -13734,8 +14010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0D92E8-BE8B-7042-85EF-6FE2473B88F2}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="C10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13756,23 +14032,23 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="62" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="71"/>
     </row>
     <row r="3" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="64" t="s">
         <v>86</v>
       </c>
       <c r="C3" s="43" t="s">
@@ -13807,7 +14083,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="58"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="35" t="s">
         <v>20</v>
       </c>
@@ -13840,7 +14116,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="58"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="35" t="s">
         <v>46</v>
       </c>
@@ -13873,7 +14149,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="58"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="36" t="s">
         <v>49</v>
       </c>
@@ -13906,7 +14182,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="66" t="s">
         <v>87</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -13941,7 +14217,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="60"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="35" t="s">
         <v>20</v>
       </c>
@@ -13974,7 +14250,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="60"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="35" t="s">
         <v>46</v>
       </c>
@@ -14007,7 +14283,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="61"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="36" t="s">
         <v>49</v>
       </c>
@@ -14072,17 +14348,17 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="49" t="s">
         <v>95</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -14097,7 +14373,7 @@
       <c r="G14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="49" t="s">
         <v>94</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -14114,40 +14390,40 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="69"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="65">
+      <c r="D15" s="47">
         <v>0.99491300000000005</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="47">
         <v>0.97324100000000002</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="47">
         <v>0.96469899999999997</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="48">
         <v>0.98260899999999995</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="47">
         <v>0.98851104186424599</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="47">
         <v>0.94562199235649746</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="47">
         <v>0.91041666666666676</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="47">
         <v>0.9913043478260869</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="69"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
@@ -14180,7 +14456,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="70"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="5" t="s">
         <v>49</v>
       </c>
